--- a/master_problem.xlsx
+++ b/master_problem.xlsx
@@ -455,7 +455,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr"/>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Iteration</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Location</t>

--- a/master_problem.xlsx
+++ b/master_problem.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Deploy Period</t>
+          <t>Deploy period</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -507,35 +507,23 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Iteration 0</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>Nord-troms</t>
-        </is>
-      </c>
-      <c r="C2" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 0</t>
-        </is>
-      </c>
-      <c r="D2" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E2" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 0</t>
-        </is>
-      </c>
-      <c r="F2" s="1" t="inlineStr">
-        <is>
-          <t>Period 0</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>154068.3006252746</v>
@@ -556,10 +544,8 @@
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="n"/>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>Period 1</t>
-        </is>
+      <c r="F3" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>211507.9355713732</v>
@@ -580,10 +566,8 @@
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="inlineStr">
-        <is>
-          <t>Period 2</t>
-        </is>
+      <c r="F4" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>268896.5825150061</v>
@@ -604,10 +588,8 @@
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="inlineStr">
-        <is>
-          <t>Period 3</t>
-        </is>
+      <c r="F5" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="G5" t="n">
         <v>344648.2671904828</v>
@@ -628,10 +610,8 @@
       <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="inlineStr">
-        <is>
-          <t>Period 4</t>
-        </is>
+      <c r="F6" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>415712.1823794463</v>
@@ -652,10 +632,8 @@
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>Period 5</t>
-        </is>
+      <c r="F7" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="G7" t="n">
         <v>481212.1764171933</v>
@@ -676,10 +654,8 @@
       <c r="C8" s="1" t="n"/>
       <c r="D8" s="1" t="n"/>
       <c r="E8" s="1" t="n"/>
-      <c r="F8" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="F8" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G8" t="n">
         <v>538249.7170217823</v>
@@ -700,10 +676,8 @@
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F9" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G9" t="n">
         <v>615593.2684024816</v>
@@ -724,10 +698,8 @@
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F10" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G10" t="n">
         <v>744301.2295347038</v>
@@ -748,10 +720,8 @@
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n"/>
-      <c r="F11" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F11" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G11" t="n">
         <v>903341.2447394901</v>
@@ -772,10 +742,8 @@
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="n"/>
-      <c r="F12" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F12" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G12" t="n">
         <v>1204175.826007253</v>
@@ -796,10 +764,8 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F13" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G13" t="n">
         <v>1516410.339832576</v>
@@ -820,10 +786,8 @@
       <c r="C14" s="1" t="n"/>
       <c r="D14" s="1" t="n"/>
       <c r="E14" s="1" t="n"/>
-      <c r="F14" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F14" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G14" t="n">
         <v>1804434.682417868</v>
@@ -844,10 +808,8 @@
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F15" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G15" t="n">
         <v>2060897.536033852</v>
@@ -868,10 +830,8 @@
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F16" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G16" t="n">
         <v>2283813.241897851</v>
@@ -892,10 +852,8 @@
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F17" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G17" t="n">
         <v>2462052.430949516</v>
@@ -916,10 +874,8 @@
       <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F18" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G18" t="n">
         <v>2609232.31694156</v>
@@ -940,10 +896,8 @@
       <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="n"/>
       <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F19" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G19" t="n">
         <v>2737962.783746141</v>
@@ -964,10 +918,8 @@
       <c r="C20" s="1" t="n"/>
       <c r="D20" s="1" t="n"/>
       <c r="E20" s="1" t="n"/>
-      <c r="F20" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F20" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G20" t="n">
         <v>2904727.94114257</v>
@@ -988,10 +940,8 @@
       <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F21" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G21" t="n">
         <v>1790656.589772994</v>
@@ -1012,10 +962,8 @@
       <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="n"/>
       <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F22" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G22" t="n">
         <v>-2.394933221893089e-09</v>
@@ -1036,10 +984,8 @@
       <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="n"/>
       <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F23" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G23" t="n">
         <v>2.394933221893089e-09</v>
@@ -1060,10 +1006,8 @@
       <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="n"/>
       <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F24" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G24" t="n">
         <v>2.793967723846436e-09</v>
@@ -1084,10 +1028,8 @@
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="n"/>
-      <c r="F25" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F25" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G25" t="n">
         <v>1.622027145206951e-09</v>
@@ -1107,15 +1049,11 @@
       <c r="B26" s="1" t="n"/>
       <c r="C26" s="1" t="n"/>
       <c r="D26" s="1" t="n"/>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 22</t>
-        </is>
-      </c>
-      <c r="F26" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="E26" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G26" t="n">
         <v>146022.343740383</v>
@@ -1136,10 +1074,8 @@
       <c r="C27" s="1" t="n"/>
       <c r="D27" s="1" t="n"/>
       <c r="E27" s="1" t="n"/>
-      <c r="F27" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F27" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G27" t="n">
         <v>237274.5691942232</v>
@@ -1160,10 +1096,8 @@
       <c r="C28" s="1" t="n"/>
       <c r="D28" s="1" t="n"/>
       <c r="E28" s="1" t="n"/>
-      <c r="F28" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F28" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G28" t="n">
         <v>342567.6733962338</v>
@@ -1184,10 +1118,8 @@
       <c r="C29" s="1" t="n"/>
       <c r="D29" s="1" t="n"/>
       <c r="E29" s="1" t="n"/>
-      <c r="F29" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F29" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G29" t="n">
         <v>488850.1695695986</v>
@@ -1208,10 +1140,8 @@
       <c r="C30" s="1" t="n"/>
       <c r="D30" s="1" t="n"/>
       <c r="E30" s="1" t="n"/>
-      <c r="F30" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F30" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G30" t="n">
         <v>630082.2916251301</v>
@@ -1232,10 +1162,8 @@
       <c r="C31" s="1" t="n"/>
       <c r="D31" s="1" t="n"/>
       <c r="E31" s="1" t="n"/>
-      <c r="F31" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F31" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G31" t="n">
         <v>754910.4887375063</v>
@@ -1256,10 +1184,8 @@
       <c r="C32" s="1" t="n"/>
       <c r="D32" s="1" t="n"/>
       <c r="E32" s="1" t="n"/>
-      <c r="F32" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F32" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G32" t="n">
         <v>825116.1753614026</v>
@@ -1280,10 +1206,8 @@
       <c r="C33" s="1" t="n"/>
       <c r="D33" s="1" t="n"/>
       <c r="E33" s="1" t="n"/>
-      <c r="F33" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F33" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G33" t="n">
         <v>880508.3660501104</v>
@@ -1304,10 +1228,8 @@
       <c r="C34" s="1" t="n"/>
       <c r="D34" s="1" t="n"/>
       <c r="E34" s="1" t="n"/>
-      <c r="F34" s="1" t="inlineStr">
-        <is>
-          <t>Period 30</t>
-        </is>
+      <c r="F34" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="G34" t="n">
         <v>959038.9227625628</v>
@@ -1328,10 +1250,8 @@
       <c r="C35" s="1" t="n"/>
       <c r="D35" s="1" t="n"/>
       <c r="E35" s="1" t="n"/>
-      <c r="F35" s="1" t="inlineStr">
-        <is>
-          <t>Period 31</t>
-        </is>
+      <c r="F35" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="G35" t="n">
         <v>1064161.208641966</v>
@@ -1352,10 +1272,8 @@
       <c r="C36" s="1" t="n"/>
       <c r="D36" s="1" t="n"/>
       <c r="E36" s="1" t="n"/>
-      <c r="F36" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="F36" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G36" t="n">
         <v>1272440.17595018</v>
@@ -1376,10 +1294,8 @@
       <c r="C37" s="1" t="n"/>
       <c r="D37" s="1" t="n"/>
       <c r="E37" s="1" t="n"/>
-      <c r="F37" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F37" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G37" t="n">
         <v>1517577.879321774</v>
@@ -1400,10 +1316,8 @@
       <c r="C38" s="1" t="n"/>
       <c r="D38" s="1" t="n"/>
       <c r="E38" s="1" t="n"/>
-      <c r="F38" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F38" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G38" t="n">
         <v>1860267.378458019</v>
@@ -1424,10 +1338,8 @@
       <c r="C39" s="1" t="n"/>
       <c r="D39" s="1" t="n"/>
       <c r="E39" s="1" t="n"/>
-      <c r="F39" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F39" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G39" t="n">
         <v>2278536.257892584</v>
@@ -1448,10 +1360,8 @@
       <c r="C40" s="1" t="n"/>
       <c r="D40" s="1" t="n"/>
       <c r="E40" s="1" t="n"/>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F40" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G40" t="n">
         <v>2677473.454526064</v>
@@ -1472,10 +1382,8 @@
       <c r="C41" s="1" t="n"/>
       <c r="D41" s="1" t="n"/>
       <c r="E41" s="1" t="n"/>
-      <c r="F41" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F41" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G41" t="n">
         <v>3000000.000000001</v>
@@ -1496,10 +1404,8 @@
       <c r="C42" s="1" t="n"/>
       <c r="D42" s="1" t="n"/>
       <c r="E42" s="1" t="n"/>
-      <c r="F42" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F42" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G42" t="n">
         <v>2999999.999999999</v>
@@ -1520,10 +1426,8 @@
       <c r="C43" s="1" t="n"/>
       <c r="D43" s="1" t="n"/>
       <c r="E43" s="1" t="n"/>
-      <c r="F43" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F43" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G43" t="n">
         <v>3000000.000000002</v>
@@ -1544,10 +1448,8 @@
       <c r="C44" s="1" t="n"/>
       <c r="D44" s="1" t="n"/>
       <c r="E44" s="1" t="n"/>
-      <c r="F44" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F44" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G44" t="n">
         <v>1918644.303903444</v>
@@ -1568,10 +1470,8 @@
       <c r="C45" s="1" t="n"/>
       <c r="D45" s="1" t="n"/>
       <c r="E45" s="1" t="n"/>
-      <c r="F45" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F45" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -1592,10 +1492,8 @@
       <c r="C46" s="1" t="n"/>
       <c r="D46" s="1" t="n"/>
       <c r="E46" s="1" t="n"/>
-      <c r="F46" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F46" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -1616,10 +1514,8 @@
       <c r="C47" s="1" t="n"/>
       <c r="D47" s="1" t="n"/>
       <c r="E47" s="1" t="n"/>
-      <c r="F47" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F47" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G47" t="n">
         <v>0</v>
@@ -1640,10 +1536,8 @@
       <c r="C48" s="1" t="n"/>
       <c r="D48" s="1" t="n"/>
       <c r="E48" s="1" t="n"/>
-      <c r="F48" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F48" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G48" t="n">
         <v>0</v>
@@ -1664,10 +1558,8 @@
       <c r="C49" s="1" t="n"/>
       <c r="D49" s="1" t="n"/>
       <c r="E49" s="1" t="n"/>
-      <c r="F49" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F49" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G49" t="n">
         <v>0</v>
@@ -1687,15 +1579,11 @@
       <c r="B50" s="1" t="n"/>
       <c r="C50" s="1" t="n"/>
       <c r="D50" s="1" t="n"/>
-      <c r="E50" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 43</t>
-        </is>
-      </c>
-      <c r="F50" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="E50" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G50" t="n">
         <v>147411.9872371145</v>
@@ -1716,10 +1604,8 @@
       <c r="C51" s="1" t="n"/>
       <c r="D51" s="1" t="n"/>
       <c r="E51" s="1" t="n"/>
-      <c r="F51" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F51" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G51" t="n">
         <v>203456.280066654</v>
@@ -1740,10 +1626,8 @@
       <c r="C52" s="1" t="n"/>
       <c r="D52" s="1" t="n"/>
       <c r="E52" s="1" t="n"/>
-      <c r="F52" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F52" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G52" t="n">
         <v>295590.5256305029</v>
@@ -1764,10 +1648,8 @@
       <c r="C53" s="1" t="n"/>
       <c r="D53" s="1" t="n"/>
       <c r="E53" s="1" t="n"/>
-      <c r="F53" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F53" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G53" t="n">
         <v>516487.8002030834</v>
@@ -1788,10 +1670,8 @@
       <c r="C54" s="1" t="n"/>
       <c r="D54" s="1" t="n"/>
       <c r="E54" s="1" t="n"/>
-      <c r="F54" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F54" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G54" t="n">
         <v>839483.8310868964</v>
@@ -1812,10 +1692,8 @@
       <c r="C55" s="1" t="n"/>
       <c r="D55" s="1" t="n"/>
       <c r="E55" s="1" t="n"/>
-      <c r="F55" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F55" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G55" t="n">
         <v>1172975.11302733</v>
@@ -1836,10 +1714,8 @@
       <c r="C56" s="1" t="n"/>
       <c r="D56" s="1" t="n"/>
       <c r="E56" s="1" t="n"/>
-      <c r="F56" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F56" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G56" t="n">
         <v>1369372.021137803</v>
@@ -1860,10 +1736,8 @@
       <c r="C57" s="1" t="n"/>
       <c r="D57" s="1" t="n"/>
       <c r="E57" s="1" t="n"/>
-      <c r="F57" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F57" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G57" t="n">
         <v>1515872.108370326</v>
@@ -1884,10 +1758,8 @@
       <c r="C58" s="1" t="n"/>
       <c r="D58" s="1" t="n"/>
       <c r="E58" s="1" t="n"/>
-      <c r="F58" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F58" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G58" t="n">
         <v>1648488.425273728</v>
@@ -1908,10 +1780,8 @@
       <c r="C59" s="1" t="n"/>
       <c r="D59" s="1" t="n"/>
       <c r="E59" s="1" t="n"/>
-      <c r="F59" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F59" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G59" t="n">
         <v>1745895.305900867</v>
@@ -1932,10 +1802,8 @@
       <c r="C60" s="1" t="n"/>
       <c r="D60" s="1" t="n"/>
       <c r="E60" s="1" t="n"/>
-      <c r="F60" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F60" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G60" t="n">
         <v>1858982.770978522</v>
@@ -1956,10 +1824,8 @@
       <c r="C61" s="1" t="n"/>
       <c r="D61" s="1" t="n"/>
       <c r="E61" s="1" t="n"/>
-      <c r="F61" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F61" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G61" t="n">
         <v>1983992.636607143</v>
@@ -1980,10 +1846,8 @@
       <c r="C62" s="1" t="n"/>
       <c r="D62" s="1" t="n"/>
       <c r="E62" s="1" t="n"/>
-      <c r="F62" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F62" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G62" t="n">
         <v>2169473.236785314</v>
@@ -2004,10 +1868,8 @@
       <c r="C63" s="1" t="n"/>
       <c r="D63" s="1" t="n"/>
       <c r="E63" s="1" t="n"/>
-      <c r="F63" s="1" t="inlineStr">
-        <is>
-          <t>Period 56</t>
-        </is>
+      <c r="F63" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="G63" t="n">
         <v>2458817.851731133</v>
@@ -2028,10 +1890,8 @@
       <c r="C64" s="1" t="n"/>
       <c r="D64" s="1" t="n"/>
       <c r="E64" s="1" t="n"/>
-      <c r="F64" s="1" t="inlineStr">
-        <is>
-          <t>Period 57</t>
-        </is>
+      <c r="F64" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="G64" t="n">
         <v>2862675.036312833</v>
@@ -2052,10 +1912,8 @@
       <c r="C65" s="1" t="n"/>
       <c r="D65" s="1" t="n"/>
       <c r="E65" s="1" t="n"/>
-      <c r="F65" s="1" t="inlineStr">
-        <is>
-          <t>Period 58</t>
-        </is>
+      <c r="F65" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="G65" t="n">
         <v>1694569.853659012</v>
@@ -2076,10 +1934,8 @@
       <c r="C66" s="1" t="n"/>
       <c r="D66" s="1" t="n"/>
       <c r="E66" s="1" t="n"/>
-      <c r="F66" s="1" t="inlineStr">
-        <is>
-          <t>Period 59</t>
-        </is>
+      <c r="F66" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -2097,25 +1953,17 @@
     <row r="67">
       <c r="A67" s="1" t="n"/>
       <c r="B67" s="1" t="n"/>
-      <c r="C67" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 1</t>
-        </is>
-      </c>
-      <c r="D67" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E67" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 0</t>
-        </is>
-      </c>
-      <c r="F67" s="1" t="inlineStr">
-        <is>
-          <t>Period 0</t>
-        </is>
+      <c r="C67" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G67" t="n">
         <v>154068.3006252746</v>
@@ -2136,10 +1984,8 @@
       <c r="C68" s="1" t="n"/>
       <c r="D68" s="1" t="n"/>
       <c r="E68" s="1" t="n"/>
-      <c r="F68" s="1" t="inlineStr">
-        <is>
-          <t>Period 1</t>
-        </is>
+      <c r="F68" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>218762.0911168047</v>
@@ -2160,10 +2006,8 @@
       <c r="C69" s="1" t="n"/>
       <c r="D69" s="1" t="n"/>
       <c r="E69" s="1" t="n"/>
-      <c r="F69" s="1" t="inlineStr">
-        <is>
-          <t>Period 2</t>
-        </is>
+      <c r="F69" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G69" t="n">
         <v>284628.5703033127</v>
@@ -2184,10 +2028,8 @@
       <c r="C70" s="1" t="n"/>
       <c r="D70" s="1" t="n"/>
       <c r="E70" s="1" t="n"/>
-      <c r="F70" s="1" t="inlineStr">
-        <is>
-          <t>Period 3</t>
-        </is>
+      <c r="F70" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="G70" t="n">
         <v>372865.4078147223</v>
@@ -2208,10 +2050,8 @@
       <c r="C71" s="1" t="n"/>
       <c r="D71" s="1" t="n"/>
       <c r="E71" s="1" t="n"/>
-      <c r="F71" s="1" t="inlineStr">
-        <is>
-          <t>Period 4</t>
-        </is>
+      <c r="F71" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="G71" t="n">
         <v>456687.4067022</v>
@@ -2232,10 +2072,8 @@
       <c r="C72" s="1" t="n"/>
       <c r="D72" s="1" t="n"/>
       <c r="E72" s="1" t="n"/>
-      <c r="F72" s="1" t="inlineStr">
-        <is>
-          <t>Period 5</t>
-        </is>
+      <c r="F72" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="G72" t="n">
         <v>534660.3182956736</v>
@@ -2256,10 +2094,8 @@
       <c r="C73" s="1" t="n"/>
       <c r="D73" s="1" t="n"/>
       <c r="E73" s="1" t="n"/>
-      <c r="F73" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="F73" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G73" t="n">
         <v>603042.3874833928</v>
@@ -2280,10 +2116,8 @@
       <c r="C74" s="1" t="n"/>
       <c r="D74" s="1" t="n"/>
       <c r="E74" s="1" t="n"/>
-      <c r="F74" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F74" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G74" t="n">
         <v>696268.7306982642</v>
@@ -2304,10 +2138,8 @@
       <c r="C75" s="1" t="n"/>
       <c r="D75" s="1" t="n"/>
       <c r="E75" s="1" t="n"/>
-      <c r="F75" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F75" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G75" t="n">
         <v>852438.9782806498</v>
@@ -2328,10 +2160,8 @@
       <c r="C76" s="1" t="n"/>
       <c r="D76" s="1" t="n"/>
       <c r="E76" s="1" t="n"/>
-      <c r="F76" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F76" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G76" t="n">
         <v>1046962.609861513</v>
@@ -2352,10 +2182,8 @@
       <c r="C77" s="1" t="n"/>
       <c r="D77" s="1" t="n"/>
       <c r="E77" s="1" t="n"/>
-      <c r="F77" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F77" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G77" t="n">
         <v>1418220.559994403</v>
@@ -2376,10 +2204,8 @@
       <c r="C78" s="1" t="n"/>
       <c r="D78" s="1" t="n"/>
       <c r="E78" s="1" t="n"/>
-      <c r="F78" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F78" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G78" t="n">
         <v>1807134.391940065</v>
@@ -2400,10 +2226,8 @@
       <c r="C79" s="1" t="n"/>
       <c r="D79" s="1" t="n"/>
       <c r="E79" s="1" t="n"/>
-      <c r="F79" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F79" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G79" t="n">
         <v>2168360.008181169</v>
@@ -2424,10 +2248,8 @@
       <c r="C80" s="1" t="n"/>
       <c r="D80" s="1" t="n"/>
       <c r="E80" s="1" t="n"/>
-      <c r="F80" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F80" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G80" t="n">
         <v>2491634.59523199</v>
@@ -2448,10 +2270,8 @@
       <c r="C81" s="1" t="n"/>
       <c r="D81" s="1" t="n"/>
       <c r="E81" s="1" t="n"/>
-      <c r="F81" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F81" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G81" t="n">
         <v>2773720.111731977</v>
@@ -2472,10 +2292,8 @@
       <c r="C82" s="1" t="n"/>
       <c r="D82" s="1" t="n"/>
       <c r="E82" s="1" t="n"/>
-      <c r="F82" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F82" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G82" t="n">
         <v>3000000.000000001</v>
@@ -2496,10 +2314,8 @@
       <c r="C83" s="1" t="n"/>
       <c r="D83" s="1" t="n"/>
       <c r="E83" s="1" t="n"/>
-      <c r="F83" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F83" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G83" t="n">
         <v>3000000</v>
@@ -2520,10 +2336,8 @@
       <c r="C84" s="1" t="n"/>
       <c r="D84" s="1" t="n"/>
       <c r="E84" s="1" t="n"/>
-      <c r="F84" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F84" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G84" t="n">
         <v>3000000</v>
@@ -2544,10 +2358,8 @@
       <c r="C85" s="1" t="n"/>
       <c r="D85" s="1" t="n"/>
       <c r="E85" s="1" t="n"/>
-      <c r="F85" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F85" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G85" t="n">
         <v>3000000</v>
@@ -2568,10 +2380,8 @@
       <c r="C86" s="1" t="n"/>
       <c r="D86" s="1" t="n"/>
       <c r="E86" s="1" t="n"/>
-      <c r="F86" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F86" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G86" t="n">
         <v>1783223.216430122</v>
@@ -2592,10 +2402,8 @@
       <c r="C87" s="1" t="n"/>
       <c r="D87" s="1" t="n"/>
       <c r="E87" s="1" t="n"/>
-      <c r="F87" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F87" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -2616,10 +2424,8 @@
       <c r="C88" s="1" t="n"/>
       <c r="D88" s="1" t="n"/>
       <c r="E88" s="1" t="n"/>
-      <c r="F88" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F88" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -2640,10 +2446,8 @@
       <c r="C89" s="1" t="n"/>
       <c r="D89" s="1" t="n"/>
       <c r="E89" s="1" t="n"/>
-      <c r="F89" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F89" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -2664,10 +2468,8 @@
       <c r="C90" s="1" t="n"/>
       <c r="D90" s="1" t="n"/>
       <c r="E90" s="1" t="n"/>
-      <c r="F90" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F90" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -2687,15 +2489,11 @@
       <c r="B91" s="1" t="n"/>
       <c r="C91" s="1" t="n"/>
       <c r="D91" s="1" t="n"/>
-      <c r="E91" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 22</t>
-        </is>
-      </c>
-      <c r="F91" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="E91" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F91" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G91" t="n">
         <v>146022.343740383</v>
@@ -2716,10 +2514,8 @@
       <c r="C92" s="1" t="n"/>
       <c r="D92" s="1" t="n"/>
       <c r="E92" s="1" t="n"/>
-      <c r="F92" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F92" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G92" t="n">
         <v>249404.5958779364</v>
@@ -2740,10 +2536,8 @@
       <c r="C93" s="1" t="n"/>
       <c r="D93" s="1" t="n"/>
       <c r="E93" s="1" t="n"/>
-      <c r="F93" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F93" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G93" t="n">
         <v>371905.9071115692</v>
@@ -2764,10 +2558,8 @@
       <c r="C94" s="1" t="n"/>
       <c r="D94" s="1" t="n"/>
       <c r="E94" s="1" t="n"/>
-      <c r="F94" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F94" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G94" t="n">
         <v>545473.3668363756</v>
@@ -2788,10 +2580,8 @@
       <c r="C95" s="1" t="n"/>
       <c r="D95" s="1" t="n"/>
       <c r="E95" s="1" t="n"/>
-      <c r="F95" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F95" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G95" t="n">
         <v>715558.9464577683</v>
@@ -2812,10 +2602,8 @@
       <c r="C96" s="1" t="n"/>
       <c r="D96" s="1" t="n"/>
       <c r="E96" s="1" t="n"/>
-      <c r="F96" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F96" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G96" t="n">
         <v>867395.1200419373</v>
@@ -2836,10 +2624,8 @@
       <c r="C97" s="1" t="n"/>
       <c r="D97" s="1" t="n"/>
       <c r="E97" s="1" t="n"/>
-      <c r="F97" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F97" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G97" t="n">
         <v>953406.2069546185</v>
@@ -2860,10 +2646,8 @@
       <c r="C98" s="1" t="n"/>
       <c r="D98" s="1" t="n"/>
       <c r="E98" s="1" t="n"/>
-      <c r="F98" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F98" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G98" t="n">
         <v>1021558.81317449</v>
@@ -2884,10 +2668,8 @@
       <c r="C99" s="1" t="n"/>
       <c r="D99" s="1" t="n"/>
       <c r="E99" s="1" t="n"/>
-      <c r="F99" s="1" t="inlineStr">
-        <is>
-          <t>Period 30</t>
-        </is>
+      <c r="F99" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="G99" t="n">
         <v>1118371.287908606</v>
@@ -2908,10 +2690,8 @@
       <c r="C100" s="1" t="n"/>
       <c r="D100" s="1" t="n"/>
       <c r="E100" s="1" t="n"/>
-      <c r="F100" s="1" t="inlineStr">
-        <is>
-          <t>Period 31</t>
-        </is>
+      <c r="F100" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="G100" t="n">
         <v>1248362.904314616</v>
@@ -2932,10 +2712,8 @@
       <c r="C101" s="1" t="n"/>
       <c r="D101" s="1" t="n"/>
       <c r="E101" s="1" t="n"/>
-      <c r="F101" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="F101" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G101" t="n">
         <v>1506981.690435825</v>
@@ -2956,10 +2734,8 @@
       <c r="C102" s="1" t="n"/>
       <c r="D102" s="1" t="n"/>
       <c r="E102" s="1" t="n"/>
-      <c r="F102" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F102" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G102" t="n">
         <v>1813211.356022957</v>
@@ -2980,10 +2756,8 @@
       <c r="C103" s="1" t="n"/>
       <c r="D103" s="1" t="n"/>
       <c r="E103" s="1" t="n"/>
-      <c r="F103" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F103" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G103" t="n">
         <v>2243827.022650053</v>
@@ -3004,10 +2778,8 @@
       <c r="C104" s="1" t="n"/>
       <c r="D104" s="1" t="n"/>
       <c r="E104" s="1" t="n"/>
-      <c r="F104" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F104" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G104" t="n">
         <v>2772581.193628663</v>
@@ -3028,10 +2800,8 @@
       <c r="C105" s="1" t="n"/>
       <c r="D105" s="1" t="n"/>
       <c r="E105" s="1" t="n"/>
-      <c r="F105" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F105" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G105" t="n">
         <v>3000000</v>
@@ -3052,10 +2822,8 @@
       <c r="C106" s="1" t="n"/>
       <c r="D106" s="1" t="n"/>
       <c r="E106" s="1" t="n"/>
-      <c r="F106" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F106" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G106" t="n">
         <v>3000000</v>
@@ -3076,10 +2844,8 @@
       <c r="C107" s="1" t="n"/>
       <c r="D107" s="1" t="n"/>
       <c r="E107" s="1" t="n"/>
-      <c r="F107" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F107" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G107" t="n">
         <v>3000000</v>
@@ -3100,10 +2866,8 @@
       <c r="C108" s="1" t="n"/>
       <c r="D108" s="1" t="n"/>
       <c r="E108" s="1" t="n"/>
-      <c r="F108" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F108" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G108" t="n">
         <v>3000000</v>
@@ -3124,10 +2888,8 @@
       <c r="C109" s="1" t="n"/>
       <c r="D109" s="1" t="n"/>
       <c r="E109" s="1" t="n"/>
-      <c r="F109" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F109" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G109" t="n">
         <v>1915609.585709548</v>
@@ -3148,10 +2910,8 @@
       <c r="C110" s="1" t="n"/>
       <c r="D110" s="1" t="n"/>
       <c r="E110" s="1" t="n"/>
-      <c r="F110" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F110" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G110" t="n">
         <v>7.443332715389955e-09</v>
@@ -3172,10 +2932,8 @@
       <c r="C111" s="1" t="n"/>
       <c r="D111" s="1" t="n"/>
       <c r="E111" s="1" t="n"/>
-      <c r="F111" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F111" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G111" t="n">
         <v>8.646866999640618e-10</v>
@@ -3196,10 +2954,8 @@
       <c r="C112" s="1" t="n"/>
       <c r="D112" s="1" t="n"/>
       <c r="E112" s="1" t="n"/>
-      <c r="F112" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F112" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G112" t="n">
         <v>9.313225746154785e-10</v>
@@ -3220,10 +2976,8 @@
       <c r="C113" s="1" t="n"/>
       <c r="D113" s="1" t="n"/>
       <c r="E113" s="1" t="n"/>
-      <c r="F113" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F113" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G113" t="n">
         <v>5.14815394642712e-10</v>
@@ -3244,10 +2998,8 @@
       <c r="C114" s="1" t="n"/>
       <c r="D114" s="1" t="n"/>
       <c r="E114" s="1" t="n"/>
-      <c r="F114" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F114" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G114" t="n">
         <v>5.795887765625772e-10</v>
@@ -3267,15 +3019,11 @@
       <c r="B115" s="1" t="n"/>
       <c r="C115" s="1" t="n"/>
       <c r="D115" s="1" t="n"/>
-      <c r="E115" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 43</t>
-        </is>
-      </c>
-      <c r="F115" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="E115" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F115" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G115" t="n">
         <v>147411.9872371145</v>
@@ -3296,10 +3044,8 @@
       <c r="C116" s="1" t="n"/>
       <c r="D116" s="1" t="n"/>
       <c r="E116" s="1" t="n"/>
-      <c r="F116" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F116" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G116" t="n">
         <v>210545.3841088739</v>
@@ -3320,10 +3066,8 @@
       <c r="C117" s="1" t="n"/>
       <c r="D117" s="1" t="n"/>
       <c r="E117" s="1" t="n"/>
-      <c r="F117" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F117" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G117" t="n">
         <v>316730.4204696158</v>
@@ -3344,10 +3088,8 @@
       <c r="C118" s="1" t="n"/>
       <c r="D118" s="1" t="n"/>
       <c r="E118" s="1" t="n"/>
-      <c r="F118" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F118" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G118" t="n">
         <v>578169.4896760954</v>
@@ -3368,10 +3110,8 @@
       <c r="C119" s="1" t="n"/>
       <c r="D119" s="1" t="n"/>
       <c r="E119" s="1" t="n"/>
-      <c r="F119" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F119" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G119" t="n">
         <v>969880.1982371848</v>
@@ -3392,10 +3132,8 @@
       <c r="C120" s="1" t="n"/>
       <c r="D120" s="1" t="n"/>
       <c r="E120" s="1" t="n"/>
-      <c r="F120" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F120" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G120" t="n">
         <v>1380958.306055897</v>
@@ -3416,10 +3154,8 @@
       <c r="C121" s="1" t="n"/>
       <c r="D121" s="1" t="n"/>
       <c r="E121" s="1" t="n"/>
-      <c r="F121" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F121" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G121" t="n">
         <v>1625329.740398768</v>
@@ -3440,10 +3176,8 @@
       <c r="C122" s="1" t="n"/>
       <c r="D122" s="1" t="n"/>
       <c r="E122" s="1" t="n"/>
-      <c r="F122" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F122" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G122" t="n">
         <v>1808546.35457079</v>
@@ -3464,10 +3198,8 @@
       <c r="C123" s="1" t="n"/>
       <c r="D123" s="1" t="n"/>
       <c r="E123" s="1" t="n"/>
-      <c r="F123" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F123" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G123" t="n">
         <v>1974980.114192308</v>
@@ -3488,10 +3220,8 @@
       <c r="C124" s="1" t="n"/>
       <c r="D124" s="1" t="n"/>
       <c r="E124" s="1" t="n"/>
-      <c r="F124" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F124" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G124" t="n">
         <v>2097649.365172741</v>
@@ -3512,10 +3242,8 @@
       <c r="C125" s="1" t="n"/>
       <c r="D125" s="1" t="n"/>
       <c r="E125" s="1" t="n"/>
-      <c r="F125" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F125" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G125" t="n">
         <v>2240288.558709582</v>
@@ -3536,10 +3264,8 @@
       <c r="C126" s="1" t="n"/>
       <c r="D126" s="1" t="n"/>
       <c r="E126" s="1" t="n"/>
-      <c r="F126" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F126" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G126" t="n">
         <v>2398254.752151747</v>
@@ -3560,10 +3286,8 @@
       <c r="C127" s="1" t="n"/>
       <c r="D127" s="1" t="n"/>
       <c r="E127" s="1" t="n"/>
-      <c r="F127" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F127" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G127" t="n">
         <v>2632968.449282379</v>
@@ -3584,10 +3308,8 @@
       <c r="C128" s="1" t="n"/>
       <c r="D128" s="1" t="n"/>
       <c r="E128" s="1" t="n"/>
-      <c r="F128" s="1" t="inlineStr">
-        <is>
-          <t>Period 56</t>
-        </is>
+      <c r="F128" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="G128" t="n">
         <v>2999999.999999999</v>
@@ -3608,10 +3330,8 @@
       <c r="C129" s="1" t="n"/>
       <c r="D129" s="1" t="n"/>
       <c r="E129" s="1" t="n"/>
-      <c r="F129" s="1" t="inlineStr">
-        <is>
-          <t>Period 57</t>
-        </is>
+      <c r="F129" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="G129" t="n">
         <v>3000000</v>
@@ -3632,10 +3352,8 @@
       <c r="C130" s="1" t="n"/>
       <c r="D130" s="1" t="n"/>
       <c r="E130" s="1" t="n"/>
-      <c r="F130" s="1" t="inlineStr">
-        <is>
-          <t>Period 58</t>
-        </is>
+      <c r="F130" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="G130" t="n">
         <v>1684631.450488269</v>
@@ -3656,10 +3374,8 @@
       <c r="C131" s="1" t="n"/>
       <c r="D131" s="1" t="n"/>
       <c r="E131" s="1" t="n"/>
-      <c r="F131" s="1" t="inlineStr">
-        <is>
-          <t>Period 59</t>
-        </is>
+      <c r="F131" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="G131" t="n">
         <v>0</v>
@@ -3676,30 +3392,20 @@
     </row>
     <row r="132">
       <c r="A132" s="1" t="n"/>
-      <c r="B132" s="1" t="inlineStr">
-        <is>
-          <t>Senja</t>
-        </is>
-      </c>
-      <c r="C132" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 0</t>
-        </is>
-      </c>
-      <c r="D132" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E132" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 6</t>
-        </is>
-      </c>
-      <c r="F132" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="B132" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F132" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G132" t="n">
         <v>146964.9397355678</v>
@@ -3720,10 +3426,8 @@
       <c r="C133" s="1" t="n"/>
       <c r="D133" s="1" t="n"/>
       <c r="E133" s="1" t="n"/>
-      <c r="F133" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F133" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G133" t="n">
         <v>179469.7598041241</v>
@@ -3744,10 +3448,8 @@
       <c r="C134" s="1" t="n"/>
       <c r="D134" s="1" t="n"/>
       <c r="E134" s="1" t="n"/>
-      <c r="F134" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F134" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G134" t="n">
         <v>242356.0915903219</v>
@@ -3768,10 +3470,8 @@
       <c r="C135" s="1" t="n"/>
       <c r="D135" s="1" t="n"/>
       <c r="E135" s="1" t="n"/>
-      <c r="F135" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F135" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G135" t="n">
         <v>393527.184591322</v>
@@ -3792,10 +3492,8 @@
       <c r="C136" s="1" t="n"/>
       <c r="D136" s="1" t="n"/>
       <c r="E136" s="1" t="n"/>
-      <c r="F136" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F136" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G136" t="n">
         <v>617634.8323941759</v>
@@ -3816,10 +3514,8 @@
       <c r="C137" s="1" t="n"/>
       <c r="D137" s="1" t="n"/>
       <c r="E137" s="1" t="n"/>
-      <c r="F137" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F137" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G137" t="n">
         <v>876663.1956957248</v>
@@ -3840,10 +3536,8 @@
       <c r="C138" s="1" t="n"/>
       <c r="D138" s="1" t="n"/>
       <c r="E138" s="1" t="n"/>
-      <c r="F138" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F138" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G138" t="n">
         <v>1048131.583481092</v>
@@ -3864,10 +3558,8 @@
       <c r="C139" s="1" t="n"/>
       <c r="D139" s="1" t="n"/>
       <c r="E139" s="1" t="n"/>
-      <c r="F139" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F139" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G139" t="n">
         <v>1189608.332263975</v>
@@ -3888,10 +3580,8 @@
       <c r="C140" s="1" t="n"/>
       <c r="D140" s="1" t="n"/>
       <c r="E140" s="1" t="n"/>
-      <c r="F140" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F140" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G140" t="n">
         <v>1324455.031762311</v>
@@ -3912,10 +3602,8 @@
       <c r="C141" s="1" t="n"/>
       <c r="D141" s="1" t="n"/>
       <c r="E141" s="1" t="n"/>
-      <c r="F141" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F141" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G141" t="n">
         <v>1434494.601994503</v>
@@ -3936,10 +3624,8 @@
       <c r="C142" s="1" t="n"/>
       <c r="D142" s="1" t="n"/>
       <c r="E142" s="1" t="n"/>
-      <c r="F142" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F142" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G142" t="n">
         <v>1531753.428225471</v>
@@ -3960,10 +3646,8 @@
       <c r="C143" s="1" t="n"/>
       <c r="D143" s="1" t="n"/>
       <c r="E143" s="1" t="n"/>
-      <c r="F143" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F143" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G143" t="n">
         <v>1610024.209811009</v>
@@ -3984,10 +3668,8 @@
       <c r="C144" s="1" t="n"/>
       <c r="D144" s="1" t="n"/>
       <c r="E144" s="1" t="n"/>
-      <c r="F144" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F144" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G144" t="n">
         <v>1710600.84611742</v>
@@ -4008,10 +3690,8 @@
       <c r="C145" s="1" t="n"/>
       <c r="D145" s="1" t="n"/>
       <c r="E145" s="1" t="n"/>
-      <c r="F145" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F145" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G145" t="n">
         <v>1856672.543991368</v>
@@ -4032,10 +3712,8 @@
       <c r="C146" s="1" t="n"/>
       <c r="D146" s="1" t="n"/>
       <c r="E146" s="1" t="n"/>
-      <c r="F146" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F146" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G146" t="n">
         <v>2108882.394224724</v>
@@ -4056,10 +3734,8 @@
       <c r="C147" s="1" t="n"/>
       <c r="D147" s="1" t="n"/>
       <c r="E147" s="1" t="n"/>
-      <c r="F147" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F147" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G147" t="n">
         <v>2457590.699372895</v>
@@ -4080,10 +3756,8 @@
       <c r="C148" s="1" t="n"/>
       <c r="D148" s="1" t="n"/>
       <c r="E148" s="1" t="n"/>
-      <c r="F148" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F148" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G148" t="n">
         <v>2871524.718923651</v>
@@ -4104,10 +3778,8 @@
       <c r="C149" s="1" t="n"/>
       <c r="D149" s="1" t="n"/>
       <c r="E149" s="1" t="n"/>
-      <c r="F149" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F149" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G149" t="n">
         <v>3000000</v>
@@ -4128,10 +3800,8 @@
       <c r="C150" s="1" t="n"/>
       <c r="D150" s="1" t="n"/>
       <c r="E150" s="1" t="n"/>
-      <c r="F150" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F150" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G150" t="n">
         <v>3000000</v>
@@ -4152,10 +3822,8 @@
       <c r="C151" s="1" t="n"/>
       <c r="D151" s="1" t="n"/>
       <c r="E151" s="1" t="n"/>
-      <c r="F151" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F151" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G151" t="n">
         <v>3000000</v>
@@ -4176,10 +3844,8 @@
       <c r="C152" s="1" t="n"/>
       <c r="D152" s="1" t="n"/>
       <c r="E152" s="1" t="n"/>
-      <c r="F152" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F152" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G152" t="n">
         <v>3000000</v>
@@ -4200,10 +3866,8 @@
       <c r="C153" s="1" t="n"/>
       <c r="D153" s="1" t="n"/>
       <c r="E153" s="1" t="n"/>
-      <c r="F153" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F153" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G153" t="n">
         <v>3000000</v>
@@ -4224,10 +3888,8 @@
       <c r="C154" s="1" t="n"/>
       <c r="D154" s="1" t="n"/>
       <c r="E154" s="1" t="n"/>
-      <c r="F154" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F154" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G154" t="n">
         <v>3000000</v>
@@ -4248,10 +3910,8 @@
       <c r="C155" s="1" t="n"/>
       <c r="D155" s="1" t="n"/>
       <c r="E155" s="1" t="n"/>
-      <c r="F155" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F155" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G155" t="n">
         <v>1918817.585372132</v>
@@ -4271,15 +3931,11 @@
       <c r="B156" s="1" t="n"/>
       <c r="C156" s="1" t="n"/>
       <c r="D156" s="1" t="n"/>
-      <c r="E156" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 32</t>
-        </is>
-      </c>
-      <c r="F156" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="E156" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F156" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G156" t="n">
         <v>145342.6809862177</v>
@@ -4300,10 +3956,8 @@
       <c r="C157" s="1" t="n"/>
       <c r="D157" s="1" t="n"/>
       <c r="E157" s="1" t="n"/>
-      <c r="F157" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F157" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G157" t="n">
         <v>214153.9460322233</v>
@@ -4324,10 +3978,8 @@
       <c r="C158" s="1" t="n"/>
       <c r="D158" s="1" t="n"/>
       <c r="E158" s="1" t="n"/>
-      <c r="F158" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F158" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G158" t="n">
         <v>316132.4253336596</v>
@@ -4348,10 +4000,8 @@
       <c r="C159" s="1" t="n"/>
       <c r="D159" s="1" t="n"/>
       <c r="E159" s="1" t="n"/>
-      <c r="F159" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F159" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G159" t="n">
         <v>490526.8195707017</v>
@@ -4372,10 +4022,8 @@
       <c r="C160" s="1" t="n"/>
       <c r="D160" s="1" t="n"/>
       <c r="E160" s="1" t="n"/>
-      <c r="F160" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F160" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G160" t="n">
         <v>686205.5117605369</v>
@@ -4396,10 +4044,8 @@
       <c r="C161" s="1" t="n"/>
       <c r="D161" s="1" t="n"/>
       <c r="E161" s="1" t="n"/>
-      <c r="F161" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F161" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G161" t="n">
         <v>879764.3368158371</v>
@@ -4420,10 +4066,8 @@
       <c r="C162" s="1" t="n"/>
       <c r="D162" s="1" t="n"/>
       <c r="E162" s="1" t="n"/>
-      <c r="F162" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F162" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G162" t="n">
         <v>995780.3840720265</v>
@@ -4444,10 +4088,8 @@
       <c r="C163" s="1" t="n"/>
       <c r="D163" s="1" t="n"/>
       <c r="E163" s="1" t="n"/>
-      <c r="F163" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F163" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G163" t="n">
         <v>1091181.23440103</v>
@@ -4468,10 +4110,8 @@
       <c r="C164" s="1" t="n"/>
       <c r="D164" s="1" t="n"/>
       <c r="E164" s="1" t="n"/>
-      <c r="F164" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F164" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G164" t="n">
         <v>1161026.736356405</v>
@@ -4492,10 +4132,8 @@
       <c r="C165" s="1" t="n"/>
       <c r="D165" s="1" t="n"/>
       <c r="E165" s="1" t="n"/>
-      <c r="F165" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F165" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G165" t="n">
         <v>1219501.327129578</v>
@@ -4516,10 +4154,8 @@
       <c r="C166" s="1" t="n"/>
       <c r="D166" s="1" t="n"/>
       <c r="E166" s="1" t="n"/>
-      <c r="F166" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F166" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G166" t="n">
         <v>1319723.03013106</v>
@@ -4540,10 +4176,8 @@
       <c r="C167" s="1" t="n"/>
       <c r="D167" s="1" t="n"/>
       <c r="E167" s="1" t="n"/>
-      <c r="F167" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F167" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G167" t="n">
         <v>1438704.953245151</v>
@@ -4564,10 +4198,8 @@
       <c r="C168" s="1" t="n"/>
       <c r="D168" s="1" t="n"/>
       <c r="E168" s="1" t="n"/>
-      <c r="F168" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F168" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G168" t="n">
         <v>1634692.100013182</v>
@@ -4588,10 +4220,8 @@
       <c r="C169" s="1" t="n"/>
       <c r="D169" s="1" t="n"/>
       <c r="E169" s="1" t="n"/>
-      <c r="F169" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F169" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G169" t="n">
         <v>1930981.021995175</v>
@@ -4612,10 +4242,8 @@
       <c r="C170" s="1" t="n"/>
       <c r="D170" s="1" t="n"/>
       <c r="E170" s="1" t="n"/>
-      <c r="F170" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F170" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G170" t="n">
         <v>2300886.870103087</v>
@@ -4636,10 +4264,8 @@
       <c r="C171" s="1" t="n"/>
       <c r="D171" s="1" t="n"/>
       <c r="E171" s="1" t="n"/>
-      <c r="F171" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F171" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G171" t="n">
         <v>2663000.416125204</v>
@@ -4660,10 +4286,8 @@
       <c r="C172" s="1" t="n"/>
       <c r="D172" s="1" t="n"/>
       <c r="E172" s="1" t="n"/>
-      <c r="F172" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F172" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G172" t="n">
         <v>3000000.000000001</v>
@@ -4684,10 +4308,8 @@
       <c r="C173" s="1" t="n"/>
       <c r="D173" s="1" t="n"/>
       <c r="E173" s="1" t="n"/>
-      <c r="F173" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F173" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G173" t="n">
         <v>3000000</v>
@@ -4708,10 +4330,8 @@
       <c r="C174" s="1" t="n"/>
       <c r="D174" s="1" t="n"/>
       <c r="E174" s="1" t="n"/>
-      <c r="F174" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F174" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G174" t="n">
         <v>3000000</v>
@@ -4732,10 +4352,8 @@
       <c r="C175" s="1" t="n"/>
       <c r="D175" s="1" t="n"/>
       <c r="E175" s="1" t="n"/>
-      <c r="F175" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F175" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G175" t="n">
         <v>3000000</v>
@@ -4756,10 +4374,8 @@
       <c r="C176" s="1" t="n"/>
       <c r="D176" s="1" t="n"/>
       <c r="E176" s="1" t="n"/>
-      <c r="F176" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F176" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G176" t="n">
         <v>3000000</v>
@@ -4780,10 +4396,8 @@
       <c r="C177" s="1" t="n"/>
       <c r="D177" s="1" t="n"/>
       <c r="E177" s="1" t="n"/>
-      <c r="F177" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F177" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G177" t="n">
         <v>3000000</v>
@@ -4804,10 +4418,8 @@
       <c r="C178" s="1" t="n"/>
       <c r="D178" s="1" t="n"/>
       <c r="E178" s="1" t="n"/>
-      <c r="F178" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F178" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G178" t="n">
         <v>3000000</v>
@@ -4828,10 +4440,8 @@
       <c r="C179" s="1" t="n"/>
       <c r="D179" s="1" t="n"/>
       <c r="E179" s="1" t="n"/>
-      <c r="F179" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F179" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G179" t="n">
         <v>1831056.7337921</v>
@@ -4849,25 +4459,17 @@
     <row r="180">
       <c r="A180" s="1" t="n"/>
       <c r="B180" s="1" t="n"/>
-      <c r="C180" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 1</t>
-        </is>
-      </c>
-      <c r="D180" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E180" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 6</t>
-        </is>
-      </c>
-      <c r="F180" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="C180" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E180" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F180" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G180" t="n">
         <v>146964.9397355678</v>
@@ -4888,10 +4490,8 @@
       <c r="C181" s="1" t="n"/>
       <c r="D181" s="1" t="n"/>
       <c r="E181" s="1" t="n"/>
-      <c r="F181" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F181" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G181" t="n">
         <v>183446.9060233298</v>
@@ -4912,10 +4512,8 @@
       <c r="C182" s="1" t="n"/>
       <c r="D182" s="1" t="n"/>
       <c r="E182" s="1" t="n"/>
-      <c r="F182" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F182" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G182" t="n">
         <v>255211.9627150627</v>
@@ -4936,10 +4534,8 @@
       <c r="C183" s="1" t="n"/>
       <c r="D183" s="1" t="n"/>
       <c r="E183" s="1" t="n"/>
-      <c r="F183" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F183" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G183" t="n">
         <v>431894.6563360168</v>
@@ -4960,10 +4556,8 @@
       <c r="C184" s="1" t="n"/>
       <c r="D184" s="1" t="n"/>
       <c r="E184" s="1" t="n"/>
-      <c r="F184" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F184" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G184" t="n">
         <v>700215.5610445807</v>
@@ -4984,10 +4578,8 @@
       <c r="C185" s="1" t="n"/>
       <c r="D185" s="1" t="n"/>
       <c r="E185" s="1" t="n"/>
-      <c r="F185" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F185" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G185" t="n">
         <v>1015877.068578266</v>
@@ -5008,10 +4600,8 @@
       <c r="C186" s="1" t="n"/>
       <c r="D186" s="1" t="n"/>
       <c r="E186" s="1" t="n"/>
-      <c r="F186" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F186" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G186" t="n">
         <v>1227133.258156336</v>
@@ -5032,10 +4622,8 @@
       <c r="C187" s="1" t="n"/>
       <c r="D187" s="1" t="n"/>
       <c r="E187" s="1" t="n"/>
-      <c r="F187" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F187" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G187" t="n">
         <v>1402519.791501244</v>
@@ -5056,10 +4644,8 @@
       <c r="C188" s="1" t="n"/>
       <c r="D188" s="1" t="n"/>
       <c r="E188" s="1" t="n"/>
-      <c r="F188" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F188" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G188" t="n">
         <v>1570435.893563977</v>
@@ -5080,10 +4666,8 @@
       <c r="C189" s="1" t="n"/>
       <c r="D189" s="1" t="n"/>
       <c r="E189" s="1" t="n"/>
-      <c r="F189" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F189" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G189" t="n">
         <v>1708003.065176808</v>
@@ -5104,10 +4688,8 @@
       <c r="C190" s="1" t="n"/>
       <c r="D190" s="1" t="n"/>
       <c r="E190" s="1" t="n"/>
-      <c r="F190" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F190" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G190" t="n">
         <v>1829963.017168473</v>
@@ -5128,10 +4710,8 @@
       <c r="C191" s="1" t="n"/>
       <c r="D191" s="1" t="n"/>
       <c r="E191" s="1" t="n"/>
-      <c r="F191" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F191" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G191" t="n">
         <v>1928404.641341349</v>
@@ -5152,10 +4732,8 @@
       <c r="C192" s="1" t="n"/>
       <c r="D192" s="1" t="n"/>
       <c r="E192" s="1" t="n"/>
-      <c r="F192" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F192" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G192" t="n">
         <v>2055025.920424027</v>
@@ -5176,10 +4754,8 @@
       <c r="C193" s="1" t="n"/>
       <c r="D193" s="1" t="n"/>
       <c r="E193" s="1" t="n"/>
-      <c r="F193" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F193" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G193" t="n">
         <v>2239161.573880857</v>
@@ -5200,10 +4776,8 @@
       <c r="C194" s="1" t="n"/>
       <c r="D194" s="1" t="n"/>
       <c r="E194" s="1" t="n"/>
-      <c r="F194" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F194" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G194" t="n">
         <v>2557801.299291488</v>
@@ -5224,10 +4798,8 @@
       <c r="C195" s="1" t="n"/>
       <c r="D195" s="1" t="n"/>
       <c r="E195" s="1" t="n"/>
-      <c r="F195" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F195" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G195" t="n">
         <v>3000000</v>
@@ -5248,10 +4820,8 @@
       <c r="C196" s="1" t="n"/>
       <c r="D196" s="1" t="n"/>
       <c r="E196" s="1" t="n"/>
-      <c r="F196" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F196" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G196" t="n">
         <v>3000000</v>
@@ -5272,10 +4842,8 @@
       <c r="C197" s="1" t="n"/>
       <c r="D197" s="1" t="n"/>
       <c r="E197" s="1" t="n"/>
-      <c r="F197" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F197" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G197" t="n">
         <v>3000000</v>
@@ -5296,10 +4864,8 @@
       <c r="C198" s="1" t="n"/>
       <c r="D198" s="1" t="n"/>
       <c r="E198" s="1" t="n"/>
-      <c r="F198" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F198" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G198" t="n">
         <v>3000000</v>
@@ -5320,10 +4886,8 @@
       <c r="C199" s="1" t="n"/>
       <c r="D199" s="1" t="n"/>
       <c r="E199" s="1" t="n"/>
-      <c r="F199" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F199" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G199" t="n">
         <v>3000000</v>
@@ -5344,10 +4908,8 @@
       <c r="C200" s="1" t="n"/>
       <c r="D200" s="1" t="n"/>
       <c r="E200" s="1" t="n"/>
-      <c r="F200" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F200" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G200" t="n">
         <v>3000000</v>
@@ -5368,10 +4930,8 @@
       <c r="C201" s="1" t="n"/>
       <c r="D201" s="1" t="n"/>
       <c r="E201" s="1" t="n"/>
-      <c r="F201" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F201" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G201" t="n">
         <v>3000000</v>
@@ -5392,10 +4952,8 @@
       <c r="C202" s="1" t="n"/>
       <c r="D202" s="1" t="n"/>
       <c r="E202" s="1" t="n"/>
-      <c r="F202" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F202" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G202" t="n">
         <v>3000000</v>
@@ -5416,10 +4974,8 @@
       <c r="C203" s="1" t="n"/>
       <c r="D203" s="1" t="n"/>
       <c r="E203" s="1" t="n"/>
-      <c r="F203" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F203" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G203" t="n">
         <v>1916097.442643007</v>
@@ -5439,15 +4995,11 @@
       <c r="B204" s="1" t="n"/>
       <c r="C204" s="1" t="n"/>
       <c r="D204" s="1" t="n"/>
-      <c r="E204" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 32</t>
-        </is>
-      </c>
-      <c r="F204" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="E204" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F204" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G204" t="n">
         <v>145342.6809862177</v>
@@ -5468,10 +5020,8 @@
       <c r="C205" s="1" t="n"/>
       <c r="D205" s="1" t="n"/>
       <c r="E205" s="1" t="n"/>
-      <c r="F205" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F205" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G205" t="n">
         <v>223030.5371727686</v>
@@ -5492,10 +5042,8 @@
       <c r="C206" s="1" t="n"/>
       <c r="D206" s="1" t="n"/>
       <c r="E206" s="1" t="n"/>
-      <c r="F206" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F206" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G206" t="n">
         <v>341079.1465322918</v>
@@ -5516,10 +5064,8 @@
       <c r="C207" s="1" t="n"/>
       <c r="D207" s="1" t="n"/>
       <c r="E207" s="1" t="n"/>
-      <c r="F207" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F207" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G207" t="n">
         <v>547659.3340478665</v>
@@ -5540,10 +5086,8 @@
       <c r="C208" s="1" t="n"/>
       <c r="D208" s="1" t="n"/>
       <c r="E208" s="1" t="n"/>
-      <c r="F208" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F208" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G208" t="n">
         <v>783793.8464228065</v>
@@ -5564,10 +5108,8 @@
       <c r="C209" s="1" t="n"/>
       <c r="D209" s="1" t="n"/>
       <c r="E209" s="1" t="n"/>
-      <c r="F209" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F209" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G209" t="n">
         <v>1020331.59475353</v>
@@ -5588,10 +5130,8 @@
       <c r="C210" s="1" t="n"/>
       <c r="D210" s="1" t="n"/>
       <c r="E210" s="1" t="n"/>
-      <c r="F210" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F210" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G210" t="n">
         <v>1163288.948723632</v>
@@ -5612,10 +5152,8 @@
       <c r="C211" s="1" t="n"/>
       <c r="D211" s="1" t="n"/>
       <c r="E211" s="1" t="n"/>
-      <c r="F211" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F211" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G211" t="n">
         <v>1281406.838318265</v>
@@ -5636,10 +5174,8 @@
       <c r="C212" s="1" t="n"/>
       <c r="D212" s="1" t="n"/>
       <c r="E212" s="1" t="n"/>
-      <c r="F212" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F212" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G212" t="n">
         <v>1368240.427657542</v>
@@ -5660,10 +5196,8 @@
       <c r="C213" s="1" t="n"/>
       <c r="D213" s="1" t="n"/>
       <c r="E213" s="1" t="n"/>
-      <c r="F213" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F213" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G213" t="n">
         <v>1441159.466889908</v>
@@ -5684,10 +5218,8 @@
       <c r="C214" s="1" t="n"/>
       <c r="D214" s="1" t="n"/>
       <c r="E214" s="1" t="n"/>
-      <c r="F214" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F214" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G214" t="n">
         <v>1566188.09631084</v>
@@ -5708,10 +5240,8 @@
       <c r="C215" s="1" t="n"/>
       <c r="D215" s="1" t="n"/>
       <c r="E215" s="1" t="n"/>
-      <c r="F215" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F215" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G215" t="n">
         <v>1715000.181978717</v>
@@ -5732,10 +5262,8 @@
       <c r="C216" s="1" t="n"/>
       <c r="D216" s="1" t="n"/>
       <c r="E216" s="1" t="n"/>
-      <c r="F216" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F216" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G216" t="n">
         <v>1960773.166794095</v>
@@ -5756,10 +5284,8 @@
       <c r="C217" s="1" t="n"/>
       <c r="D217" s="1" t="n"/>
       <c r="E217" s="1" t="n"/>
-      <c r="F217" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F217" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G217" t="n">
         <v>2333880.531721033</v>
@@ -5780,10 +5306,8 @@
       <c r="C218" s="1" t="n"/>
       <c r="D218" s="1" t="n"/>
       <c r="E218" s="1" t="n"/>
-      <c r="F218" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F218" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G218" t="n">
         <v>2801989.464239175</v>
@@ -5804,10 +5328,8 @@
       <c r="C219" s="1" t="n"/>
       <c r="D219" s="1" t="n"/>
       <c r="E219" s="1" t="n"/>
-      <c r="F219" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F219" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G219" t="n">
         <v>3000000</v>
@@ -5828,10 +5350,8 @@
       <c r="C220" s="1" t="n"/>
       <c r="D220" s="1" t="n"/>
       <c r="E220" s="1" t="n"/>
-      <c r="F220" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F220" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G220" t="n">
         <v>3000000</v>
@@ -5852,10 +5372,8 @@
       <c r="C221" s="1" t="n"/>
       <c r="D221" s="1" t="n"/>
       <c r="E221" s="1" t="n"/>
-      <c r="F221" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F221" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G221" t="n">
         <v>3000000</v>
@@ -5876,10 +5394,8 @@
       <c r="C222" s="1" t="n"/>
       <c r="D222" s="1" t="n"/>
       <c r="E222" s="1" t="n"/>
-      <c r="F222" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F222" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G222" t="n">
         <v>3000000</v>
@@ -5900,10 +5416,8 @@
       <c r="C223" s="1" t="n"/>
       <c r="D223" s="1" t="n"/>
       <c r="E223" s="1" t="n"/>
-      <c r="F223" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F223" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G223" t="n">
         <v>3000000</v>
@@ -5924,10 +5438,8 @@
       <c r="C224" s="1" t="n"/>
       <c r="D224" s="1" t="n"/>
       <c r="E224" s="1" t="n"/>
-      <c r="F224" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F224" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G224" t="n">
         <v>3000000</v>
@@ -5948,10 +5460,8 @@
       <c r="C225" s="1" t="n"/>
       <c r="D225" s="1" t="n"/>
       <c r="E225" s="1" t="n"/>
-      <c r="F225" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F225" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G225" t="n">
         <v>3000000</v>
@@ -5972,10 +5482,8 @@
       <c r="C226" s="1" t="n"/>
       <c r="D226" s="1" t="n"/>
       <c r="E226" s="1" t="n"/>
-      <c r="F226" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F226" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G226" t="n">
         <v>3000000</v>
@@ -5996,10 +5504,8 @@
       <c r="C227" s="1" t="n"/>
       <c r="D227" s="1" t="n"/>
       <c r="E227" s="1" t="n"/>
-      <c r="F227" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F227" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G227" t="n">
         <v>1825766.902346415</v>
@@ -6016,30 +5522,20 @@
     </row>
     <row r="228">
       <c r="A228" s="1" t="n"/>
-      <c r="B228" s="1" t="inlineStr">
-        <is>
-          <t>Vesteralen</t>
-        </is>
-      </c>
-      <c r="C228" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 0</t>
-        </is>
-      </c>
-      <c r="D228" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E228" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 0</t>
-        </is>
-      </c>
-      <c r="F228" s="1" t="inlineStr">
-        <is>
-          <t>Period 0</t>
-        </is>
+      <c r="B228" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E228" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F228" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G228" t="n">
         <v>143432.1976812363</v>
@@ -6060,10 +5556,8 @@
       <c r="C229" s="1" t="n"/>
       <c r="D229" s="1" t="n"/>
       <c r="E229" s="1" t="n"/>
-      <c r="F229" s="1" t="inlineStr">
-        <is>
-          <t>Period 1</t>
-        </is>
+      <c r="F229" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G229" t="n">
         <v>198437.8986938858</v>
@@ -6084,10 +5578,8 @@
       <c r="C230" s="1" t="n"/>
       <c r="D230" s="1" t="n"/>
       <c r="E230" s="1" t="n"/>
-      <c r="F230" s="1" t="inlineStr">
-        <is>
-          <t>Period 2</t>
-        </is>
+      <c r="F230" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G230" t="n">
         <v>256860.6067252441</v>
@@ -6108,10 +5600,8 @@
       <c r="C231" s="1" t="n"/>
       <c r="D231" s="1" t="n"/>
       <c r="E231" s="1" t="n"/>
-      <c r="F231" s="1" t="inlineStr">
-        <is>
-          <t>Period 3</t>
-        </is>
+      <c r="F231" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="G231" t="n">
         <v>339937.4432549478</v>
@@ -6132,10 +5622,8 @@
       <c r="C232" s="1" t="n"/>
       <c r="D232" s="1" t="n"/>
       <c r="E232" s="1" t="n"/>
-      <c r="F232" s="1" t="inlineStr">
-        <is>
-          <t>Period 4</t>
-        </is>
+      <c r="F232" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="G232" t="n">
         <v>414441.4938956747</v>
@@ -6156,10 +5644,8 @@
       <c r="C233" s="1" t="n"/>
       <c r="D233" s="1" t="n"/>
       <c r="E233" s="1" t="n"/>
-      <c r="F233" s="1" t="inlineStr">
-        <is>
-          <t>Period 5</t>
-        </is>
+      <c r="F233" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="G233" t="n">
         <v>474850.2068981414</v>
@@ -6180,10 +5666,8 @@
       <c r="C234" s="1" t="n"/>
       <c r="D234" s="1" t="n"/>
       <c r="E234" s="1" t="n"/>
-      <c r="F234" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="F234" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G234" t="n">
         <v>528744.1668376311</v>
@@ -6204,10 +5688,8 @@
       <c r="C235" s="1" t="n"/>
       <c r="D235" s="1" t="n"/>
       <c r="E235" s="1" t="n"/>
-      <c r="F235" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F235" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G235" t="n">
         <v>613002.2747620224</v>
@@ -6228,10 +5710,8 @@
       <c r="C236" s="1" t="n"/>
       <c r="D236" s="1" t="n"/>
       <c r="E236" s="1" t="n"/>
-      <c r="F236" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F236" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G236" t="n">
         <v>771135.7511119928</v>
@@ -6252,10 +5732,8 @@
       <c r="C237" s="1" t="n"/>
       <c r="D237" s="1" t="n"/>
       <c r="E237" s="1" t="n"/>
-      <c r="F237" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F237" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G237" t="n">
         <v>979431.6159725817</v>
@@ -6276,10 +5754,8 @@
       <c r="C238" s="1" t="n"/>
       <c r="D238" s="1" t="n"/>
       <c r="E238" s="1" t="n"/>
-      <c r="F238" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F238" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G238" t="n">
         <v>1338321.625535827</v>
@@ -6300,10 +5776,8 @@
       <c r="C239" s="1" t="n"/>
       <c r="D239" s="1" t="n"/>
       <c r="E239" s="1" t="n"/>
-      <c r="F239" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F239" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G239" t="n">
         <v>1654316.148257201</v>
@@ -6324,10 +5798,8 @@
       <c r="C240" s="1" t="n"/>
       <c r="D240" s="1" t="n"/>
       <c r="E240" s="1" t="n"/>
-      <c r="F240" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F240" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G240" t="n">
         <v>1940097.164656066</v>
@@ -6348,10 +5820,8 @@
       <c r="C241" s="1" t="n"/>
       <c r="D241" s="1" t="n"/>
       <c r="E241" s="1" t="n"/>
-      <c r="F241" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F241" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G241" t="n">
         <v>2209083.999355958</v>
@@ -6372,10 +5842,8 @@
       <c r="C242" s="1" t="n"/>
       <c r="D242" s="1" t="n"/>
       <c r="E242" s="1" t="n"/>
-      <c r="F242" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F242" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G242" t="n">
         <v>2455786.260617203</v>
@@ -6396,10 +5864,8 @@
       <c r="C243" s="1" t="n"/>
       <c r="D243" s="1" t="n"/>
       <c r="E243" s="1" t="n"/>
-      <c r="F243" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F243" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G243" t="n">
         <v>2666084.380539514</v>
@@ -6420,10 +5886,8 @@
       <c r="C244" s="1" t="n"/>
       <c r="D244" s="1" t="n"/>
       <c r="E244" s="1" t="n"/>
-      <c r="F244" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F244" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G244" t="n">
         <v>1915550.126540059</v>
@@ -6444,10 +5908,8 @@
       <c r="C245" s="1" t="n"/>
       <c r="D245" s="1" t="n"/>
       <c r="E245" s="1" t="n"/>
-      <c r="F245" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F245" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G245" t="n">
         <v>0</v>
@@ -6468,10 +5930,8 @@
       <c r="C246" s="1" t="n"/>
       <c r="D246" s="1" t="n"/>
       <c r="E246" s="1" t="n"/>
-      <c r="F246" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F246" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G246" t="n">
         <v>0</v>
@@ -6492,10 +5952,8 @@
       <c r="C247" s="1" t="n"/>
       <c r="D247" s="1" t="n"/>
       <c r="E247" s="1" t="n"/>
-      <c r="F247" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F247" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G247" t="n">
         <v>0</v>
@@ -6516,10 +5974,8 @@
       <c r="C248" s="1" t="n"/>
       <c r="D248" s="1" t="n"/>
       <c r="E248" s="1" t="n"/>
-      <c r="F248" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F248" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G248" t="n">
         <v>0</v>
@@ -6540,10 +5996,8 @@
       <c r="C249" s="1" t="n"/>
       <c r="D249" s="1" t="n"/>
       <c r="E249" s="1" t="n"/>
-      <c r="F249" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F249" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G249" t="n">
         <v>0</v>
@@ -6564,10 +6018,8 @@
       <c r="C250" s="1" t="n"/>
       <c r="D250" s="1" t="n"/>
       <c r="E250" s="1" t="n"/>
-      <c r="F250" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F250" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G250" t="n">
         <v>0</v>
@@ -6588,10 +6040,8 @@
       <c r="C251" s="1" t="n"/>
       <c r="D251" s="1" t="n"/>
       <c r="E251" s="1" t="n"/>
-      <c r="F251" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F251" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G251" t="n">
         <v>0</v>
@@ -6611,15 +6061,11 @@
       <c r="B252" s="1" t="n"/>
       <c r="C252" s="1" t="n"/>
       <c r="D252" s="1" t="n"/>
-      <c r="E252" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 19</t>
-        </is>
-      </c>
-      <c r="F252" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="E252" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F252" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G252" t="n">
         <v>144835.3595702264</v>
@@ -6640,10 +6086,8 @@
       <c r="C253" s="1" t="n"/>
       <c r="D253" s="1" t="n"/>
       <c r="E253" s="1" t="n"/>
-      <c r="F253" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F253" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G253" t="n">
         <v>215077.6638757959</v>
@@ -6664,10 +6108,8 @@
       <c r="C254" s="1" t="n"/>
       <c r="D254" s="1" t="n"/>
       <c r="E254" s="1" t="n"/>
-      <c r="F254" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F254" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G254" t="n">
         <v>341354.6436010626</v>
@@ -6688,10 +6130,8 @@
       <c r="C255" s="1" t="n"/>
       <c r="D255" s="1" t="n"/>
       <c r="E255" s="1" t="n"/>
-      <c r="F255" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F255" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G255" t="n">
         <v>623130.6226471108</v>
@@ -6712,10 +6152,8 @@
       <c r="C256" s="1" t="n"/>
       <c r="D256" s="1" t="n"/>
       <c r="E256" s="1" t="n"/>
-      <c r="F256" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F256" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G256" t="n">
         <v>971957.4513926216</v>
@@ -6736,10 +6174,8 @@
       <c r="C257" s="1" t="n"/>
       <c r="D257" s="1" t="n"/>
       <c r="E257" s="1" t="n"/>
-      <c r="F257" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F257" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G257" t="n">
         <v>1321233.955426676</v>
@@ -6760,10 +6196,8 @@
       <c r="C258" s="1" t="n"/>
       <c r="D258" s="1" t="n"/>
       <c r="E258" s="1" t="n"/>
-      <c r="F258" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F258" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G258" t="n">
         <v>1537599.279796537</v>
@@ -6784,10 +6218,8 @@
       <c r="C259" s="1" t="n"/>
       <c r="D259" s="1" t="n"/>
       <c r="E259" s="1" t="n"/>
-      <c r="F259" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F259" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G259" t="n">
         <v>1707897.206205916</v>
@@ -6808,10 +6240,8 @@
       <c r="C260" s="1" t="n"/>
       <c r="D260" s="1" t="n"/>
       <c r="E260" s="1" t="n"/>
-      <c r="F260" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F260" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G260" t="n">
         <v>1872222.202774672</v>
@@ -6832,10 +6262,8 @@
       <c r="C261" s="1" t="n"/>
       <c r="D261" s="1" t="n"/>
       <c r="E261" s="1" t="n"/>
-      <c r="F261" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F261" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G261" t="n">
         <v>1986186.644883279</v>
@@ -6856,10 +6284,8 @@
       <c r="C262" s="1" t="n"/>
       <c r="D262" s="1" t="n"/>
       <c r="E262" s="1" t="n"/>
-      <c r="F262" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F262" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G262" t="n">
         <v>2101651.542123804</v>
@@ -6880,10 +6306,8 @@
       <c r="C263" s="1" t="n"/>
       <c r="D263" s="1" t="n"/>
       <c r="E263" s="1" t="n"/>
-      <c r="F263" s="1" t="inlineStr">
-        <is>
-          <t>Period 30</t>
-        </is>
+      <c r="F263" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="G263" t="n">
         <v>2232864.324198521</v>
@@ -6904,10 +6328,8 @@
       <c r="C264" s="1" t="n"/>
       <c r="D264" s="1" t="n"/>
       <c r="E264" s="1" t="n"/>
-      <c r="F264" s="1" t="inlineStr">
-        <is>
-          <t>Period 31</t>
-        </is>
+      <c r="F264" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="G264" t="n">
         <v>2457632.056244737</v>
@@ -6928,10 +6350,8 @@
       <c r="C265" s="1" t="n"/>
       <c r="D265" s="1" t="n"/>
       <c r="E265" s="1" t="n"/>
-      <c r="F265" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="F265" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G265" t="n">
         <v>2850341.969844562</v>
@@ -6952,10 +6372,8 @@
       <c r="C266" s="1" t="n"/>
       <c r="D266" s="1" t="n"/>
       <c r="E266" s="1" t="n"/>
-      <c r="F266" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F266" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G266" t="n">
         <v>3000000</v>
@@ -6976,10 +6394,8 @@
       <c r="C267" s="1" t="n"/>
       <c r="D267" s="1" t="n"/>
       <c r="E267" s="1" t="n"/>
-      <c r="F267" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F267" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G267" t="n">
         <v>3000000</v>
@@ -7000,10 +6416,8 @@
       <c r="C268" s="1" t="n"/>
       <c r="D268" s="1" t="n"/>
       <c r="E268" s="1" t="n"/>
-      <c r="F268" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F268" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G268" t="n">
         <v>3000000</v>
@@ -7024,10 +6438,8 @@
       <c r="C269" s="1" t="n"/>
       <c r="D269" s="1" t="n"/>
       <c r="E269" s="1" t="n"/>
-      <c r="F269" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F269" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G269" t="n">
         <v>3000000</v>
@@ -7048,10 +6460,8 @@
       <c r="C270" s="1" t="n"/>
       <c r="D270" s="1" t="n"/>
       <c r="E270" s="1" t="n"/>
-      <c r="F270" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F270" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G270" t="n">
         <v>3000000</v>
@@ -7072,10 +6482,8 @@
       <c r="C271" s="1" t="n"/>
       <c r="D271" s="1" t="n"/>
       <c r="E271" s="1" t="n"/>
-      <c r="F271" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F271" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G271" t="n">
         <v>3000000</v>
@@ -7096,10 +6504,8 @@
       <c r="C272" s="1" t="n"/>
       <c r="D272" s="1" t="n"/>
       <c r="E272" s="1" t="n"/>
-      <c r="F272" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F272" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G272" t="n">
         <v>1916989.394069695</v>
@@ -7120,10 +6526,8 @@
       <c r="C273" s="1" t="n"/>
       <c r="D273" s="1" t="n"/>
       <c r="E273" s="1" t="n"/>
-      <c r="F273" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F273" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G273" t="n">
         <v>0</v>
@@ -7144,10 +6548,8 @@
       <c r="C274" s="1" t="n"/>
       <c r="D274" s="1" t="n"/>
       <c r="E274" s="1" t="n"/>
-      <c r="F274" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F274" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G274" t="n">
         <v>0</v>
@@ -7168,10 +6570,8 @@
       <c r="C275" s="1" t="n"/>
       <c r="D275" s="1" t="n"/>
       <c r="E275" s="1" t="n"/>
-      <c r="F275" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F275" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G275" t="n">
         <v>0</v>
@@ -7191,15 +6591,11 @@
       <c r="B276" s="1" t="n"/>
       <c r="C276" s="1" t="n"/>
       <c r="D276" s="1" t="n"/>
-      <c r="E276" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 42</t>
-        </is>
-      </c>
-      <c r="F276" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="E276" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F276" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G276" t="n">
         <v>151189.458827959</v>
@@ -7220,10 +6616,8 @@
       <c r="C277" s="1" t="n"/>
       <c r="D277" s="1" t="n"/>
       <c r="E277" s="1" t="n"/>
-      <c r="F277" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F277" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G277" t="n">
         <v>197048.748528673</v>
@@ -7244,10 +6638,8 @@
       <c r="C278" s="1" t="n"/>
       <c r="D278" s="1" t="n"/>
       <c r="E278" s="1" t="n"/>
-      <c r="F278" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F278" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G278" t="n">
         <v>290049.1804982073</v>
@@ -7268,10 +6660,8 @@
       <c r="C279" s="1" t="n"/>
       <c r="D279" s="1" t="n"/>
       <c r="E279" s="1" t="n"/>
-      <c r="F279" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F279" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G279" t="n">
         <v>520464.4425809521</v>
@@ -7292,10 +6682,8 @@
       <c r="C280" s="1" t="n"/>
       <c r="D280" s="1" t="n"/>
       <c r="E280" s="1" t="n"/>
-      <c r="F280" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F280" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G280" t="n">
         <v>895785.5656488448</v>
@@ -7316,10 +6704,8 @@
       <c r="C281" s="1" t="n"/>
       <c r="D281" s="1" t="n"/>
       <c r="E281" s="1" t="n"/>
-      <c r="F281" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F281" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G281" t="n">
         <v>1322296.186267768</v>
@@ -7340,10 +6726,8 @@
       <c r="C282" s="1" t="n"/>
       <c r="D282" s="1" t="n"/>
       <c r="E282" s="1" t="n"/>
-      <c r="F282" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F282" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G282" t="n">
         <v>1593125.088459575</v>
@@ -7364,10 +6748,8 @@
       <c r="C283" s="1" t="n"/>
       <c r="D283" s="1" t="n"/>
       <c r="E283" s="1" t="n"/>
-      <c r="F283" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F283" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G283" t="n">
         <v>1811223.958192792</v>
@@ -7388,10 +6770,8 @@
       <c r="C284" s="1" t="n"/>
       <c r="D284" s="1" t="n"/>
       <c r="E284" s="1" t="n"/>
-      <c r="F284" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F284" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G284" t="n">
         <v>2019384.620717276</v>
@@ -7412,10 +6792,8 @@
       <c r="C285" s="1" t="n"/>
       <c r="D285" s="1" t="n"/>
       <c r="E285" s="1" t="n"/>
-      <c r="F285" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F285" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G285" t="n">
         <v>2183426.662748951</v>
@@ -7436,10 +6814,8 @@
       <c r="C286" s="1" t="n"/>
       <c r="D286" s="1" t="n"/>
       <c r="E286" s="1" t="n"/>
-      <c r="F286" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F286" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G286" t="n">
         <v>2352080.838394347</v>
@@ -7460,10 +6836,8 @@
       <c r="C287" s="1" t="n"/>
       <c r="D287" s="1" t="n"/>
       <c r="E287" s="1" t="n"/>
-      <c r="F287" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F287" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G287" t="n">
         <v>2462165.694336112</v>
@@ -7484,10 +6858,8 @@
       <c r="C288" s="1" t="n"/>
       <c r="D288" s="1" t="n"/>
       <c r="E288" s="1" t="n"/>
-      <c r="F288" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F288" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G288" t="n">
         <v>2608017.052059048</v>
@@ -7508,10 +6880,8 @@
       <c r="C289" s="1" t="n"/>
       <c r="D289" s="1" t="n"/>
       <c r="E289" s="1" t="n"/>
-      <c r="F289" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F289" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G289" t="n">
         <v>2871838.65866907</v>
@@ -7532,10 +6902,8 @@
       <c r="C290" s="1" t="n"/>
       <c r="D290" s="1" t="n"/>
       <c r="E290" s="1" t="n"/>
-      <c r="F290" s="1" t="inlineStr">
-        <is>
-          <t>Period 56</t>
-        </is>
+      <c r="F290" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="G290" t="n">
         <v>3000000</v>
@@ -7556,10 +6924,8 @@
       <c r="C291" s="1" t="n"/>
       <c r="D291" s="1" t="n"/>
       <c r="E291" s="1" t="n"/>
-      <c r="F291" s="1" t="inlineStr">
-        <is>
-          <t>Period 57</t>
-        </is>
+      <c r="F291" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="G291" t="n">
         <v>3000000.000000233</v>
@@ -7580,10 +6946,8 @@
       <c r="C292" s="1" t="n"/>
       <c r="D292" s="1" t="n"/>
       <c r="E292" s="1" t="n"/>
-      <c r="F292" s="1" t="inlineStr">
-        <is>
-          <t>Period 58</t>
-        </is>
+      <c r="F292" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="G292" t="n">
         <v>1729058.687992967</v>
@@ -7604,10 +6968,8 @@
       <c r="C293" s="1" t="n"/>
       <c r="D293" s="1" t="n"/>
       <c r="E293" s="1" t="n"/>
-      <c r="F293" s="1" t="inlineStr">
-        <is>
-          <t>Period 59</t>
-        </is>
+      <c r="F293" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="G293" t="n">
         <v>0</v>
@@ -7625,25 +6987,17 @@
     <row r="294">
       <c r="A294" s="1" t="n"/>
       <c r="B294" s="1" t="n"/>
-      <c r="C294" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 1</t>
-        </is>
-      </c>
-      <c r="D294" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E294" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 0</t>
-        </is>
-      </c>
-      <c r="F294" s="1" t="inlineStr">
-        <is>
-          <t>Period 0</t>
-        </is>
+      <c r="C294" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E294" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F294" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G294" t="n">
         <v>143432.1976812363</v>
@@ -7664,10 +7018,8 @@
       <c r="C295" s="1" t="n"/>
       <c r="D295" s="1" t="n"/>
       <c r="E295" s="1" t="n"/>
-      <c r="F295" s="1" t="inlineStr">
-        <is>
-          <t>Period 1</t>
-        </is>
+      <c r="F295" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G295" t="n">
         <v>205400.5512422327</v>
@@ -7688,10 +7040,8 @@
       <c r="C296" s="1" t="n"/>
       <c r="D296" s="1" t="n"/>
       <c r="E296" s="1" t="n"/>
-      <c r="F296" s="1" t="inlineStr">
-        <is>
-          <t>Period 2</t>
-        </is>
+      <c r="F296" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G296" t="n">
         <v>272517.8230840713</v>
@@ -7712,10 +7062,8 @@
       <c r="C297" s="1" t="n"/>
       <c r="D297" s="1" t="n"/>
       <c r="E297" s="1" t="n"/>
-      <c r="F297" s="1" t="inlineStr">
-        <is>
-          <t>Period 3</t>
-        </is>
+      <c r="F297" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="G297" t="n">
         <v>369504.3985822927</v>
@@ -7736,10 +7084,8 @@
       <c r="C298" s="1" t="n"/>
       <c r="D298" s="1" t="n"/>
       <c r="E298" s="1" t="n"/>
-      <c r="F298" s="1" t="inlineStr">
-        <is>
-          <t>Period 4</t>
-        </is>
+      <c r="F298" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="G298" t="n">
         <v>457663.7355983344</v>
@@ -7760,10 +7106,8 @@
       <c r="C299" s="1" t="n"/>
       <c r="D299" s="1" t="n"/>
       <c r="E299" s="1" t="n"/>
-      <c r="F299" s="1" t="inlineStr">
-        <is>
-          <t>Period 5</t>
-        </is>
+      <c r="F299" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="G299" t="n">
         <v>529808.9659954405</v>
@@ -7784,10 +7128,8 @@
       <c r="C300" s="1" t="n"/>
       <c r="D300" s="1" t="n"/>
       <c r="E300" s="1" t="n"/>
-      <c r="F300" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="F300" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G300" t="n">
         <v>594596.6594422038</v>
@@ -7808,10 +7150,8 @@
       <c r="C301" s="1" t="n"/>
       <c r="D301" s="1" t="n"/>
       <c r="E301" s="1" t="n"/>
-      <c r="F301" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F301" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G301" t="n">
         <v>696408.3455096537</v>
@@ -7832,10 +7172,8 @@
       <c r="C302" s="1" t="n"/>
       <c r="D302" s="1" t="n"/>
       <c r="E302" s="1" t="n"/>
-      <c r="F302" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F302" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G302" t="n">
         <v>888936.7208411377</v>
@@ -7856,10 +7194,8 @@
       <c r="C303" s="1" t="n"/>
       <c r="D303" s="1" t="n"/>
       <c r="E303" s="1" t="n"/>
-      <c r="F303" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F303" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G303" t="n">
         <v>1144925.880050893</v>
@@ -7880,10 +7216,8 @@
       <c r="C304" s="1" t="n"/>
       <c r="D304" s="1" t="n"/>
       <c r="E304" s="1" t="n"/>
-      <c r="F304" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F304" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G304" t="n">
         <v>1590390.593643988</v>
@@ -7904,10 +7238,8 @@
       <c r="C305" s="1" t="n"/>
       <c r="D305" s="1" t="n"/>
       <c r="E305" s="1" t="n"/>
-      <c r="F305" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F305" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G305" t="n">
         <v>1986135.572396234</v>
@@ -7928,10 +7260,8 @@
       <c r="C306" s="1" t="n"/>
       <c r="D306" s="1" t="n"/>
       <c r="E306" s="1" t="n"/>
-      <c r="F306" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F306" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G306" t="n">
         <v>2346202.73322402</v>
@@ -7952,10 +7282,8 @@
       <c r="C307" s="1" t="n"/>
       <c r="D307" s="1" t="n"/>
       <c r="E307" s="1" t="n"/>
-      <c r="F307" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F307" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G307" t="n">
         <v>2686636.542315523</v>
@@ -7976,10 +7304,8 @@
       <c r="C308" s="1" t="n"/>
       <c r="D308" s="1" t="n"/>
       <c r="E308" s="1" t="n"/>
-      <c r="F308" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F308" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G308" t="n">
         <v>3000000</v>
@@ -8000,10 +7326,8 @@
       <c r="C309" s="1" t="n"/>
       <c r="D309" s="1" t="n"/>
       <c r="E309" s="1" t="n"/>
-      <c r="F309" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F309" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G309" t="n">
         <v>3000000</v>
@@ -8024,10 +7348,8 @@
       <c r="C310" s="1" t="n"/>
       <c r="D310" s="1" t="n"/>
       <c r="E310" s="1" t="n"/>
-      <c r="F310" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F310" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G310" t="n">
         <v>1912133.831304437</v>
@@ -8048,10 +7370,8 @@
       <c r="C311" s="1" t="n"/>
       <c r="D311" s="1" t="n"/>
       <c r="E311" s="1" t="n"/>
-      <c r="F311" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F311" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G311" t="n">
         <v>0</v>
@@ -8072,10 +7392,8 @@
       <c r="C312" s="1" t="n"/>
       <c r="D312" s="1" t="n"/>
       <c r="E312" s="1" t="n"/>
-      <c r="F312" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F312" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G312" t="n">
         <v>0</v>
@@ -8096,10 +7414,8 @@
       <c r="C313" s="1" t="n"/>
       <c r="D313" s="1" t="n"/>
       <c r="E313" s="1" t="n"/>
-      <c r="F313" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F313" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G313" t="n">
         <v>0</v>
@@ -8120,10 +7436,8 @@
       <c r="C314" s="1" t="n"/>
       <c r="D314" s="1" t="n"/>
       <c r="E314" s="1" t="n"/>
-      <c r="F314" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F314" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G314" t="n">
         <v>0</v>
@@ -8144,10 +7458,8 @@
       <c r="C315" s="1" t="n"/>
       <c r="D315" s="1" t="n"/>
       <c r="E315" s="1" t="n"/>
-      <c r="F315" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F315" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G315" t="n">
         <v>0</v>
@@ -8168,10 +7480,8 @@
       <c r="C316" s="1" t="n"/>
       <c r="D316" s="1" t="n"/>
       <c r="E316" s="1" t="n"/>
-      <c r="F316" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F316" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G316" t="n">
         <v>0</v>
@@ -8192,10 +7502,8 @@
       <c r="C317" s="1" t="n"/>
       <c r="D317" s="1" t="n"/>
       <c r="E317" s="1" t="n"/>
-      <c r="F317" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F317" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G317" t="n">
         <v>0</v>
@@ -8215,15 +7523,11 @@
       <c r="B318" s="1" t="n"/>
       <c r="C318" s="1" t="n"/>
       <c r="D318" s="1" t="n"/>
-      <c r="E318" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 19</t>
-        </is>
-      </c>
-      <c r="F318" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="E318" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F318" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G318" t="n">
         <v>144835.3595702264</v>
@@ -8244,10 +7548,8 @@
       <c r="C319" s="1" t="n"/>
       <c r="D319" s="1" t="n"/>
       <c r="E319" s="1" t="n"/>
-      <c r="F319" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F319" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G319" t="n">
         <v>224160.4044713529</v>
@@ -8268,10 +7570,8 @@
       <c r="C320" s="1" t="n"/>
       <c r="D320" s="1" t="n"/>
       <c r="E320" s="1" t="n"/>
-      <c r="F320" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F320" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G320" t="n">
         <v>370727.5792252133</v>
@@ -8292,10 +7592,8 @@
       <c r="C321" s="1" t="n"/>
       <c r="D321" s="1" t="n"/>
       <c r="E321" s="1" t="n"/>
-      <c r="F321" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F321" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G321" t="n">
         <v>707298.4622720238</v>
@@ -8316,10 +7614,8 @@
       <c r="C322" s="1" t="n"/>
       <c r="D322" s="1" t="n"/>
       <c r="E322" s="1" t="n"/>
-      <c r="F322" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F322" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G322" t="n">
         <v>1133530.119218548</v>
@@ -8340,10 +7636,8 @@
       <c r="C323" s="1" t="n"/>
       <c r="D323" s="1" t="n"/>
       <c r="E323" s="1" t="n"/>
-      <c r="F323" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F323" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G323" t="n">
         <v>1566392.211838671</v>
@@ -8364,10 +7658,8 @@
       <c r="C324" s="1" t="n"/>
       <c r="D324" s="1" t="n"/>
       <c r="E324" s="1" t="n"/>
-      <c r="F324" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F324" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G324" t="n">
         <v>1836804.511821522</v>
@@ -8388,10 +7680,8 @@
       <c r="C325" s="1" t="n"/>
       <c r="D325" s="1" t="n"/>
       <c r="E325" s="1" t="n"/>
-      <c r="F325" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F325" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G325" t="n">
         <v>2050658.411749711</v>
@@ -8412,10 +7702,8 @@
       <c r="C326" s="1" t="n"/>
       <c r="D326" s="1" t="n"/>
       <c r="E326" s="1" t="n"/>
-      <c r="F326" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F326" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G326" t="n">
         <v>2257703.974058066</v>
@@ -8436,10 +7724,8 @@
       <c r="C327" s="1" t="n"/>
       <c r="D327" s="1" t="n"/>
       <c r="E327" s="1" t="n"/>
-      <c r="F327" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F327" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G327" t="n">
         <v>2401806.362061975</v>
@@ -8460,10 +7746,8 @@
       <c r="C328" s="1" t="n"/>
       <c r="D328" s="1" t="n"/>
       <c r="E328" s="1" t="n"/>
-      <c r="F328" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F328" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G328" t="n">
         <v>2548080.965134351</v>
@@ -8484,10 +7768,8 @@
       <c r="C329" s="1" t="n"/>
       <c r="D329" s="1" t="n"/>
       <c r="E329" s="1" t="n"/>
-      <c r="F329" s="1" t="inlineStr">
-        <is>
-          <t>Period 30</t>
-        </is>
+      <c r="F329" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="G329" t="n">
         <v>2714549.779750981</v>
@@ -8508,10 +7790,8 @@
       <c r="C330" s="1" t="n"/>
       <c r="D330" s="1" t="n"/>
       <c r="E330" s="1" t="n"/>
-      <c r="F330" s="1" t="inlineStr">
-        <is>
-          <t>Period 31</t>
-        </is>
+      <c r="F330" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="G330" t="n">
         <v>2999999.999999999</v>
@@ -8532,10 +7812,8 @@
       <c r="C331" s="1" t="n"/>
       <c r="D331" s="1" t="n"/>
       <c r="E331" s="1" t="n"/>
-      <c r="F331" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="F331" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G331" t="n">
         <v>3000000</v>
@@ -8556,10 +7834,8 @@
       <c r="C332" s="1" t="n"/>
       <c r="D332" s="1" t="n"/>
       <c r="E332" s="1" t="n"/>
-      <c r="F332" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F332" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G332" t="n">
         <v>3000000</v>
@@ -8580,10 +7856,8 @@
       <c r="C333" s="1" t="n"/>
       <c r="D333" s="1" t="n"/>
       <c r="E333" s="1" t="n"/>
-      <c r="F333" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F333" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G333" t="n">
         <v>3000000</v>
@@ -8604,10 +7878,8 @@
       <c r="C334" s="1" t="n"/>
       <c r="D334" s="1" t="n"/>
       <c r="E334" s="1" t="n"/>
-      <c r="F334" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F334" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G334" t="n">
         <v>3000000</v>
@@ -8628,10 +7900,8 @@
       <c r="C335" s="1" t="n"/>
       <c r="D335" s="1" t="n"/>
       <c r="E335" s="1" t="n"/>
-      <c r="F335" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F335" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G335" t="n">
         <v>3000000</v>
@@ -8652,10 +7922,8 @@
       <c r="C336" s="1" t="n"/>
       <c r="D336" s="1" t="n"/>
       <c r="E336" s="1" t="n"/>
-      <c r="F336" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F336" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G336" t="n">
         <v>3000000</v>
@@ -8676,10 +7944,8 @@
       <c r="C337" s="1" t="n"/>
       <c r="D337" s="1" t="n"/>
       <c r="E337" s="1" t="n"/>
-      <c r="F337" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F337" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G337" t="n">
         <v>3000000</v>
@@ -8700,10 +7966,8 @@
       <c r="C338" s="1" t="n"/>
       <c r="D338" s="1" t="n"/>
       <c r="E338" s="1" t="n"/>
-      <c r="F338" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F338" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G338" t="n">
         <v>1914497.164387448</v>
@@ -8724,10 +7988,8 @@
       <c r="C339" s="1" t="n"/>
       <c r="D339" s="1" t="n"/>
       <c r="E339" s="1" t="n"/>
-      <c r="F339" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F339" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G339" t="n">
         <v>0</v>
@@ -8748,10 +8010,8 @@
       <c r="C340" s="1" t="n"/>
       <c r="D340" s="1" t="n"/>
       <c r="E340" s="1" t="n"/>
-      <c r="F340" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F340" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G340" t="n">
         <v>0</v>
@@ -8772,10 +8032,8 @@
       <c r="C341" s="1" t="n"/>
       <c r="D341" s="1" t="n"/>
       <c r="E341" s="1" t="n"/>
-      <c r="F341" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F341" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G341" t="n">
         <v>0</v>
@@ -8795,15 +8053,11 @@
       <c r="B342" s="1" t="n"/>
       <c r="C342" s="1" t="n"/>
       <c r="D342" s="1" t="n"/>
-      <c r="E342" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 42</t>
-        </is>
-      </c>
-      <c r="F342" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="E342" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F342" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G342" t="n">
         <v>151189.458827959</v>
@@ -8824,10 +8078,8 @@
       <c r="C343" s="1" t="n"/>
       <c r="D343" s="1" t="n"/>
       <c r="E343" s="1" t="n"/>
-      <c r="F343" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F343" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G343" t="n">
         <v>202754.8061408875</v>
@@ -8848,10 +8100,8 @@
       <c r="C344" s="1" t="n"/>
       <c r="D344" s="1" t="n"/>
       <c r="E344" s="1" t="n"/>
-      <c r="F344" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F344" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G344" t="n">
         <v>309605.9163241776</v>
@@ -8872,10 +8122,8 @@
       <c r="C345" s="1" t="n"/>
       <c r="D345" s="1" t="n"/>
       <c r="E345" s="1" t="n"/>
-      <c r="F345" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F345" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G345" t="n">
         <v>581899.0418466108</v>
@@ -8896,10 +8144,8 @@
       <c r="C346" s="1" t="n"/>
       <c r="D346" s="1" t="n"/>
       <c r="E346" s="1" t="n"/>
-      <c r="F346" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F346" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G346" t="n">
         <v>1037327.882525921</v>
@@ -8920,10 +8166,8 @@
       <c r="C347" s="1" t="n"/>
       <c r="D347" s="1" t="n"/>
       <c r="E347" s="1" t="n"/>
-      <c r="F347" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F347" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G347" t="n">
         <v>1564339.717116155</v>
@@ -8944,10 +8188,8 @@
       <c r="C348" s="1" t="n"/>
       <c r="D348" s="1" t="n"/>
       <c r="E348" s="1" t="n"/>
-      <c r="F348" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F348" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G348" t="n">
         <v>1902464.690739309</v>
@@ -8968,10 +8210,8 @@
       <c r="C349" s="1" t="n"/>
       <c r="D349" s="1" t="n"/>
       <c r="E349" s="1" t="n"/>
-      <c r="F349" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F349" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G349" t="n">
         <v>2176278.44635771</v>
@@ -8992,10 +8232,8 @@
       <c r="C350" s="1" t="n"/>
       <c r="D350" s="1" t="n"/>
       <c r="E350" s="1" t="n"/>
-      <c r="F350" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F350" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G350" t="n">
         <v>2438647.235794292</v>
@@ -9016,10 +8254,8 @@
       <c r="C351" s="1" t="n"/>
       <c r="D351" s="1" t="n"/>
       <c r="E351" s="1" t="n"/>
-      <c r="F351" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F351" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G351" t="n">
         <v>2646137.653757156</v>
@@ -9040,10 +8276,8 @@
       <c r="C352" s="1" t="n"/>
       <c r="D352" s="1" t="n"/>
       <c r="E352" s="1" t="n"/>
-      <c r="F352" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F352" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G352" t="n">
         <v>2859961.567538303</v>
@@ -9064,10 +8298,8 @@
       <c r="C353" s="1" t="n"/>
       <c r="D353" s="1" t="n"/>
       <c r="E353" s="1" t="n"/>
-      <c r="F353" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F353" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G353" t="n">
         <v>3000000</v>
@@ -9088,10 +8320,8 @@
       <c r="C354" s="1" t="n"/>
       <c r="D354" s="1" t="n"/>
       <c r="E354" s="1" t="n"/>
-      <c r="F354" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F354" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G354" t="n">
         <v>3000000</v>
@@ -9112,10 +8342,8 @@
       <c r="C355" s="1" t="n"/>
       <c r="D355" s="1" t="n"/>
       <c r="E355" s="1" t="n"/>
-      <c r="F355" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F355" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G355" t="n">
         <v>3000000.000000244</v>
@@ -9136,10 +8364,8 @@
       <c r="C356" s="1" t="n"/>
       <c r="D356" s="1" t="n"/>
       <c r="E356" s="1" t="n"/>
-      <c r="F356" s="1" t="inlineStr">
-        <is>
-          <t>Period 56</t>
-        </is>
+      <c r="F356" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="G356" t="n">
         <v>3000000</v>
@@ -9160,10 +8386,8 @@
       <c r="C357" s="1" t="n"/>
       <c r="D357" s="1" t="n"/>
       <c r="E357" s="1" t="n"/>
-      <c r="F357" s="1" t="inlineStr">
-        <is>
-          <t>Period 57</t>
-        </is>
+      <c r="F357" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="G357" t="n">
         <v>3000000</v>
@@ -9184,10 +8408,8 @@
       <c r="C358" s="1" t="n"/>
       <c r="D358" s="1" t="n"/>
       <c r="E358" s="1" t="n"/>
-      <c r="F358" s="1" t="inlineStr">
-        <is>
-          <t>Period 58</t>
-        </is>
+      <c r="F358" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="G358" t="n">
         <v>1720982.471697196</v>
@@ -9208,10 +8430,8 @@
       <c r="C359" s="1" t="n"/>
       <c r="D359" s="1" t="n"/>
       <c r="E359" s="1" t="n"/>
-      <c r="F359" s="1" t="inlineStr">
-        <is>
-          <t>Period 59</t>
-        </is>
+      <c r="F359" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="G359" t="n">
         <v>0</v>
@@ -9227,35 +8447,23 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="1" t="inlineStr">
-        <is>
-          <t>Iteration 1</t>
-        </is>
-      </c>
-      <c r="B360" s="1" t="inlineStr">
-        <is>
-          <t>Nord-troms</t>
-        </is>
-      </c>
-      <c r="C360" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 0</t>
-        </is>
-      </c>
-      <c r="D360" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E360" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 0</t>
-        </is>
-      </c>
-      <c r="F360" s="1" t="inlineStr">
-        <is>
-          <t>Period 0</t>
-        </is>
+      <c r="A360" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B360" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C360" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D360" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E360" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F360" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G360" t="n">
         <v>154068.3006252746</v>
@@ -9276,10 +8484,8 @@
       <c r="C361" s="1" t="n"/>
       <c r="D361" s="1" t="n"/>
       <c r="E361" s="1" t="n"/>
-      <c r="F361" s="1" t="inlineStr">
-        <is>
-          <t>Period 1</t>
-        </is>
+      <c r="F361" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G361" t="n">
         <v>211507.9355713732</v>
@@ -9300,10 +8506,8 @@
       <c r="C362" s="1" t="n"/>
       <c r="D362" s="1" t="n"/>
       <c r="E362" s="1" t="n"/>
-      <c r="F362" s="1" t="inlineStr">
-        <is>
-          <t>Period 2</t>
-        </is>
+      <c r="F362" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G362" t="n">
         <v>268896.5825150061</v>
@@ -9324,10 +8528,8 @@
       <c r="C363" s="1" t="n"/>
       <c r="D363" s="1" t="n"/>
       <c r="E363" s="1" t="n"/>
-      <c r="F363" s="1" t="inlineStr">
-        <is>
-          <t>Period 3</t>
-        </is>
+      <c r="F363" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="G363" t="n">
         <v>344648.2671904828</v>
@@ -9348,10 +8550,8 @@
       <c r="C364" s="1" t="n"/>
       <c r="D364" s="1" t="n"/>
       <c r="E364" s="1" t="n"/>
-      <c r="F364" s="1" t="inlineStr">
-        <is>
-          <t>Period 4</t>
-        </is>
+      <c r="F364" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="G364" t="n">
         <v>415712.1823794463</v>
@@ -9372,10 +8572,8 @@
       <c r="C365" s="1" t="n"/>
       <c r="D365" s="1" t="n"/>
       <c r="E365" s="1" t="n"/>
-      <c r="F365" s="1" t="inlineStr">
-        <is>
-          <t>Period 5</t>
-        </is>
+      <c r="F365" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="G365" t="n">
         <v>481212.1764171933</v>
@@ -9396,10 +8594,8 @@
       <c r="C366" s="1" t="n"/>
       <c r="D366" s="1" t="n"/>
       <c r="E366" s="1" t="n"/>
-      <c r="F366" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="F366" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G366" t="n">
         <v>538249.7170217823</v>
@@ -9420,10 +8616,8 @@
       <c r="C367" s="1" t="n"/>
       <c r="D367" s="1" t="n"/>
       <c r="E367" s="1" t="n"/>
-      <c r="F367" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F367" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G367" t="n">
         <v>615593.2684024816</v>
@@ -9444,10 +8638,8 @@
       <c r="C368" s="1" t="n"/>
       <c r="D368" s="1" t="n"/>
       <c r="E368" s="1" t="n"/>
-      <c r="F368" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F368" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G368" t="n">
         <v>744301.2295347038</v>
@@ -9468,10 +8660,8 @@
       <c r="C369" s="1" t="n"/>
       <c r="D369" s="1" t="n"/>
       <c r="E369" s="1" t="n"/>
-      <c r="F369" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F369" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G369" t="n">
         <v>903341.2447394901</v>
@@ -9492,10 +8682,8 @@
       <c r="C370" s="1" t="n"/>
       <c r="D370" s="1" t="n"/>
       <c r="E370" s="1" t="n"/>
-      <c r="F370" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F370" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G370" t="n">
         <v>1204175.826007253</v>
@@ -9516,10 +8704,8 @@
       <c r="C371" s="1" t="n"/>
       <c r="D371" s="1" t="n"/>
       <c r="E371" s="1" t="n"/>
-      <c r="F371" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F371" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G371" t="n">
         <v>1516410.339832576</v>
@@ -9540,10 +8726,8 @@
       <c r="C372" s="1" t="n"/>
       <c r="D372" s="1" t="n"/>
       <c r="E372" s="1" t="n"/>
-      <c r="F372" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F372" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G372" t="n">
         <v>1804434.682417868</v>
@@ -9564,10 +8748,8 @@
       <c r="C373" s="1" t="n"/>
       <c r="D373" s="1" t="n"/>
       <c r="E373" s="1" t="n"/>
-      <c r="F373" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F373" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G373" t="n">
         <v>2060897.536033852</v>
@@ -9588,10 +8770,8 @@
       <c r="C374" s="1" t="n"/>
       <c r="D374" s="1" t="n"/>
       <c r="E374" s="1" t="n"/>
-      <c r="F374" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F374" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G374" t="n">
         <v>2283813.241897851</v>
@@ -9612,10 +8792,8 @@
       <c r="C375" s="1" t="n"/>
       <c r="D375" s="1" t="n"/>
       <c r="E375" s="1" t="n"/>
-      <c r="F375" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F375" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G375" t="n">
         <v>2462052.430949516</v>
@@ -9636,10 +8814,8 @@
       <c r="C376" s="1" t="n"/>
       <c r="D376" s="1" t="n"/>
       <c r="E376" s="1" t="n"/>
-      <c r="F376" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F376" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G376" t="n">
         <v>2609232.31694156</v>
@@ -9660,10 +8836,8 @@
       <c r="C377" s="1" t="n"/>
       <c r="D377" s="1" t="n"/>
       <c r="E377" s="1" t="n"/>
-      <c r="F377" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F377" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G377" t="n">
         <v>2737962.783746141</v>
@@ -9684,10 +8858,8 @@
       <c r="C378" s="1" t="n"/>
       <c r="D378" s="1" t="n"/>
       <c r="E378" s="1" t="n"/>
-      <c r="F378" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F378" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G378" t="n">
         <v>2904727.94114257</v>
@@ -9708,10 +8880,8 @@
       <c r="C379" s="1" t="n"/>
       <c r="D379" s="1" t="n"/>
       <c r="E379" s="1" t="n"/>
-      <c r="F379" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F379" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G379" t="n">
         <v>1790656.589772994</v>
@@ -9732,10 +8902,8 @@
       <c r="C380" s="1" t="n"/>
       <c r="D380" s="1" t="n"/>
       <c r="E380" s="1" t="n"/>
-      <c r="F380" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F380" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G380" t="n">
         <v>-2.394933221893089e-09</v>
@@ -9756,10 +8924,8 @@
       <c r="C381" s="1" t="n"/>
       <c r="D381" s="1" t="n"/>
       <c r="E381" s="1" t="n"/>
-      <c r="F381" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F381" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G381" t="n">
         <v>2.394933221893089e-09</v>
@@ -9780,10 +8946,8 @@
       <c r="C382" s="1" t="n"/>
       <c r="D382" s="1" t="n"/>
       <c r="E382" s="1" t="n"/>
-      <c r="F382" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F382" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G382" t="n">
         <v>2.793967723846436e-09</v>
@@ -9804,10 +8968,8 @@
       <c r="C383" s="1" t="n"/>
       <c r="D383" s="1" t="n"/>
       <c r="E383" s="1" t="n"/>
-      <c r="F383" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F383" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G383" t="n">
         <v>1.622027145206951e-09</v>
@@ -9827,15 +8989,11 @@
       <c r="B384" s="1" t="n"/>
       <c r="C384" s="1" t="n"/>
       <c r="D384" s="1" t="n"/>
-      <c r="E384" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 22</t>
-        </is>
-      </c>
-      <c r="F384" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="E384" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F384" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G384" t="n">
         <v>146022.343740383</v>
@@ -9856,10 +9014,8 @@
       <c r="C385" s="1" t="n"/>
       <c r="D385" s="1" t="n"/>
       <c r="E385" s="1" t="n"/>
-      <c r="F385" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F385" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G385" t="n">
         <v>237274.5691942232</v>
@@ -9880,10 +9036,8 @@
       <c r="C386" s="1" t="n"/>
       <c r="D386" s="1" t="n"/>
       <c r="E386" s="1" t="n"/>
-      <c r="F386" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F386" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G386" t="n">
         <v>342567.6733962338</v>
@@ -9904,10 +9058,8 @@
       <c r="C387" s="1" t="n"/>
       <c r="D387" s="1" t="n"/>
       <c r="E387" s="1" t="n"/>
-      <c r="F387" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F387" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G387" t="n">
         <v>488850.1695695986</v>
@@ -9928,10 +9080,8 @@
       <c r="C388" s="1" t="n"/>
       <c r="D388" s="1" t="n"/>
       <c r="E388" s="1" t="n"/>
-      <c r="F388" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F388" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G388" t="n">
         <v>630082.2916251301</v>
@@ -9952,10 +9102,8 @@
       <c r="C389" s="1" t="n"/>
       <c r="D389" s="1" t="n"/>
       <c r="E389" s="1" t="n"/>
-      <c r="F389" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F389" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G389" t="n">
         <v>754910.4887375063</v>
@@ -9976,10 +9124,8 @@
       <c r="C390" s="1" t="n"/>
       <c r="D390" s="1" t="n"/>
       <c r="E390" s="1" t="n"/>
-      <c r="F390" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F390" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G390" t="n">
         <v>825116.1753614026</v>
@@ -10000,10 +9146,8 @@
       <c r="C391" s="1" t="n"/>
       <c r="D391" s="1" t="n"/>
       <c r="E391" s="1" t="n"/>
-      <c r="F391" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F391" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G391" t="n">
         <v>880508.3660501104</v>
@@ -10024,10 +9168,8 @@
       <c r="C392" s="1" t="n"/>
       <c r="D392" s="1" t="n"/>
       <c r="E392" s="1" t="n"/>
-      <c r="F392" s="1" t="inlineStr">
-        <is>
-          <t>Period 30</t>
-        </is>
+      <c r="F392" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="G392" t="n">
         <v>959038.9227625628</v>
@@ -10048,10 +9190,8 @@
       <c r="C393" s="1" t="n"/>
       <c r="D393" s="1" t="n"/>
       <c r="E393" s="1" t="n"/>
-      <c r="F393" s="1" t="inlineStr">
-        <is>
-          <t>Period 31</t>
-        </is>
+      <c r="F393" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="G393" t="n">
         <v>1064161.208641966</v>
@@ -10072,10 +9212,8 @@
       <c r="C394" s="1" t="n"/>
       <c r="D394" s="1" t="n"/>
       <c r="E394" s="1" t="n"/>
-      <c r="F394" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="F394" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G394" t="n">
         <v>1272440.17595018</v>
@@ -10096,10 +9234,8 @@
       <c r="C395" s="1" t="n"/>
       <c r="D395" s="1" t="n"/>
       <c r="E395" s="1" t="n"/>
-      <c r="F395" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F395" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G395" t="n">
         <v>1517577.879321774</v>
@@ -10120,10 +9256,8 @@
       <c r="C396" s="1" t="n"/>
       <c r="D396" s="1" t="n"/>
       <c r="E396" s="1" t="n"/>
-      <c r="F396" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F396" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G396" t="n">
         <v>1860267.378458019</v>
@@ -10144,10 +9278,8 @@
       <c r="C397" s="1" t="n"/>
       <c r="D397" s="1" t="n"/>
       <c r="E397" s="1" t="n"/>
-      <c r="F397" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F397" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G397" t="n">
         <v>2278536.257892584</v>
@@ -10168,10 +9300,8 @@
       <c r="C398" s="1" t="n"/>
       <c r="D398" s="1" t="n"/>
       <c r="E398" s="1" t="n"/>
-      <c r="F398" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F398" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G398" t="n">
         <v>2677473.454526064</v>
@@ -10192,10 +9322,8 @@
       <c r="C399" s="1" t="n"/>
       <c r="D399" s="1" t="n"/>
       <c r="E399" s="1" t="n"/>
-      <c r="F399" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F399" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G399" t="n">
         <v>3000000.000000001</v>
@@ -10216,10 +9344,8 @@
       <c r="C400" s="1" t="n"/>
       <c r="D400" s="1" t="n"/>
       <c r="E400" s="1" t="n"/>
-      <c r="F400" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F400" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G400" t="n">
         <v>2999999.999999999</v>
@@ -10240,10 +9366,8 @@
       <c r="C401" s="1" t="n"/>
       <c r="D401" s="1" t="n"/>
       <c r="E401" s="1" t="n"/>
-      <c r="F401" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F401" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G401" t="n">
         <v>3000000.000000002</v>
@@ -10264,10 +9388,8 @@
       <c r="C402" s="1" t="n"/>
       <c r="D402" s="1" t="n"/>
       <c r="E402" s="1" t="n"/>
-      <c r="F402" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F402" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G402" t="n">
         <v>1918644.303903444</v>
@@ -10288,10 +9410,8 @@
       <c r="C403" s="1" t="n"/>
       <c r="D403" s="1" t="n"/>
       <c r="E403" s="1" t="n"/>
-      <c r="F403" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F403" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G403" t="n">
         <v>0</v>
@@ -10312,10 +9432,8 @@
       <c r="C404" s="1" t="n"/>
       <c r="D404" s="1" t="n"/>
       <c r="E404" s="1" t="n"/>
-      <c r="F404" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F404" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G404" t="n">
         <v>0</v>
@@ -10336,10 +9454,8 @@
       <c r="C405" s="1" t="n"/>
       <c r="D405" s="1" t="n"/>
       <c r="E405" s="1" t="n"/>
-      <c r="F405" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F405" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G405" t="n">
         <v>0</v>
@@ -10360,10 +9476,8 @@
       <c r="C406" s="1" t="n"/>
       <c r="D406" s="1" t="n"/>
       <c r="E406" s="1" t="n"/>
-      <c r="F406" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F406" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G406" t="n">
         <v>0</v>
@@ -10384,10 +9498,8 @@
       <c r="C407" s="1" t="n"/>
       <c r="D407" s="1" t="n"/>
       <c r="E407" s="1" t="n"/>
-      <c r="F407" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F407" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G407" t="n">
         <v>0</v>
@@ -10407,15 +9519,11 @@
       <c r="B408" s="1" t="n"/>
       <c r="C408" s="1" t="n"/>
       <c r="D408" s="1" t="n"/>
-      <c r="E408" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 43</t>
-        </is>
-      </c>
-      <c r="F408" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="E408" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F408" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G408" t="n">
         <v>147411.9872371145</v>
@@ -10436,10 +9544,8 @@
       <c r="C409" s="1" t="n"/>
       <c r="D409" s="1" t="n"/>
       <c r="E409" s="1" t="n"/>
-      <c r="F409" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F409" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G409" t="n">
         <v>203456.280066654</v>
@@ -10460,10 +9566,8 @@
       <c r="C410" s="1" t="n"/>
       <c r="D410" s="1" t="n"/>
       <c r="E410" s="1" t="n"/>
-      <c r="F410" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F410" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G410" t="n">
         <v>295590.5256305029</v>
@@ -10484,10 +9588,8 @@
       <c r="C411" s="1" t="n"/>
       <c r="D411" s="1" t="n"/>
       <c r="E411" s="1" t="n"/>
-      <c r="F411" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F411" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G411" t="n">
         <v>516487.8002030834</v>
@@ -10508,10 +9610,8 @@
       <c r="C412" s="1" t="n"/>
       <c r="D412" s="1" t="n"/>
       <c r="E412" s="1" t="n"/>
-      <c r="F412" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F412" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G412" t="n">
         <v>839483.8310868964</v>
@@ -10532,10 +9632,8 @@
       <c r="C413" s="1" t="n"/>
       <c r="D413" s="1" t="n"/>
       <c r="E413" s="1" t="n"/>
-      <c r="F413" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F413" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G413" t="n">
         <v>1172975.11302733</v>
@@ -10556,10 +9654,8 @@
       <c r="C414" s="1" t="n"/>
       <c r="D414" s="1" t="n"/>
       <c r="E414" s="1" t="n"/>
-      <c r="F414" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F414" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G414" t="n">
         <v>1369372.021137803</v>
@@ -10580,10 +9676,8 @@
       <c r="C415" s="1" t="n"/>
       <c r="D415" s="1" t="n"/>
       <c r="E415" s="1" t="n"/>
-      <c r="F415" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F415" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G415" t="n">
         <v>1515872.108370326</v>
@@ -10604,10 +9698,8 @@
       <c r="C416" s="1" t="n"/>
       <c r="D416" s="1" t="n"/>
       <c r="E416" s="1" t="n"/>
-      <c r="F416" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F416" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G416" t="n">
         <v>1648488.425273728</v>
@@ -10628,10 +9720,8 @@
       <c r="C417" s="1" t="n"/>
       <c r="D417" s="1" t="n"/>
       <c r="E417" s="1" t="n"/>
-      <c r="F417" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F417" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G417" t="n">
         <v>1745895.305900867</v>
@@ -10652,10 +9742,8 @@
       <c r="C418" s="1" t="n"/>
       <c r="D418" s="1" t="n"/>
       <c r="E418" s="1" t="n"/>
-      <c r="F418" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F418" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G418" t="n">
         <v>1858982.770978522</v>
@@ -10676,10 +9764,8 @@
       <c r="C419" s="1" t="n"/>
       <c r="D419" s="1" t="n"/>
       <c r="E419" s="1" t="n"/>
-      <c r="F419" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F419" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G419" t="n">
         <v>1983992.636607143</v>
@@ -10700,10 +9786,8 @@
       <c r="C420" s="1" t="n"/>
       <c r="D420" s="1" t="n"/>
       <c r="E420" s="1" t="n"/>
-      <c r="F420" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F420" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G420" t="n">
         <v>2169473.236785314</v>
@@ -10724,10 +9808,8 @@
       <c r="C421" s="1" t="n"/>
       <c r="D421" s="1" t="n"/>
       <c r="E421" s="1" t="n"/>
-      <c r="F421" s="1" t="inlineStr">
-        <is>
-          <t>Period 56</t>
-        </is>
+      <c r="F421" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="G421" t="n">
         <v>2458817.851731133</v>
@@ -10748,10 +9830,8 @@
       <c r="C422" s="1" t="n"/>
       <c r="D422" s="1" t="n"/>
       <c r="E422" s="1" t="n"/>
-      <c r="F422" s="1" t="inlineStr">
-        <is>
-          <t>Period 57</t>
-        </is>
+      <c r="F422" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="G422" t="n">
         <v>2862675.036312833</v>
@@ -10772,10 +9852,8 @@
       <c r="C423" s="1" t="n"/>
       <c r="D423" s="1" t="n"/>
       <c r="E423" s="1" t="n"/>
-      <c r="F423" s="1" t="inlineStr">
-        <is>
-          <t>Period 58</t>
-        </is>
+      <c r="F423" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="G423" t="n">
         <v>1694569.853659012</v>
@@ -10796,10 +9874,8 @@
       <c r="C424" s="1" t="n"/>
       <c r="D424" s="1" t="n"/>
       <c r="E424" s="1" t="n"/>
-      <c r="F424" s="1" t="inlineStr">
-        <is>
-          <t>Period 59</t>
-        </is>
+      <c r="F424" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="G424" t="n">
         <v>0</v>
@@ -10817,25 +9893,17 @@
     <row r="425">
       <c r="A425" s="1" t="n"/>
       <c r="B425" s="1" t="n"/>
-      <c r="C425" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 1</t>
-        </is>
-      </c>
-      <c r="D425" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E425" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 0</t>
-        </is>
-      </c>
-      <c r="F425" s="1" t="inlineStr">
-        <is>
-          <t>Period 0</t>
-        </is>
+      <c r="C425" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D425" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E425" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F425" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G425" t="n">
         <v>154068.3006252746</v>
@@ -10856,10 +9924,8 @@
       <c r="C426" s="1" t="n"/>
       <c r="D426" s="1" t="n"/>
       <c r="E426" s="1" t="n"/>
-      <c r="F426" s="1" t="inlineStr">
-        <is>
-          <t>Period 1</t>
-        </is>
+      <c r="F426" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G426" t="n">
         <v>218762.0911168047</v>
@@ -10880,10 +9946,8 @@
       <c r="C427" s="1" t="n"/>
       <c r="D427" s="1" t="n"/>
       <c r="E427" s="1" t="n"/>
-      <c r="F427" s="1" t="inlineStr">
-        <is>
-          <t>Period 2</t>
-        </is>
+      <c r="F427" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G427" t="n">
         <v>284628.5703033127</v>
@@ -10904,10 +9968,8 @@
       <c r="C428" s="1" t="n"/>
       <c r="D428" s="1" t="n"/>
       <c r="E428" s="1" t="n"/>
-      <c r="F428" s="1" t="inlineStr">
-        <is>
-          <t>Period 3</t>
-        </is>
+      <c r="F428" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="G428" t="n">
         <v>372865.4078147223</v>
@@ -10928,10 +9990,8 @@
       <c r="C429" s="1" t="n"/>
       <c r="D429" s="1" t="n"/>
       <c r="E429" s="1" t="n"/>
-      <c r="F429" s="1" t="inlineStr">
-        <is>
-          <t>Period 4</t>
-        </is>
+      <c r="F429" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="G429" t="n">
         <v>456687.4067022</v>
@@ -10952,10 +10012,8 @@
       <c r="C430" s="1" t="n"/>
       <c r="D430" s="1" t="n"/>
       <c r="E430" s="1" t="n"/>
-      <c r="F430" s="1" t="inlineStr">
-        <is>
-          <t>Period 5</t>
-        </is>
+      <c r="F430" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="G430" t="n">
         <v>534660.3182956736</v>
@@ -10976,10 +10034,8 @@
       <c r="C431" s="1" t="n"/>
       <c r="D431" s="1" t="n"/>
       <c r="E431" s="1" t="n"/>
-      <c r="F431" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="F431" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G431" t="n">
         <v>603042.3874833928</v>
@@ -11000,10 +10056,8 @@
       <c r="C432" s="1" t="n"/>
       <c r="D432" s="1" t="n"/>
       <c r="E432" s="1" t="n"/>
-      <c r="F432" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F432" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G432" t="n">
         <v>696268.7306982642</v>
@@ -11024,10 +10078,8 @@
       <c r="C433" s="1" t="n"/>
       <c r="D433" s="1" t="n"/>
       <c r="E433" s="1" t="n"/>
-      <c r="F433" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F433" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G433" t="n">
         <v>852438.9782806498</v>
@@ -11048,10 +10100,8 @@
       <c r="C434" s="1" t="n"/>
       <c r="D434" s="1" t="n"/>
       <c r="E434" s="1" t="n"/>
-      <c r="F434" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F434" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G434" t="n">
         <v>1046962.609861513</v>
@@ -11072,10 +10122,8 @@
       <c r="C435" s="1" t="n"/>
       <c r="D435" s="1" t="n"/>
       <c r="E435" s="1" t="n"/>
-      <c r="F435" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F435" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G435" t="n">
         <v>1418220.559994403</v>
@@ -11096,10 +10144,8 @@
       <c r="C436" s="1" t="n"/>
       <c r="D436" s="1" t="n"/>
       <c r="E436" s="1" t="n"/>
-      <c r="F436" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F436" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G436" t="n">
         <v>1807134.391940065</v>
@@ -11120,10 +10166,8 @@
       <c r="C437" s="1" t="n"/>
       <c r="D437" s="1" t="n"/>
       <c r="E437" s="1" t="n"/>
-      <c r="F437" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F437" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G437" t="n">
         <v>2168360.008181169</v>
@@ -11144,10 +10188,8 @@
       <c r="C438" s="1" t="n"/>
       <c r="D438" s="1" t="n"/>
       <c r="E438" s="1" t="n"/>
-      <c r="F438" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F438" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G438" t="n">
         <v>2491634.59523199</v>
@@ -11168,10 +10210,8 @@
       <c r="C439" s="1" t="n"/>
       <c r="D439" s="1" t="n"/>
       <c r="E439" s="1" t="n"/>
-      <c r="F439" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F439" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G439" t="n">
         <v>2773720.111731977</v>
@@ -11192,10 +10232,8 @@
       <c r="C440" s="1" t="n"/>
       <c r="D440" s="1" t="n"/>
       <c r="E440" s="1" t="n"/>
-      <c r="F440" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F440" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G440" t="n">
         <v>3000000.000000001</v>
@@ -11216,10 +10254,8 @@
       <c r="C441" s="1" t="n"/>
       <c r="D441" s="1" t="n"/>
       <c r="E441" s="1" t="n"/>
-      <c r="F441" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F441" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G441" t="n">
         <v>3000000</v>
@@ -11240,10 +10276,8 @@
       <c r="C442" s="1" t="n"/>
       <c r="D442" s="1" t="n"/>
       <c r="E442" s="1" t="n"/>
-      <c r="F442" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F442" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G442" t="n">
         <v>3000000</v>
@@ -11264,10 +10298,8 @@
       <c r="C443" s="1" t="n"/>
       <c r="D443" s="1" t="n"/>
       <c r="E443" s="1" t="n"/>
-      <c r="F443" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F443" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G443" t="n">
         <v>3000000</v>
@@ -11288,10 +10320,8 @@
       <c r="C444" s="1" t="n"/>
       <c r="D444" s="1" t="n"/>
       <c r="E444" s="1" t="n"/>
-      <c r="F444" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F444" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G444" t="n">
         <v>1783223.216430122</v>
@@ -11312,10 +10342,8 @@
       <c r="C445" s="1" t="n"/>
       <c r="D445" s="1" t="n"/>
       <c r="E445" s="1" t="n"/>
-      <c r="F445" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F445" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G445" t="n">
         <v>0</v>
@@ -11336,10 +10364,8 @@
       <c r="C446" s="1" t="n"/>
       <c r="D446" s="1" t="n"/>
       <c r="E446" s="1" t="n"/>
-      <c r="F446" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F446" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G446" t="n">
         <v>0</v>
@@ -11360,10 +10386,8 @@
       <c r="C447" s="1" t="n"/>
       <c r="D447" s="1" t="n"/>
       <c r="E447" s="1" t="n"/>
-      <c r="F447" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F447" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G447" t="n">
         <v>0</v>
@@ -11384,10 +10408,8 @@
       <c r="C448" s="1" t="n"/>
       <c r="D448" s="1" t="n"/>
       <c r="E448" s="1" t="n"/>
-      <c r="F448" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F448" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G448" t="n">
         <v>0</v>
@@ -11407,15 +10429,11 @@
       <c r="B449" s="1" t="n"/>
       <c r="C449" s="1" t="n"/>
       <c r="D449" s="1" t="n"/>
-      <c r="E449" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 22</t>
-        </is>
-      </c>
-      <c r="F449" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="E449" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="F449" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G449" t="n">
         <v>146022.343740383</v>
@@ -11436,10 +10454,8 @@
       <c r="C450" s="1" t="n"/>
       <c r="D450" s="1" t="n"/>
       <c r="E450" s="1" t="n"/>
-      <c r="F450" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F450" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G450" t="n">
         <v>249404.5958779364</v>
@@ -11460,10 +10476,8 @@
       <c r="C451" s="1" t="n"/>
       <c r="D451" s="1" t="n"/>
       <c r="E451" s="1" t="n"/>
-      <c r="F451" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F451" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G451" t="n">
         <v>371905.9071115692</v>
@@ -11484,10 +10498,8 @@
       <c r="C452" s="1" t="n"/>
       <c r="D452" s="1" t="n"/>
       <c r="E452" s="1" t="n"/>
-      <c r="F452" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F452" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G452" t="n">
         <v>545473.3668363756</v>
@@ -11508,10 +10520,8 @@
       <c r="C453" s="1" t="n"/>
       <c r="D453" s="1" t="n"/>
       <c r="E453" s="1" t="n"/>
-      <c r="F453" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F453" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G453" t="n">
         <v>715558.9464577683</v>
@@ -11532,10 +10542,8 @@
       <c r="C454" s="1" t="n"/>
       <c r="D454" s="1" t="n"/>
       <c r="E454" s="1" t="n"/>
-      <c r="F454" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F454" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G454" t="n">
         <v>867395.1200419373</v>
@@ -11556,10 +10564,8 @@
       <c r="C455" s="1" t="n"/>
       <c r="D455" s="1" t="n"/>
       <c r="E455" s="1" t="n"/>
-      <c r="F455" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F455" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G455" t="n">
         <v>953406.2069546185</v>
@@ -11580,10 +10586,8 @@
       <c r="C456" s="1" t="n"/>
       <c r="D456" s="1" t="n"/>
       <c r="E456" s="1" t="n"/>
-      <c r="F456" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F456" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G456" t="n">
         <v>1021558.81317449</v>
@@ -11604,10 +10608,8 @@
       <c r="C457" s="1" t="n"/>
       <c r="D457" s="1" t="n"/>
       <c r="E457" s="1" t="n"/>
-      <c r="F457" s="1" t="inlineStr">
-        <is>
-          <t>Period 30</t>
-        </is>
+      <c r="F457" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="G457" t="n">
         <v>1118371.287908606</v>
@@ -11628,10 +10630,8 @@
       <c r="C458" s="1" t="n"/>
       <c r="D458" s="1" t="n"/>
       <c r="E458" s="1" t="n"/>
-      <c r="F458" s="1" t="inlineStr">
-        <is>
-          <t>Period 31</t>
-        </is>
+      <c r="F458" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="G458" t="n">
         <v>1248362.904314616</v>
@@ -11652,10 +10652,8 @@
       <c r="C459" s="1" t="n"/>
       <c r="D459" s="1" t="n"/>
       <c r="E459" s="1" t="n"/>
-      <c r="F459" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="F459" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G459" t="n">
         <v>1506981.690435825</v>
@@ -11676,10 +10674,8 @@
       <c r="C460" s="1" t="n"/>
       <c r="D460" s="1" t="n"/>
       <c r="E460" s="1" t="n"/>
-      <c r="F460" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F460" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G460" t="n">
         <v>1813211.356022957</v>
@@ -11700,10 +10696,8 @@
       <c r="C461" s="1" t="n"/>
       <c r="D461" s="1" t="n"/>
       <c r="E461" s="1" t="n"/>
-      <c r="F461" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F461" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G461" t="n">
         <v>2243827.022650053</v>
@@ -11724,10 +10718,8 @@
       <c r="C462" s="1" t="n"/>
       <c r="D462" s="1" t="n"/>
       <c r="E462" s="1" t="n"/>
-      <c r="F462" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F462" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G462" t="n">
         <v>2772581.193628663</v>
@@ -11748,10 +10740,8 @@
       <c r="C463" s="1" t="n"/>
       <c r="D463" s="1" t="n"/>
       <c r="E463" s="1" t="n"/>
-      <c r="F463" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F463" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G463" t="n">
         <v>3000000</v>
@@ -11772,10 +10762,8 @@
       <c r="C464" s="1" t="n"/>
       <c r="D464" s="1" t="n"/>
       <c r="E464" s="1" t="n"/>
-      <c r="F464" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F464" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G464" t="n">
         <v>3000000</v>
@@ -11796,10 +10784,8 @@
       <c r="C465" s="1" t="n"/>
       <c r="D465" s="1" t="n"/>
       <c r="E465" s="1" t="n"/>
-      <c r="F465" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F465" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G465" t="n">
         <v>3000000</v>
@@ -11820,10 +10806,8 @@
       <c r="C466" s="1" t="n"/>
       <c r="D466" s="1" t="n"/>
       <c r="E466" s="1" t="n"/>
-      <c r="F466" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F466" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G466" t="n">
         <v>3000000</v>
@@ -11844,10 +10828,8 @@
       <c r="C467" s="1" t="n"/>
       <c r="D467" s="1" t="n"/>
       <c r="E467" s="1" t="n"/>
-      <c r="F467" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F467" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G467" t="n">
         <v>1915609.585709548</v>
@@ -11868,10 +10850,8 @@
       <c r="C468" s="1" t="n"/>
       <c r="D468" s="1" t="n"/>
       <c r="E468" s="1" t="n"/>
-      <c r="F468" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F468" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G468" t="n">
         <v>7.443332715389955e-09</v>
@@ -11892,10 +10872,8 @@
       <c r="C469" s="1" t="n"/>
       <c r="D469" s="1" t="n"/>
       <c r="E469" s="1" t="n"/>
-      <c r="F469" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F469" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G469" t="n">
         <v>8.646866999640618e-10</v>
@@ -11916,10 +10894,8 @@
       <c r="C470" s="1" t="n"/>
       <c r="D470" s="1" t="n"/>
       <c r="E470" s="1" t="n"/>
-      <c r="F470" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F470" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G470" t="n">
         <v>9.313225746154785e-10</v>
@@ -11940,10 +10916,8 @@
       <c r="C471" s="1" t="n"/>
       <c r="D471" s="1" t="n"/>
       <c r="E471" s="1" t="n"/>
-      <c r="F471" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F471" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G471" t="n">
         <v>5.14815394642712e-10</v>
@@ -11964,10 +10938,8 @@
       <c r="C472" s="1" t="n"/>
       <c r="D472" s="1" t="n"/>
       <c r="E472" s="1" t="n"/>
-      <c r="F472" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F472" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G472" t="n">
         <v>5.795887765625772e-10</v>
@@ -11987,15 +10959,11 @@
       <c r="B473" s="1" t="n"/>
       <c r="C473" s="1" t="n"/>
       <c r="D473" s="1" t="n"/>
-      <c r="E473" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 43</t>
-        </is>
-      </c>
-      <c r="F473" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="E473" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="F473" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G473" t="n">
         <v>147411.9872371145</v>
@@ -12016,10 +10984,8 @@
       <c r="C474" s="1" t="n"/>
       <c r="D474" s="1" t="n"/>
       <c r="E474" s="1" t="n"/>
-      <c r="F474" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F474" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G474" t="n">
         <v>210545.3841088739</v>
@@ -12040,10 +11006,8 @@
       <c r="C475" s="1" t="n"/>
       <c r="D475" s="1" t="n"/>
       <c r="E475" s="1" t="n"/>
-      <c r="F475" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F475" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G475" t="n">
         <v>316730.4204696158</v>
@@ -12064,10 +11028,8 @@
       <c r="C476" s="1" t="n"/>
       <c r="D476" s="1" t="n"/>
       <c r="E476" s="1" t="n"/>
-      <c r="F476" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F476" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G476" t="n">
         <v>578169.4896760954</v>
@@ -12088,10 +11050,8 @@
       <c r="C477" s="1" t="n"/>
       <c r="D477" s="1" t="n"/>
       <c r="E477" s="1" t="n"/>
-      <c r="F477" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F477" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G477" t="n">
         <v>969880.1982371848</v>
@@ -12112,10 +11072,8 @@
       <c r="C478" s="1" t="n"/>
       <c r="D478" s="1" t="n"/>
       <c r="E478" s="1" t="n"/>
-      <c r="F478" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F478" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G478" t="n">
         <v>1380958.306055897</v>
@@ -12136,10 +11094,8 @@
       <c r="C479" s="1" t="n"/>
       <c r="D479" s="1" t="n"/>
       <c r="E479" s="1" t="n"/>
-      <c r="F479" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F479" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G479" t="n">
         <v>1625329.740398768</v>
@@ -12160,10 +11116,8 @@
       <c r="C480" s="1" t="n"/>
       <c r="D480" s="1" t="n"/>
       <c r="E480" s="1" t="n"/>
-      <c r="F480" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F480" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G480" t="n">
         <v>1808546.35457079</v>
@@ -12184,10 +11138,8 @@
       <c r="C481" s="1" t="n"/>
       <c r="D481" s="1" t="n"/>
       <c r="E481" s="1" t="n"/>
-      <c r="F481" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F481" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G481" t="n">
         <v>1974980.114192308</v>
@@ -12208,10 +11160,8 @@
       <c r="C482" s="1" t="n"/>
       <c r="D482" s="1" t="n"/>
       <c r="E482" s="1" t="n"/>
-      <c r="F482" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F482" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G482" t="n">
         <v>2097649.365172741</v>
@@ -12232,10 +11182,8 @@
       <c r="C483" s="1" t="n"/>
       <c r="D483" s="1" t="n"/>
       <c r="E483" s="1" t="n"/>
-      <c r="F483" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F483" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G483" t="n">
         <v>2240288.558709582</v>
@@ -12256,10 +11204,8 @@
       <c r="C484" s="1" t="n"/>
       <c r="D484" s="1" t="n"/>
       <c r="E484" s="1" t="n"/>
-      <c r="F484" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F484" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G484" t="n">
         <v>2398254.752151747</v>
@@ -12280,10 +11226,8 @@
       <c r="C485" s="1" t="n"/>
       <c r="D485" s="1" t="n"/>
       <c r="E485" s="1" t="n"/>
-      <c r="F485" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F485" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G485" t="n">
         <v>2632968.449282379</v>
@@ -12304,10 +11248,8 @@
       <c r="C486" s="1" t="n"/>
       <c r="D486" s="1" t="n"/>
       <c r="E486" s="1" t="n"/>
-      <c r="F486" s="1" t="inlineStr">
-        <is>
-          <t>Period 56</t>
-        </is>
+      <c r="F486" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="G486" t="n">
         <v>2999999.999999999</v>
@@ -12328,10 +11270,8 @@
       <c r="C487" s="1" t="n"/>
       <c r="D487" s="1" t="n"/>
       <c r="E487" s="1" t="n"/>
-      <c r="F487" s="1" t="inlineStr">
-        <is>
-          <t>Period 57</t>
-        </is>
+      <c r="F487" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="G487" t="n">
         <v>3000000</v>
@@ -12352,10 +11292,8 @@
       <c r="C488" s="1" t="n"/>
       <c r="D488" s="1" t="n"/>
       <c r="E488" s="1" t="n"/>
-      <c r="F488" s="1" t="inlineStr">
-        <is>
-          <t>Period 58</t>
-        </is>
+      <c r="F488" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="G488" t="n">
         <v>1684631.450488269</v>
@@ -12376,10 +11314,8 @@
       <c r="C489" s="1" t="n"/>
       <c r="D489" s="1" t="n"/>
       <c r="E489" s="1" t="n"/>
-      <c r="F489" s="1" t="inlineStr">
-        <is>
-          <t>Period 59</t>
-        </is>
+      <c r="F489" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="G489" t="n">
         <v>0</v>
@@ -12396,30 +11332,20 @@
     </row>
     <row r="490">
       <c r="A490" s="1" t="n"/>
-      <c r="B490" s="1" t="inlineStr">
-        <is>
-          <t>Senja</t>
-        </is>
-      </c>
-      <c r="C490" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 0</t>
-        </is>
-      </c>
-      <c r="D490" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E490" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 6</t>
-        </is>
-      </c>
-      <c r="F490" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="B490" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C490" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D490" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E490" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F490" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G490" t="n">
         <v>146964.9397355678</v>
@@ -12440,10 +11366,8 @@
       <c r="C491" s="1" t="n"/>
       <c r="D491" s="1" t="n"/>
       <c r="E491" s="1" t="n"/>
-      <c r="F491" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F491" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G491" t="n">
         <v>179469.7598041241</v>
@@ -12464,10 +11388,8 @@
       <c r="C492" s="1" t="n"/>
       <c r="D492" s="1" t="n"/>
       <c r="E492" s="1" t="n"/>
-      <c r="F492" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F492" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G492" t="n">
         <v>242356.0915903219</v>
@@ -12488,10 +11410,8 @@
       <c r="C493" s="1" t="n"/>
       <c r="D493" s="1" t="n"/>
       <c r="E493" s="1" t="n"/>
-      <c r="F493" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F493" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G493" t="n">
         <v>393527.184591322</v>
@@ -12512,10 +11432,8 @@
       <c r="C494" s="1" t="n"/>
       <c r="D494" s="1" t="n"/>
       <c r="E494" s="1" t="n"/>
-      <c r="F494" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F494" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G494" t="n">
         <v>617634.8323941759</v>
@@ -12536,10 +11454,8 @@
       <c r="C495" s="1" t="n"/>
       <c r="D495" s="1" t="n"/>
       <c r="E495" s="1" t="n"/>
-      <c r="F495" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F495" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G495" t="n">
         <v>876663.1956957248</v>
@@ -12560,10 +11476,8 @@
       <c r="C496" s="1" t="n"/>
       <c r="D496" s="1" t="n"/>
       <c r="E496" s="1" t="n"/>
-      <c r="F496" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F496" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G496" t="n">
         <v>1048131.583481092</v>
@@ -12584,10 +11498,8 @@
       <c r="C497" s="1" t="n"/>
       <c r="D497" s="1" t="n"/>
       <c r="E497" s="1" t="n"/>
-      <c r="F497" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F497" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G497" t="n">
         <v>1189608.332263975</v>
@@ -12608,10 +11520,8 @@
       <c r="C498" s="1" t="n"/>
       <c r="D498" s="1" t="n"/>
       <c r="E498" s="1" t="n"/>
-      <c r="F498" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F498" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G498" t="n">
         <v>1324455.031762311</v>
@@ -12632,10 +11542,8 @@
       <c r="C499" s="1" t="n"/>
       <c r="D499" s="1" t="n"/>
       <c r="E499" s="1" t="n"/>
-      <c r="F499" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F499" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G499" t="n">
         <v>1434494.601994503</v>
@@ -12656,10 +11564,8 @@
       <c r="C500" s="1" t="n"/>
       <c r="D500" s="1" t="n"/>
       <c r="E500" s="1" t="n"/>
-      <c r="F500" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F500" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G500" t="n">
         <v>1531753.428225471</v>
@@ -12680,10 +11586,8 @@
       <c r="C501" s="1" t="n"/>
       <c r="D501" s="1" t="n"/>
       <c r="E501" s="1" t="n"/>
-      <c r="F501" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F501" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G501" t="n">
         <v>1610024.209811009</v>
@@ -12704,10 +11608,8 @@
       <c r="C502" s="1" t="n"/>
       <c r="D502" s="1" t="n"/>
       <c r="E502" s="1" t="n"/>
-      <c r="F502" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F502" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G502" t="n">
         <v>1710600.84611742</v>
@@ -12728,10 +11630,8 @@
       <c r="C503" s="1" t="n"/>
       <c r="D503" s="1" t="n"/>
       <c r="E503" s="1" t="n"/>
-      <c r="F503" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F503" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G503" t="n">
         <v>1856672.543991368</v>
@@ -12752,10 +11652,8 @@
       <c r="C504" s="1" t="n"/>
       <c r="D504" s="1" t="n"/>
       <c r="E504" s="1" t="n"/>
-      <c r="F504" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F504" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G504" t="n">
         <v>2108882.394224724</v>
@@ -12776,10 +11674,8 @@
       <c r="C505" s="1" t="n"/>
       <c r="D505" s="1" t="n"/>
       <c r="E505" s="1" t="n"/>
-      <c r="F505" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F505" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G505" t="n">
         <v>2457590.699372895</v>
@@ -12800,10 +11696,8 @@
       <c r="C506" s="1" t="n"/>
       <c r="D506" s="1" t="n"/>
       <c r="E506" s="1" t="n"/>
-      <c r="F506" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F506" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G506" t="n">
         <v>2871524.718923651</v>
@@ -12824,10 +11718,8 @@
       <c r="C507" s="1" t="n"/>
       <c r="D507" s="1" t="n"/>
       <c r="E507" s="1" t="n"/>
-      <c r="F507" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F507" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G507" t="n">
         <v>3000000</v>
@@ -12848,10 +11740,8 @@
       <c r="C508" s="1" t="n"/>
       <c r="D508" s="1" t="n"/>
       <c r="E508" s="1" t="n"/>
-      <c r="F508" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F508" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G508" t="n">
         <v>3000000</v>
@@ -12872,10 +11762,8 @@
       <c r="C509" s="1" t="n"/>
       <c r="D509" s="1" t="n"/>
       <c r="E509" s="1" t="n"/>
-      <c r="F509" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F509" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G509" t="n">
         <v>3000000</v>
@@ -12896,10 +11784,8 @@
       <c r="C510" s="1" t="n"/>
       <c r="D510" s="1" t="n"/>
       <c r="E510" s="1" t="n"/>
-      <c r="F510" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F510" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G510" t="n">
         <v>3000000</v>
@@ -12920,10 +11806,8 @@
       <c r="C511" s="1" t="n"/>
       <c r="D511" s="1" t="n"/>
       <c r="E511" s="1" t="n"/>
-      <c r="F511" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F511" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G511" t="n">
         <v>3000000</v>
@@ -12944,10 +11828,8 @@
       <c r="C512" s="1" t="n"/>
       <c r="D512" s="1" t="n"/>
       <c r="E512" s="1" t="n"/>
-      <c r="F512" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F512" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G512" t="n">
         <v>3000000</v>
@@ -12968,10 +11850,8 @@
       <c r="C513" s="1" t="n"/>
       <c r="D513" s="1" t="n"/>
       <c r="E513" s="1" t="n"/>
-      <c r="F513" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F513" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G513" t="n">
         <v>1918817.585372132</v>
@@ -12991,15 +11871,11 @@
       <c r="B514" s="1" t="n"/>
       <c r="C514" s="1" t="n"/>
       <c r="D514" s="1" t="n"/>
-      <c r="E514" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 32</t>
-        </is>
-      </c>
-      <c r="F514" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="E514" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F514" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G514" t="n">
         <v>145342.6809862177</v>
@@ -13020,10 +11896,8 @@
       <c r="C515" s="1" t="n"/>
       <c r="D515" s="1" t="n"/>
       <c r="E515" s="1" t="n"/>
-      <c r="F515" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F515" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G515" t="n">
         <v>214153.9460322233</v>
@@ -13044,10 +11918,8 @@
       <c r="C516" s="1" t="n"/>
       <c r="D516" s="1" t="n"/>
       <c r="E516" s="1" t="n"/>
-      <c r="F516" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F516" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G516" t="n">
         <v>316132.4253336596</v>
@@ -13068,10 +11940,8 @@
       <c r="C517" s="1" t="n"/>
       <c r="D517" s="1" t="n"/>
       <c r="E517" s="1" t="n"/>
-      <c r="F517" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F517" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G517" t="n">
         <v>490526.8195707017</v>
@@ -13092,10 +11962,8 @@
       <c r="C518" s="1" t="n"/>
       <c r="D518" s="1" t="n"/>
       <c r="E518" s="1" t="n"/>
-      <c r="F518" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F518" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G518" t="n">
         <v>686205.5117605369</v>
@@ -13116,10 +11984,8 @@
       <c r="C519" s="1" t="n"/>
       <c r="D519" s="1" t="n"/>
       <c r="E519" s="1" t="n"/>
-      <c r="F519" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F519" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G519" t="n">
         <v>879764.3368158371</v>
@@ -13140,10 +12006,8 @@
       <c r="C520" s="1" t="n"/>
       <c r="D520" s="1" t="n"/>
       <c r="E520" s="1" t="n"/>
-      <c r="F520" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F520" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G520" t="n">
         <v>995780.3840720265</v>
@@ -13164,10 +12028,8 @@
       <c r="C521" s="1" t="n"/>
       <c r="D521" s="1" t="n"/>
       <c r="E521" s="1" t="n"/>
-      <c r="F521" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F521" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G521" t="n">
         <v>1091181.23440103</v>
@@ -13188,10 +12050,8 @@
       <c r="C522" s="1" t="n"/>
       <c r="D522" s="1" t="n"/>
       <c r="E522" s="1" t="n"/>
-      <c r="F522" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F522" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G522" t="n">
         <v>1161026.736356405</v>
@@ -13212,10 +12072,8 @@
       <c r="C523" s="1" t="n"/>
       <c r="D523" s="1" t="n"/>
       <c r="E523" s="1" t="n"/>
-      <c r="F523" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F523" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G523" t="n">
         <v>1219501.327129578</v>
@@ -13236,10 +12094,8 @@
       <c r="C524" s="1" t="n"/>
       <c r="D524" s="1" t="n"/>
       <c r="E524" s="1" t="n"/>
-      <c r="F524" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F524" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G524" t="n">
         <v>1319723.03013106</v>
@@ -13260,10 +12116,8 @@
       <c r="C525" s="1" t="n"/>
       <c r="D525" s="1" t="n"/>
       <c r="E525" s="1" t="n"/>
-      <c r="F525" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F525" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G525" t="n">
         <v>1438704.953245151</v>
@@ -13284,10 +12138,8 @@
       <c r="C526" s="1" t="n"/>
       <c r="D526" s="1" t="n"/>
       <c r="E526" s="1" t="n"/>
-      <c r="F526" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F526" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G526" t="n">
         <v>1634692.100013182</v>
@@ -13308,10 +12160,8 @@
       <c r="C527" s="1" t="n"/>
       <c r="D527" s="1" t="n"/>
       <c r="E527" s="1" t="n"/>
-      <c r="F527" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F527" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G527" t="n">
         <v>1930981.021995175</v>
@@ -13332,10 +12182,8 @@
       <c r="C528" s="1" t="n"/>
       <c r="D528" s="1" t="n"/>
       <c r="E528" s="1" t="n"/>
-      <c r="F528" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F528" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G528" t="n">
         <v>2300886.870103087</v>
@@ -13356,10 +12204,8 @@
       <c r="C529" s="1" t="n"/>
       <c r="D529" s="1" t="n"/>
       <c r="E529" s="1" t="n"/>
-      <c r="F529" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F529" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G529" t="n">
         <v>2663000.416125204</v>
@@ -13380,10 +12226,8 @@
       <c r="C530" s="1" t="n"/>
       <c r="D530" s="1" t="n"/>
       <c r="E530" s="1" t="n"/>
-      <c r="F530" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F530" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G530" t="n">
         <v>3000000.000000001</v>
@@ -13404,10 +12248,8 @@
       <c r="C531" s="1" t="n"/>
       <c r="D531" s="1" t="n"/>
       <c r="E531" s="1" t="n"/>
-      <c r="F531" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F531" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G531" t="n">
         <v>3000000</v>
@@ -13428,10 +12270,8 @@
       <c r="C532" s="1" t="n"/>
       <c r="D532" s="1" t="n"/>
       <c r="E532" s="1" t="n"/>
-      <c r="F532" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F532" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G532" t="n">
         <v>3000000</v>
@@ -13452,10 +12292,8 @@
       <c r="C533" s="1" t="n"/>
       <c r="D533" s="1" t="n"/>
       <c r="E533" s="1" t="n"/>
-      <c r="F533" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F533" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G533" t="n">
         <v>3000000</v>
@@ -13476,10 +12314,8 @@
       <c r="C534" s="1" t="n"/>
       <c r="D534" s="1" t="n"/>
       <c r="E534" s="1" t="n"/>
-      <c r="F534" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F534" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G534" t="n">
         <v>3000000</v>
@@ -13500,10 +12336,8 @@
       <c r="C535" s="1" t="n"/>
       <c r="D535" s="1" t="n"/>
       <c r="E535" s="1" t="n"/>
-      <c r="F535" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F535" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G535" t="n">
         <v>3000000</v>
@@ -13524,10 +12358,8 @@
       <c r="C536" s="1" t="n"/>
       <c r="D536" s="1" t="n"/>
       <c r="E536" s="1" t="n"/>
-      <c r="F536" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F536" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G536" t="n">
         <v>3000000</v>
@@ -13548,10 +12380,8 @@
       <c r="C537" s="1" t="n"/>
       <c r="D537" s="1" t="n"/>
       <c r="E537" s="1" t="n"/>
-      <c r="F537" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F537" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G537" t="n">
         <v>1831056.7337921</v>
@@ -13569,25 +12399,17 @@
     <row r="538">
       <c r="A538" s="1" t="n"/>
       <c r="B538" s="1" t="n"/>
-      <c r="C538" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 1</t>
-        </is>
-      </c>
-      <c r="D538" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E538" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 6</t>
-        </is>
-      </c>
-      <c r="F538" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="C538" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D538" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E538" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="F538" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G538" t="n">
         <v>146964.9397355678</v>
@@ -13608,10 +12430,8 @@
       <c r="C539" s="1" t="n"/>
       <c r="D539" s="1" t="n"/>
       <c r="E539" s="1" t="n"/>
-      <c r="F539" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F539" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G539" t="n">
         <v>183446.9060233298</v>
@@ -13632,10 +12452,8 @@
       <c r="C540" s="1" t="n"/>
       <c r="D540" s="1" t="n"/>
       <c r="E540" s="1" t="n"/>
-      <c r="F540" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F540" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G540" t="n">
         <v>255211.9627150627</v>
@@ -13656,10 +12474,8 @@
       <c r="C541" s="1" t="n"/>
       <c r="D541" s="1" t="n"/>
       <c r="E541" s="1" t="n"/>
-      <c r="F541" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F541" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G541" t="n">
         <v>431894.6563360168</v>
@@ -13680,10 +12496,8 @@
       <c r="C542" s="1" t="n"/>
       <c r="D542" s="1" t="n"/>
       <c r="E542" s="1" t="n"/>
-      <c r="F542" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F542" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G542" t="n">
         <v>700215.5610445807</v>
@@ -13704,10 +12518,8 @@
       <c r="C543" s="1" t="n"/>
       <c r="D543" s="1" t="n"/>
       <c r="E543" s="1" t="n"/>
-      <c r="F543" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F543" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G543" t="n">
         <v>1015877.068578266</v>
@@ -13728,10 +12540,8 @@
       <c r="C544" s="1" t="n"/>
       <c r="D544" s="1" t="n"/>
       <c r="E544" s="1" t="n"/>
-      <c r="F544" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F544" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G544" t="n">
         <v>1227133.258156336</v>
@@ -13752,10 +12562,8 @@
       <c r="C545" s="1" t="n"/>
       <c r="D545" s="1" t="n"/>
       <c r="E545" s="1" t="n"/>
-      <c r="F545" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F545" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G545" t="n">
         <v>1402519.791501244</v>
@@ -13776,10 +12584,8 @@
       <c r="C546" s="1" t="n"/>
       <c r="D546" s="1" t="n"/>
       <c r="E546" s="1" t="n"/>
-      <c r="F546" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F546" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G546" t="n">
         <v>1570435.893563977</v>
@@ -13800,10 +12606,8 @@
       <c r="C547" s="1" t="n"/>
       <c r="D547" s="1" t="n"/>
       <c r="E547" s="1" t="n"/>
-      <c r="F547" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F547" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G547" t="n">
         <v>1708003.065176808</v>
@@ -13824,10 +12628,8 @@
       <c r="C548" s="1" t="n"/>
       <c r="D548" s="1" t="n"/>
       <c r="E548" s="1" t="n"/>
-      <c r="F548" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F548" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G548" t="n">
         <v>1829963.017168473</v>
@@ -13848,10 +12650,8 @@
       <c r="C549" s="1" t="n"/>
       <c r="D549" s="1" t="n"/>
       <c r="E549" s="1" t="n"/>
-      <c r="F549" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F549" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G549" t="n">
         <v>1928404.641341349</v>
@@ -13872,10 +12672,8 @@
       <c r="C550" s="1" t="n"/>
       <c r="D550" s="1" t="n"/>
       <c r="E550" s="1" t="n"/>
-      <c r="F550" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F550" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G550" t="n">
         <v>2055025.920424027</v>
@@ -13896,10 +12694,8 @@
       <c r="C551" s="1" t="n"/>
       <c r="D551" s="1" t="n"/>
       <c r="E551" s="1" t="n"/>
-      <c r="F551" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F551" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G551" t="n">
         <v>2239161.573880857</v>
@@ -13920,10 +12716,8 @@
       <c r="C552" s="1" t="n"/>
       <c r="D552" s="1" t="n"/>
       <c r="E552" s="1" t="n"/>
-      <c r="F552" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F552" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G552" t="n">
         <v>2557801.299291488</v>
@@ -13944,10 +12738,8 @@
       <c r="C553" s="1" t="n"/>
       <c r="D553" s="1" t="n"/>
       <c r="E553" s="1" t="n"/>
-      <c r="F553" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F553" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G553" t="n">
         <v>3000000</v>
@@ -13968,10 +12760,8 @@
       <c r="C554" s="1" t="n"/>
       <c r="D554" s="1" t="n"/>
       <c r="E554" s="1" t="n"/>
-      <c r="F554" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F554" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G554" t="n">
         <v>3000000</v>
@@ -13992,10 +12782,8 @@
       <c r="C555" s="1" t="n"/>
       <c r="D555" s="1" t="n"/>
       <c r="E555" s="1" t="n"/>
-      <c r="F555" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F555" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G555" t="n">
         <v>3000000</v>
@@ -14016,10 +12804,8 @@
       <c r="C556" s="1" t="n"/>
       <c r="D556" s="1" t="n"/>
       <c r="E556" s="1" t="n"/>
-      <c r="F556" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F556" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G556" t="n">
         <v>3000000</v>
@@ -14040,10 +12826,8 @@
       <c r="C557" s="1" t="n"/>
       <c r="D557" s="1" t="n"/>
       <c r="E557" s="1" t="n"/>
-      <c r="F557" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F557" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G557" t="n">
         <v>3000000</v>
@@ -14064,10 +12848,8 @@
       <c r="C558" s="1" t="n"/>
       <c r="D558" s="1" t="n"/>
       <c r="E558" s="1" t="n"/>
-      <c r="F558" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F558" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G558" t="n">
         <v>3000000</v>
@@ -14088,10 +12870,8 @@
       <c r="C559" s="1" t="n"/>
       <c r="D559" s="1" t="n"/>
       <c r="E559" s="1" t="n"/>
-      <c r="F559" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F559" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G559" t="n">
         <v>3000000</v>
@@ -14112,10 +12892,8 @@
       <c r="C560" s="1" t="n"/>
       <c r="D560" s="1" t="n"/>
       <c r="E560" s="1" t="n"/>
-      <c r="F560" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F560" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G560" t="n">
         <v>3000000</v>
@@ -14136,10 +12914,8 @@
       <c r="C561" s="1" t="n"/>
       <c r="D561" s="1" t="n"/>
       <c r="E561" s="1" t="n"/>
-      <c r="F561" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F561" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G561" t="n">
         <v>1916097.442643007</v>
@@ -14159,15 +12935,11 @@
       <c r="B562" s="1" t="n"/>
       <c r="C562" s="1" t="n"/>
       <c r="D562" s="1" t="n"/>
-      <c r="E562" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 32</t>
-        </is>
-      </c>
-      <c r="F562" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="E562" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="F562" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G562" t="n">
         <v>145342.6809862177</v>
@@ -14188,10 +12960,8 @@
       <c r="C563" s="1" t="n"/>
       <c r="D563" s="1" t="n"/>
       <c r="E563" s="1" t="n"/>
-      <c r="F563" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F563" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G563" t="n">
         <v>223030.5371727686</v>
@@ -14212,10 +12982,8 @@
       <c r="C564" s="1" t="n"/>
       <c r="D564" s="1" t="n"/>
       <c r="E564" s="1" t="n"/>
-      <c r="F564" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F564" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G564" t="n">
         <v>341079.1465322918</v>
@@ -14236,10 +13004,8 @@
       <c r="C565" s="1" t="n"/>
       <c r="D565" s="1" t="n"/>
       <c r="E565" s="1" t="n"/>
-      <c r="F565" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F565" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G565" t="n">
         <v>547659.3340478665</v>
@@ -14260,10 +13026,8 @@
       <c r="C566" s="1" t="n"/>
       <c r="D566" s="1" t="n"/>
       <c r="E566" s="1" t="n"/>
-      <c r="F566" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F566" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G566" t="n">
         <v>783793.8464228065</v>
@@ -14284,10 +13048,8 @@
       <c r="C567" s="1" t="n"/>
       <c r="D567" s="1" t="n"/>
       <c r="E567" s="1" t="n"/>
-      <c r="F567" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F567" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G567" t="n">
         <v>1020331.59475353</v>
@@ -14308,10 +13070,8 @@
       <c r="C568" s="1" t="n"/>
       <c r="D568" s="1" t="n"/>
       <c r="E568" s="1" t="n"/>
-      <c r="F568" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F568" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G568" t="n">
         <v>1163288.948723632</v>
@@ -14332,10 +13092,8 @@
       <c r="C569" s="1" t="n"/>
       <c r="D569" s="1" t="n"/>
       <c r="E569" s="1" t="n"/>
-      <c r="F569" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F569" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G569" t="n">
         <v>1281406.838318265</v>
@@ -14356,10 +13114,8 @@
       <c r="C570" s="1" t="n"/>
       <c r="D570" s="1" t="n"/>
       <c r="E570" s="1" t="n"/>
-      <c r="F570" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F570" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G570" t="n">
         <v>1368240.427657542</v>
@@ -14380,10 +13136,8 @@
       <c r="C571" s="1" t="n"/>
       <c r="D571" s="1" t="n"/>
       <c r="E571" s="1" t="n"/>
-      <c r="F571" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F571" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G571" t="n">
         <v>1441159.466889908</v>
@@ -14404,10 +13158,8 @@
       <c r="C572" s="1" t="n"/>
       <c r="D572" s="1" t="n"/>
       <c r="E572" s="1" t="n"/>
-      <c r="F572" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F572" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G572" t="n">
         <v>1566188.09631084</v>
@@ -14428,10 +13180,8 @@
       <c r="C573" s="1" t="n"/>
       <c r="D573" s="1" t="n"/>
       <c r="E573" s="1" t="n"/>
-      <c r="F573" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F573" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G573" t="n">
         <v>1715000.181978717</v>
@@ -14452,10 +13202,8 @@
       <c r="C574" s="1" t="n"/>
       <c r="D574" s="1" t="n"/>
       <c r="E574" s="1" t="n"/>
-      <c r="F574" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F574" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G574" t="n">
         <v>1960773.166794095</v>
@@ -14476,10 +13224,8 @@
       <c r="C575" s="1" t="n"/>
       <c r="D575" s="1" t="n"/>
       <c r="E575" s="1" t="n"/>
-      <c r="F575" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F575" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G575" t="n">
         <v>2333880.531721033</v>
@@ -14500,10 +13246,8 @@
       <c r="C576" s="1" t="n"/>
       <c r="D576" s="1" t="n"/>
       <c r="E576" s="1" t="n"/>
-      <c r="F576" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F576" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G576" t="n">
         <v>2801989.464239175</v>
@@ -14524,10 +13268,8 @@
       <c r="C577" s="1" t="n"/>
       <c r="D577" s="1" t="n"/>
       <c r="E577" s="1" t="n"/>
-      <c r="F577" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F577" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G577" t="n">
         <v>3000000</v>
@@ -14548,10 +13290,8 @@
       <c r="C578" s="1" t="n"/>
       <c r="D578" s="1" t="n"/>
       <c r="E578" s="1" t="n"/>
-      <c r="F578" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F578" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G578" t="n">
         <v>3000000</v>
@@ -14572,10 +13312,8 @@
       <c r="C579" s="1" t="n"/>
       <c r="D579" s="1" t="n"/>
       <c r="E579" s="1" t="n"/>
-      <c r="F579" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F579" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G579" t="n">
         <v>3000000</v>
@@ -14596,10 +13334,8 @@
       <c r="C580" s="1" t="n"/>
       <c r="D580" s="1" t="n"/>
       <c r="E580" s="1" t="n"/>
-      <c r="F580" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F580" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G580" t="n">
         <v>3000000</v>
@@ -14620,10 +13356,8 @@
       <c r="C581" s="1" t="n"/>
       <c r="D581" s="1" t="n"/>
       <c r="E581" s="1" t="n"/>
-      <c r="F581" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F581" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G581" t="n">
         <v>3000000</v>
@@ -14644,10 +13378,8 @@
       <c r="C582" s="1" t="n"/>
       <c r="D582" s="1" t="n"/>
       <c r="E582" s="1" t="n"/>
-      <c r="F582" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F582" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G582" t="n">
         <v>3000000</v>
@@ -14668,10 +13400,8 @@
       <c r="C583" s="1" t="n"/>
       <c r="D583" s="1" t="n"/>
       <c r="E583" s="1" t="n"/>
-      <c r="F583" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F583" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G583" t="n">
         <v>3000000</v>
@@ -14692,10 +13422,8 @@
       <c r="C584" s="1" t="n"/>
       <c r="D584" s="1" t="n"/>
       <c r="E584" s="1" t="n"/>
-      <c r="F584" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F584" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G584" t="n">
         <v>3000000</v>
@@ -14716,10 +13444,8 @@
       <c r="C585" s="1" t="n"/>
       <c r="D585" s="1" t="n"/>
       <c r="E585" s="1" t="n"/>
-      <c r="F585" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F585" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G585" t="n">
         <v>1825766.902346415</v>
@@ -14736,30 +13462,20 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="n"/>
-      <c r="B586" s="1" t="inlineStr">
-        <is>
-          <t>Vesteralen</t>
-        </is>
-      </c>
-      <c r="C586" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 0</t>
-        </is>
-      </c>
-      <c r="D586" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E586" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 0</t>
-        </is>
-      </c>
-      <c r="F586" s="1" t="inlineStr">
-        <is>
-          <t>Period 0</t>
-        </is>
+      <c r="B586" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E586" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F586" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G586" t="n">
         <v>143432.1976812363</v>
@@ -14780,10 +13496,8 @@
       <c r="C587" s="1" t="n"/>
       <c r="D587" s="1" t="n"/>
       <c r="E587" s="1" t="n"/>
-      <c r="F587" s="1" t="inlineStr">
-        <is>
-          <t>Period 1</t>
-        </is>
+      <c r="F587" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G587" t="n">
         <v>198437.8986938858</v>
@@ -14804,10 +13518,8 @@
       <c r="C588" s="1" t="n"/>
       <c r="D588" s="1" t="n"/>
       <c r="E588" s="1" t="n"/>
-      <c r="F588" s="1" t="inlineStr">
-        <is>
-          <t>Period 2</t>
-        </is>
+      <c r="F588" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G588" t="n">
         <v>256860.6067252441</v>
@@ -14828,10 +13540,8 @@
       <c r="C589" s="1" t="n"/>
       <c r="D589" s="1" t="n"/>
       <c r="E589" s="1" t="n"/>
-      <c r="F589" s="1" t="inlineStr">
-        <is>
-          <t>Period 3</t>
-        </is>
+      <c r="F589" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="G589" t="n">
         <v>339937.4432549478</v>
@@ -14852,10 +13562,8 @@
       <c r="C590" s="1" t="n"/>
       <c r="D590" s="1" t="n"/>
       <c r="E590" s="1" t="n"/>
-      <c r="F590" s="1" t="inlineStr">
-        <is>
-          <t>Period 4</t>
-        </is>
+      <c r="F590" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="G590" t="n">
         <v>414441.4938956747</v>
@@ -14876,10 +13584,8 @@
       <c r="C591" s="1" t="n"/>
       <c r="D591" s="1" t="n"/>
       <c r="E591" s="1" t="n"/>
-      <c r="F591" s="1" t="inlineStr">
-        <is>
-          <t>Period 5</t>
-        </is>
+      <c r="F591" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="G591" t="n">
         <v>474850.2068981414</v>
@@ -14900,10 +13606,8 @@
       <c r="C592" s="1" t="n"/>
       <c r="D592" s="1" t="n"/>
       <c r="E592" s="1" t="n"/>
-      <c r="F592" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="F592" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G592" t="n">
         <v>528744.1668376311</v>
@@ -14924,10 +13628,8 @@
       <c r="C593" s="1" t="n"/>
       <c r="D593" s="1" t="n"/>
       <c r="E593" s="1" t="n"/>
-      <c r="F593" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F593" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G593" t="n">
         <v>613002.2747620224</v>
@@ -14948,10 +13650,8 @@
       <c r="C594" s="1" t="n"/>
       <c r="D594" s="1" t="n"/>
       <c r="E594" s="1" t="n"/>
-      <c r="F594" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F594" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G594" t="n">
         <v>771135.7511119928</v>
@@ -14972,10 +13672,8 @@
       <c r="C595" s="1" t="n"/>
       <c r="D595" s="1" t="n"/>
       <c r="E595" s="1" t="n"/>
-      <c r="F595" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F595" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G595" t="n">
         <v>979431.6159725817</v>
@@ -14996,10 +13694,8 @@
       <c r="C596" s="1" t="n"/>
       <c r="D596" s="1" t="n"/>
       <c r="E596" s="1" t="n"/>
-      <c r="F596" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F596" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G596" t="n">
         <v>1338321.625535827</v>
@@ -15020,10 +13716,8 @@
       <c r="C597" s="1" t="n"/>
       <c r="D597" s="1" t="n"/>
       <c r="E597" s="1" t="n"/>
-      <c r="F597" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F597" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G597" t="n">
         <v>1654316.148257201</v>
@@ -15044,10 +13738,8 @@
       <c r="C598" s="1" t="n"/>
       <c r="D598" s="1" t="n"/>
       <c r="E598" s="1" t="n"/>
-      <c r="F598" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F598" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G598" t="n">
         <v>1940097.164656066</v>
@@ -15068,10 +13760,8 @@
       <c r="C599" s="1" t="n"/>
       <c r="D599" s="1" t="n"/>
       <c r="E599" s="1" t="n"/>
-      <c r="F599" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F599" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G599" t="n">
         <v>2209083.999355958</v>
@@ -15092,10 +13782,8 @@
       <c r="C600" s="1" t="n"/>
       <c r="D600" s="1" t="n"/>
       <c r="E600" s="1" t="n"/>
-      <c r="F600" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F600" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G600" t="n">
         <v>2455786.260617203</v>
@@ -15116,10 +13804,8 @@
       <c r="C601" s="1" t="n"/>
       <c r="D601" s="1" t="n"/>
       <c r="E601" s="1" t="n"/>
-      <c r="F601" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F601" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G601" t="n">
         <v>2666084.380539514</v>
@@ -15140,10 +13826,8 @@
       <c r="C602" s="1" t="n"/>
       <c r="D602" s="1" t="n"/>
       <c r="E602" s="1" t="n"/>
-      <c r="F602" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F602" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G602" t="n">
         <v>1915550.126540059</v>
@@ -15164,10 +13848,8 @@
       <c r="C603" s="1" t="n"/>
       <c r="D603" s="1" t="n"/>
       <c r="E603" s="1" t="n"/>
-      <c r="F603" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F603" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G603" t="n">
         <v>0</v>
@@ -15188,10 +13870,8 @@
       <c r="C604" s="1" t="n"/>
       <c r="D604" s="1" t="n"/>
       <c r="E604" s="1" t="n"/>
-      <c r="F604" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F604" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G604" t="n">
         <v>0</v>
@@ -15212,10 +13892,8 @@
       <c r="C605" s="1" t="n"/>
       <c r="D605" s="1" t="n"/>
       <c r="E605" s="1" t="n"/>
-      <c r="F605" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F605" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G605" t="n">
         <v>0</v>
@@ -15236,10 +13914,8 @@
       <c r="C606" s="1" t="n"/>
       <c r="D606" s="1" t="n"/>
       <c r="E606" s="1" t="n"/>
-      <c r="F606" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F606" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G606" t="n">
         <v>0</v>
@@ -15260,10 +13936,8 @@
       <c r="C607" s="1" t="n"/>
       <c r="D607" s="1" t="n"/>
       <c r="E607" s="1" t="n"/>
-      <c r="F607" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F607" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G607" t="n">
         <v>0</v>
@@ -15284,10 +13958,8 @@
       <c r="C608" s="1" t="n"/>
       <c r="D608" s="1" t="n"/>
       <c r="E608" s="1" t="n"/>
-      <c r="F608" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F608" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G608" t="n">
         <v>0</v>
@@ -15308,10 +13980,8 @@
       <c r="C609" s="1" t="n"/>
       <c r="D609" s="1" t="n"/>
       <c r="E609" s="1" t="n"/>
-      <c r="F609" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F609" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G609" t="n">
         <v>0</v>
@@ -15331,15 +14001,11 @@
       <c r="B610" s="1" t="n"/>
       <c r="C610" s="1" t="n"/>
       <c r="D610" s="1" t="n"/>
-      <c r="E610" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 19</t>
-        </is>
-      </c>
-      <c r="F610" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="E610" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F610" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G610" t="n">
         <v>144835.3595702264</v>
@@ -15360,10 +14026,8 @@
       <c r="C611" s="1" t="n"/>
       <c r="D611" s="1" t="n"/>
       <c r="E611" s="1" t="n"/>
-      <c r="F611" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F611" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G611" t="n">
         <v>215077.6638757959</v>
@@ -15384,10 +14048,8 @@
       <c r="C612" s="1" t="n"/>
       <c r="D612" s="1" t="n"/>
       <c r="E612" s="1" t="n"/>
-      <c r="F612" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F612" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G612" t="n">
         <v>341354.6436010626</v>
@@ -15408,10 +14070,8 @@
       <c r="C613" s="1" t="n"/>
       <c r="D613" s="1" t="n"/>
       <c r="E613" s="1" t="n"/>
-      <c r="F613" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F613" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G613" t="n">
         <v>623130.6226471108</v>
@@ -15432,10 +14092,8 @@
       <c r="C614" s="1" t="n"/>
       <c r="D614" s="1" t="n"/>
       <c r="E614" s="1" t="n"/>
-      <c r="F614" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F614" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G614" t="n">
         <v>971957.4513926216</v>
@@ -15456,10 +14114,8 @@
       <c r="C615" s="1" t="n"/>
       <c r="D615" s="1" t="n"/>
       <c r="E615" s="1" t="n"/>
-      <c r="F615" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F615" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G615" t="n">
         <v>1321233.955426676</v>
@@ -15480,10 +14136,8 @@
       <c r="C616" s="1" t="n"/>
       <c r="D616" s="1" t="n"/>
       <c r="E616" s="1" t="n"/>
-      <c r="F616" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F616" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G616" t="n">
         <v>1537599.279796537</v>
@@ -15504,10 +14158,8 @@
       <c r="C617" s="1" t="n"/>
       <c r="D617" s="1" t="n"/>
       <c r="E617" s="1" t="n"/>
-      <c r="F617" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F617" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G617" t="n">
         <v>1707897.206205916</v>
@@ -15528,10 +14180,8 @@
       <c r="C618" s="1" t="n"/>
       <c r="D618" s="1" t="n"/>
       <c r="E618" s="1" t="n"/>
-      <c r="F618" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F618" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G618" t="n">
         <v>1872222.202774672</v>
@@ -15552,10 +14202,8 @@
       <c r="C619" s="1" t="n"/>
       <c r="D619" s="1" t="n"/>
       <c r="E619" s="1" t="n"/>
-      <c r="F619" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F619" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G619" t="n">
         <v>1986186.644883279</v>
@@ -15576,10 +14224,8 @@
       <c r="C620" s="1" t="n"/>
       <c r="D620" s="1" t="n"/>
       <c r="E620" s="1" t="n"/>
-      <c r="F620" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F620" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G620" t="n">
         <v>2101651.542123804</v>
@@ -15600,10 +14246,8 @@
       <c r="C621" s="1" t="n"/>
       <c r="D621" s="1" t="n"/>
       <c r="E621" s="1" t="n"/>
-      <c r="F621" s="1" t="inlineStr">
-        <is>
-          <t>Period 30</t>
-        </is>
+      <c r="F621" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="G621" t="n">
         <v>2232864.324198521</v>
@@ -15624,10 +14268,8 @@
       <c r="C622" s="1" t="n"/>
       <c r="D622" s="1" t="n"/>
       <c r="E622" s="1" t="n"/>
-      <c r="F622" s="1" t="inlineStr">
-        <is>
-          <t>Period 31</t>
-        </is>
+      <c r="F622" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="G622" t="n">
         <v>2457632.056244737</v>
@@ -15648,10 +14290,8 @@
       <c r="C623" s="1" t="n"/>
       <c r="D623" s="1" t="n"/>
       <c r="E623" s="1" t="n"/>
-      <c r="F623" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="F623" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G623" t="n">
         <v>2850341.969844562</v>
@@ -15672,10 +14312,8 @@
       <c r="C624" s="1" t="n"/>
       <c r="D624" s="1" t="n"/>
       <c r="E624" s="1" t="n"/>
-      <c r="F624" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F624" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G624" t="n">
         <v>3000000</v>
@@ -15696,10 +14334,8 @@
       <c r="C625" s="1" t="n"/>
       <c r="D625" s="1" t="n"/>
       <c r="E625" s="1" t="n"/>
-      <c r="F625" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F625" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G625" t="n">
         <v>3000000</v>
@@ -15720,10 +14356,8 @@
       <c r="C626" s="1" t="n"/>
       <c r="D626" s="1" t="n"/>
       <c r="E626" s="1" t="n"/>
-      <c r="F626" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F626" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G626" t="n">
         <v>3000000</v>
@@ -15744,10 +14378,8 @@
       <c r="C627" s="1" t="n"/>
       <c r="D627" s="1" t="n"/>
       <c r="E627" s="1" t="n"/>
-      <c r="F627" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F627" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G627" t="n">
         <v>3000000</v>
@@ -15768,10 +14400,8 @@
       <c r="C628" s="1" t="n"/>
       <c r="D628" s="1" t="n"/>
       <c r="E628" s="1" t="n"/>
-      <c r="F628" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F628" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G628" t="n">
         <v>3000000</v>
@@ -15792,10 +14422,8 @@
       <c r="C629" s="1" t="n"/>
       <c r="D629" s="1" t="n"/>
       <c r="E629" s="1" t="n"/>
-      <c r="F629" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F629" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G629" t="n">
         <v>3000000</v>
@@ -15816,10 +14444,8 @@
       <c r="C630" s="1" t="n"/>
       <c r="D630" s="1" t="n"/>
       <c r="E630" s="1" t="n"/>
-      <c r="F630" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F630" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G630" t="n">
         <v>1916989.394069695</v>
@@ -15840,10 +14466,8 @@
       <c r="C631" s="1" t="n"/>
       <c r="D631" s="1" t="n"/>
       <c r="E631" s="1" t="n"/>
-      <c r="F631" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F631" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G631" t="n">
         <v>0</v>
@@ -15864,10 +14488,8 @@
       <c r="C632" s="1" t="n"/>
       <c r="D632" s="1" t="n"/>
       <c r="E632" s="1" t="n"/>
-      <c r="F632" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F632" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G632" t="n">
         <v>0</v>
@@ -15888,10 +14510,8 @@
       <c r="C633" s="1" t="n"/>
       <c r="D633" s="1" t="n"/>
       <c r="E633" s="1" t="n"/>
-      <c r="F633" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F633" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G633" t="n">
         <v>0</v>
@@ -15911,15 +14531,11 @@
       <c r="B634" s="1" t="n"/>
       <c r="C634" s="1" t="n"/>
       <c r="D634" s="1" t="n"/>
-      <c r="E634" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 42</t>
-        </is>
-      </c>
-      <c r="F634" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="E634" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F634" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G634" t="n">
         <v>151189.458827959</v>
@@ -15940,10 +14556,8 @@
       <c r="C635" s="1" t="n"/>
       <c r="D635" s="1" t="n"/>
       <c r="E635" s="1" t="n"/>
-      <c r="F635" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F635" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G635" t="n">
         <v>197048.748528673</v>
@@ -15964,10 +14578,8 @@
       <c r="C636" s="1" t="n"/>
       <c r="D636" s="1" t="n"/>
       <c r="E636" s="1" t="n"/>
-      <c r="F636" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F636" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G636" t="n">
         <v>290049.1804982073</v>
@@ -15988,10 +14600,8 @@
       <c r="C637" s="1" t="n"/>
       <c r="D637" s="1" t="n"/>
       <c r="E637" s="1" t="n"/>
-      <c r="F637" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F637" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G637" t="n">
         <v>520464.4425809521</v>
@@ -16012,10 +14622,8 @@
       <c r="C638" s="1" t="n"/>
       <c r="D638" s="1" t="n"/>
       <c r="E638" s="1" t="n"/>
-      <c r="F638" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F638" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G638" t="n">
         <v>895785.5656488448</v>
@@ -16036,10 +14644,8 @@
       <c r="C639" s="1" t="n"/>
       <c r="D639" s="1" t="n"/>
       <c r="E639" s="1" t="n"/>
-      <c r="F639" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F639" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G639" t="n">
         <v>1322296.186267768</v>
@@ -16060,10 +14666,8 @@
       <c r="C640" s="1" t="n"/>
       <c r="D640" s="1" t="n"/>
       <c r="E640" s="1" t="n"/>
-      <c r="F640" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F640" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G640" t="n">
         <v>1593125.088459575</v>
@@ -16084,10 +14688,8 @@
       <c r="C641" s="1" t="n"/>
       <c r="D641" s="1" t="n"/>
       <c r="E641" s="1" t="n"/>
-      <c r="F641" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F641" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G641" t="n">
         <v>1811223.958192792</v>
@@ -16108,10 +14710,8 @@
       <c r="C642" s="1" t="n"/>
       <c r="D642" s="1" t="n"/>
       <c r="E642" s="1" t="n"/>
-      <c r="F642" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F642" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G642" t="n">
         <v>2019384.620717276</v>
@@ -16132,10 +14732,8 @@
       <c r="C643" s="1" t="n"/>
       <c r="D643" s="1" t="n"/>
       <c r="E643" s="1" t="n"/>
-      <c r="F643" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F643" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G643" t="n">
         <v>2183426.662748951</v>
@@ -16156,10 +14754,8 @@
       <c r="C644" s="1" t="n"/>
       <c r="D644" s="1" t="n"/>
       <c r="E644" s="1" t="n"/>
-      <c r="F644" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F644" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G644" t="n">
         <v>2352080.838394347</v>
@@ -16180,10 +14776,8 @@
       <c r="C645" s="1" t="n"/>
       <c r="D645" s="1" t="n"/>
       <c r="E645" s="1" t="n"/>
-      <c r="F645" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F645" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G645" t="n">
         <v>2462165.694336112</v>
@@ -16204,10 +14798,8 @@
       <c r="C646" s="1" t="n"/>
       <c r="D646" s="1" t="n"/>
       <c r="E646" s="1" t="n"/>
-      <c r="F646" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F646" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G646" t="n">
         <v>2608017.052059048</v>
@@ -16228,10 +14820,8 @@
       <c r="C647" s="1" t="n"/>
       <c r="D647" s="1" t="n"/>
       <c r="E647" s="1" t="n"/>
-      <c r="F647" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F647" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G647" t="n">
         <v>2871838.65866907</v>
@@ -16252,10 +14842,8 @@
       <c r="C648" s="1" t="n"/>
       <c r="D648" s="1" t="n"/>
       <c r="E648" s="1" t="n"/>
-      <c r="F648" s="1" t="inlineStr">
-        <is>
-          <t>Period 56</t>
-        </is>
+      <c r="F648" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="G648" t="n">
         <v>3000000</v>
@@ -16276,10 +14864,8 @@
       <c r="C649" s="1" t="n"/>
       <c r="D649" s="1" t="n"/>
       <c r="E649" s="1" t="n"/>
-      <c r="F649" s="1" t="inlineStr">
-        <is>
-          <t>Period 57</t>
-        </is>
+      <c r="F649" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="G649" t="n">
         <v>3000000.000000233</v>
@@ -16300,10 +14886,8 @@
       <c r="C650" s="1" t="n"/>
       <c r="D650" s="1" t="n"/>
       <c r="E650" s="1" t="n"/>
-      <c r="F650" s="1" t="inlineStr">
-        <is>
-          <t>Period 58</t>
-        </is>
+      <c r="F650" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="G650" t="n">
         <v>1729058.687992967</v>
@@ -16324,10 +14908,8 @@
       <c r="C651" s="1" t="n"/>
       <c r="D651" s="1" t="n"/>
       <c r="E651" s="1" t="n"/>
-      <c r="F651" s="1" t="inlineStr">
-        <is>
-          <t>Period 59</t>
-        </is>
+      <c r="F651" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="G651" t="n">
         <v>0</v>
@@ -16345,25 +14927,17 @@
     <row r="652">
       <c r="A652" s="1" t="n"/>
       <c r="B652" s="1" t="n"/>
-      <c r="C652" s="1" t="inlineStr">
-        <is>
-          <t>Scenario 1</t>
-        </is>
-      </c>
-      <c r="D652" s="1" t="inlineStr">
-        <is>
-          <t>Smolt Type 0</t>
-        </is>
-      </c>
-      <c r="E652" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 0</t>
-        </is>
-      </c>
-      <c r="F652" s="1" t="inlineStr">
-        <is>
-          <t>Period 0</t>
-        </is>
+      <c r="C652" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D652" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E652" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F652" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="G652" t="n">
         <v>143432.1976812363</v>
@@ -16384,10 +14958,8 @@
       <c r="C653" s="1" t="n"/>
       <c r="D653" s="1" t="n"/>
       <c r="E653" s="1" t="n"/>
-      <c r="F653" s="1" t="inlineStr">
-        <is>
-          <t>Period 1</t>
-        </is>
+      <c r="F653" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="G653" t="n">
         <v>205400.5512422327</v>
@@ -16408,10 +14980,8 @@
       <c r="C654" s="1" t="n"/>
       <c r="D654" s="1" t="n"/>
       <c r="E654" s="1" t="n"/>
-      <c r="F654" s="1" t="inlineStr">
-        <is>
-          <t>Period 2</t>
-        </is>
+      <c r="F654" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="G654" t="n">
         <v>272517.8230840713</v>
@@ -16432,10 +15002,8 @@
       <c r="C655" s="1" t="n"/>
       <c r="D655" s="1" t="n"/>
       <c r="E655" s="1" t="n"/>
-      <c r="F655" s="1" t="inlineStr">
-        <is>
-          <t>Period 3</t>
-        </is>
+      <c r="F655" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="G655" t="n">
         <v>369504.3985822927</v>
@@ -16456,10 +15024,8 @@
       <c r="C656" s="1" t="n"/>
       <c r="D656" s="1" t="n"/>
       <c r="E656" s="1" t="n"/>
-      <c r="F656" s="1" t="inlineStr">
-        <is>
-          <t>Period 4</t>
-        </is>
+      <c r="F656" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="G656" t="n">
         <v>457663.7355983344</v>
@@ -16480,10 +15046,8 @@
       <c r="C657" s="1" t="n"/>
       <c r="D657" s="1" t="n"/>
       <c r="E657" s="1" t="n"/>
-      <c r="F657" s="1" t="inlineStr">
-        <is>
-          <t>Period 5</t>
-        </is>
+      <c r="F657" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="G657" t="n">
         <v>529808.9659954405</v>
@@ -16504,10 +15068,8 @@
       <c r="C658" s="1" t="n"/>
       <c r="D658" s="1" t="n"/>
       <c r="E658" s="1" t="n"/>
-      <c r="F658" s="1" t="inlineStr">
-        <is>
-          <t>Period 6</t>
-        </is>
+      <c r="F658" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="G658" t="n">
         <v>594596.6594422038</v>
@@ -16528,10 +15090,8 @@
       <c r="C659" s="1" t="n"/>
       <c r="D659" s="1" t="n"/>
       <c r="E659" s="1" t="n"/>
-      <c r="F659" s="1" t="inlineStr">
-        <is>
-          <t>Period 7</t>
-        </is>
+      <c r="F659" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="G659" t="n">
         <v>696408.3455096537</v>
@@ -16552,10 +15112,8 @@
       <c r="C660" s="1" t="n"/>
       <c r="D660" s="1" t="n"/>
       <c r="E660" s="1" t="n"/>
-      <c r="F660" s="1" t="inlineStr">
-        <is>
-          <t>Period 8</t>
-        </is>
+      <c r="F660" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="G660" t="n">
         <v>888936.7208411377</v>
@@ -16576,10 +15134,8 @@
       <c r="C661" s="1" t="n"/>
       <c r="D661" s="1" t="n"/>
       <c r="E661" s="1" t="n"/>
-      <c r="F661" s="1" t="inlineStr">
-        <is>
-          <t>Period 9</t>
-        </is>
+      <c r="F661" s="1" t="n">
+        <v>9</v>
       </c>
       <c r="G661" t="n">
         <v>1144925.880050893</v>
@@ -16600,10 +15156,8 @@
       <c r="C662" s="1" t="n"/>
       <c r="D662" s="1" t="n"/>
       <c r="E662" s="1" t="n"/>
-      <c r="F662" s="1" t="inlineStr">
-        <is>
-          <t>Period 10</t>
-        </is>
+      <c r="F662" s="1" t="n">
+        <v>10</v>
       </c>
       <c r="G662" t="n">
         <v>1590390.593643988</v>
@@ -16624,10 +15178,8 @@
       <c r="C663" s="1" t="n"/>
       <c r="D663" s="1" t="n"/>
       <c r="E663" s="1" t="n"/>
-      <c r="F663" s="1" t="inlineStr">
-        <is>
-          <t>Period 11</t>
-        </is>
+      <c r="F663" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="G663" t="n">
         <v>1986135.572396234</v>
@@ -16648,10 +15200,8 @@
       <c r="C664" s="1" t="n"/>
       <c r="D664" s="1" t="n"/>
       <c r="E664" s="1" t="n"/>
-      <c r="F664" s="1" t="inlineStr">
-        <is>
-          <t>Period 12</t>
-        </is>
+      <c r="F664" s="1" t="n">
+        <v>12</v>
       </c>
       <c r="G664" t="n">
         <v>2346202.73322402</v>
@@ -16672,10 +15222,8 @@
       <c r="C665" s="1" t="n"/>
       <c r="D665" s="1" t="n"/>
       <c r="E665" s="1" t="n"/>
-      <c r="F665" s="1" t="inlineStr">
-        <is>
-          <t>Period 13</t>
-        </is>
+      <c r="F665" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="G665" t="n">
         <v>2686636.542315523</v>
@@ -16696,10 +15244,8 @@
       <c r="C666" s="1" t="n"/>
       <c r="D666" s="1" t="n"/>
       <c r="E666" s="1" t="n"/>
-      <c r="F666" s="1" t="inlineStr">
-        <is>
-          <t>Period 14</t>
-        </is>
+      <c r="F666" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="G666" t="n">
         <v>3000000</v>
@@ -16720,10 +15266,8 @@
       <c r="C667" s="1" t="n"/>
       <c r="D667" s="1" t="n"/>
       <c r="E667" s="1" t="n"/>
-      <c r="F667" s="1" t="inlineStr">
-        <is>
-          <t>Period 15</t>
-        </is>
+      <c r="F667" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="G667" t="n">
         <v>3000000</v>
@@ -16744,10 +15288,8 @@
       <c r="C668" s="1" t="n"/>
       <c r="D668" s="1" t="n"/>
       <c r="E668" s="1" t="n"/>
-      <c r="F668" s="1" t="inlineStr">
-        <is>
-          <t>Period 16</t>
-        </is>
+      <c r="F668" s="1" t="n">
+        <v>16</v>
       </c>
       <c r="G668" t="n">
         <v>1912133.831304437</v>
@@ -16768,10 +15310,8 @@
       <c r="C669" s="1" t="n"/>
       <c r="D669" s="1" t="n"/>
       <c r="E669" s="1" t="n"/>
-      <c r="F669" s="1" t="inlineStr">
-        <is>
-          <t>Period 17</t>
-        </is>
+      <c r="F669" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="G669" t="n">
         <v>0</v>
@@ -16792,10 +15332,8 @@
       <c r="C670" s="1" t="n"/>
       <c r="D670" s="1" t="n"/>
       <c r="E670" s="1" t="n"/>
-      <c r="F670" s="1" t="inlineStr">
-        <is>
-          <t>Period 18</t>
-        </is>
+      <c r="F670" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="G670" t="n">
         <v>0</v>
@@ -16816,10 +15354,8 @@
       <c r="C671" s="1" t="n"/>
       <c r="D671" s="1" t="n"/>
       <c r="E671" s="1" t="n"/>
-      <c r="F671" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="F671" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G671" t="n">
         <v>0</v>
@@ -16840,10 +15376,8 @@
       <c r="C672" s="1" t="n"/>
       <c r="D672" s="1" t="n"/>
       <c r="E672" s="1" t="n"/>
-      <c r="F672" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F672" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G672" t="n">
         <v>0</v>
@@ -16864,10 +15398,8 @@
       <c r="C673" s="1" t="n"/>
       <c r="D673" s="1" t="n"/>
       <c r="E673" s="1" t="n"/>
-      <c r="F673" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F673" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G673" t="n">
         <v>0</v>
@@ -16888,10 +15420,8 @@
       <c r="C674" s="1" t="n"/>
       <c r="D674" s="1" t="n"/>
       <c r="E674" s="1" t="n"/>
-      <c r="F674" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F674" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G674" t="n">
         <v>0</v>
@@ -16912,10 +15442,8 @@
       <c r="C675" s="1" t="n"/>
       <c r="D675" s="1" t="n"/>
       <c r="E675" s="1" t="n"/>
-      <c r="F675" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F675" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G675" t="n">
         <v>0</v>
@@ -16935,15 +15463,11 @@
       <c r="B676" s="1" t="n"/>
       <c r="C676" s="1" t="n"/>
       <c r="D676" s="1" t="n"/>
-      <c r="E676" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 19</t>
-        </is>
-      </c>
-      <c r="F676" s="1" t="inlineStr">
-        <is>
-          <t>Period 19</t>
-        </is>
+      <c r="E676" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F676" s="1" t="n">
+        <v>19</v>
       </c>
       <c r="G676" t="n">
         <v>144835.3595702264</v>
@@ -16964,10 +15488,8 @@
       <c r="C677" s="1" t="n"/>
       <c r="D677" s="1" t="n"/>
       <c r="E677" s="1" t="n"/>
-      <c r="F677" s="1" t="inlineStr">
-        <is>
-          <t>Period 20</t>
-        </is>
+      <c r="F677" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="G677" t="n">
         <v>224160.4044713529</v>
@@ -16988,10 +15510,8 @@
       <c r="C678" s="1" t="n"/>
       <c r="D678" s="1" t="n"/>
       <c r="E678" s="1" t="n"/>
-      <c r="F678" s="1" t="inlineStr">
-        <is>
-          <t>Period 21</t>
-        </is>
+      <c r="F678" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="G678" t="n">
         <v>370727.5792252133</v>
@@ -17012,10 +15532,8 @@
       <c r="C679" s="1" t="n"/>
       <c r="D679" s="1" t="n"/>
       <c r="E679" s="1" t="n"/>
-      <c r="F679" s="1" t="inlineStr">
-        <is>
-          <t>Period 22</t>
-        </is>
+      <c r="F679" s="1" t="n">
+        <v>22</v>
       </c>
       <c r="G679" t="n">
         <v>707298.4622720238</v>
@@ -17036,10 +15554,8 @@
       <c r="C680" s="1" t="n"/>
       <c r="D680" s="1" t="n"/>
       <c r="E680" s="1" t="n"/>
-      <c r="F680" s="1" t="inlineStr">
-        <is>
-          <t>Period 23</t>
-        </is>
+      <c r="F680" s="1" t="n">
+        <v>23</v>
       </c>
       <c r="G680" t="n">
         <v>1133530.119218548</v>
@@ -17060,10 +15576,8 @@
       <c r="C681" s="1" t="n"/>
       <c r="D681" s="1" t="n"/>
       <c r="E681" s="1" t="n"/>
-      <c r="F681" s="1" t="inlineStr">
-        <is>
-          <t>Period 24</t>
-        </is>
+      <c r="F681" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="G681" t="n">
         <v>1566392.211838671</v>
@@ -17084,10 +15598,8 @@
       <c r="C682" s="1" t="n"/>
       <c r="D682" s="1" t="n"/>
       <c r="E682" s="1" t="n"/>
-      <c r="F682" s="1" t="inlineStr">
-        <is>
-          <t>Period 25</t>
-        </is>
+      <c r="F682" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="G682" t="n">
         <v>1836804.511821522</v>
@@ -17108,10 +15620,8 @@
       <c r="C683" s="1" t="n"/>
       <c r="D683" s="1" t="n"/>
       <c r="E683" s="1" t="n"/>
-      <c r="F683" s="1" t="inlineStr">
-        <is>
-          <t>Period 26</t>
-        </is>
+      <c r="F683" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="G683" t="n">
         <v>2050658.411749711</v>
@@ -17132,10 +15642,8 @@
       <c r="C684" s="1" t="n"/>
       <c r="D684" s="1" t="n"/>
       <c r="E684" s="1" t="n"/>
-      <c r="F684" s="1" t="inlineStr">
-        <is>
-          <t>Period 27</t>
-        </is>
+      <c r="F684" s="1" t="n">
+        <v>27</v>
       </c>
       <c r="G684" t="n">
         <v>2257703.974058066</v>
@@ -17156,10 +15664,8 @@
       <c r="C685" s="1" t="n"/>
       <c r="D685" s="1" t="n"/>
       <c r="E685" s="1" t="n"/>
-      <c r="F685" s="1" t="inlineStr">
-        <is>
-          <t>Period 28</t>
-        </is>
+      <c r="F685" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="G685" t="n">
         <v>2401806.362061975</v>
@@ -17180,10 +15686,8 @@
       <c r="C686" s="1" t="n"/>
       <c r="D686" s="1" t="n"/>
       <c r="E686" s="1" t="n"/>
-      <c r="F686" s="1" t="inlineStr">
-        <is>
-          <t>Period 29</t>
-        </is>
+      <c r="F686" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="G686" t="n">
         <v>2548080.965134351</v>
@@ -17204,10 +15708,8 @@
       <c r="C687" s="1" t="n"/>
       <c r="D687" s="1" t="n"/>
       <c r="E687" s="1" t="n"/>
-      <c r="F687" s="1" t="inlineStr">
-        <is>
-          <t>Period 30</t>
-        </is>
+      <c r="F687" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="G687" t="n">
         <v>2714549.779750981</v>
@@ -17228,10 +15730,8 @@
       <c r="C688" s="1" t="n"/>
       <c r="D688" s="1" t="n"/>
       <c r="E688" s="1" t="n"/>
-      <c r="F688" s="1" t="inlineStr">
-        <is>
-          <t>Period 31</t>
-        </is>
+      <c r="F688" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="G688" t="n">
         <v>2999999.999999999</v>
@@ -17252,10 +15752,8 @@
       <c r="C689" s="1" t="n"/>
       <c r="D689" s="1" t="n"/>
       <c r="E689" s="1" t="n"/>
-      <c r="F689" s="1" t="inlineStr">
-        <is>
-          <t>Period 32</t>
-        </is>
+      <c r="F689" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="G689" t="n">
         <v>3000000</v>
@@ -17276,10 +15774,8 @@
       <c r="C690" s="1" t="n"/>
       <c r="D690" s="1" t="n"/>
       <c r="E690" s="1" t="n"/>
-      <c r="F690" s="1" t="inlineStr">
-        <is>
-          <t>Period 33</t>
-        </is>
+      <c r="F690" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="G690" t="n">
         <v>3000000</v>
@@ -17300,10 +15796,8 @@
       <c r="C691" s="1" t="n"/>
       <c r="D691" s="1" t="n"/>
       <c r="E691" s="1" t="n"/>
-      <c r="F691" s="1" t="inlineStr">
-        <is>
-          <t>Period 34</t>
-        </is>
+      <c r="F691" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="G691" t="n">
         <v>3000000</v>
@@ -17324,10 +15818,8 @@
       <c r="C692" s="1" t="n"/>
       <c r="D692" s="1" t="n"/>
       <c r="E692" s="1" t="n"/>
-      <c r="F692" s="1" t="inlineStr">
-        <is>
-          <t>Period 35</t>
-        </is>
+      <c r="F692" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="G692" t="n">
         <v>3000000</v>
@@ -17348,10 +15840,8 @@
       <c r="C693" s="1" t="n"/>
       <c r="D693" s="1" t="n"/>
       <c r="E693" s="1" t="n"/>
-      <c r="F693" s="1" t="inlineStr">
-        <is>
-          <t>Period 36</t>
-        </is>
+      <c r="F693" s="1" t="n">
+        <v>36</v>
       </c>
       <c r="G693" t="n">
         <v>3000000</v>
@@ -17372,10 +15862,8 @@
       <c r="C694" s="1" t="n"/>
       <c r="D694" s="1" t="n"/>
       <c r="E694" s="1" t="n"/>
-      <c r="F694" s="1" t="inlineStr">
-        <is>
-          <t>Period 37</t>
-        </is>
+      <c r="F694" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="G694" t="n">
         <v>3000000</v>
@@ -17396,10 +15884,8 @@
       <c r="C695" s="1" t="n"/>
       <c r="D695" s="1" t="n"/>
       <c r="E695" s="1" t="n"/>
-      <c r="F695" s="1" t="inlineStr">
-        <is>
-          <t>Period 38</t>
-        </is>
+      <c r="F695" s="1" t="n">
+        <v>38</v>
       </c>
       <c r="G695" t="n">
         <v>3000000</v>
@@ -17420,10 +15906,8 @@
       <c r="C696" s="1" t="n"/>
       <c r="D696" s="1" t="n"/>
       <c r="E696" s="1" t="n"/>
-      <c r="F696" s="1" t="inlineStr">
-        <is>
-          <t>Period 39</t>
-        </is>
+      <c r="F696" s="1" t="n">
+        <v>39</v>
       </c>
       <c r="G696" t="n">
         <v>1914497.164387448</v>
@@ -17444,10 +15928,8 @@
       <c r="C697" s="1" t="n"/>
       <c r="D697" s="1" t="n"/>
       <c r="E697" s="1" t="n"/>
-      <c r="F697" s="1" t="inlineStr">
-        <is>
-          <t>Period 40</t>
-        </is>
+      <c r="F697" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="G697" t="n">
         <v>0</v>
@@ -17468,10 +15950,8 @@
       <c r="C698" s="1" t="n"/>
       <c r="D698" s="1" t="n"/>
       <c r="E698" s="1" t="n"/>
-      <c r="F698" s="1" t="inlineStr">
-        <is>
-          <t>Period 41</t>
-        </is>
+      <c r="F698" s="1" t="n">
+        <v>41</v>
       </c>
       <c r="G698" t="n">
         <v>0</v>
@@ -17492,10 +15972,8 @@
       <c r="C699" s="1" t="n"/>
       <c r="D699" s="1" t="n"/>
       <c r="E699" s="1" t="n"/>
-      <c r="F699" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="F699" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G699" t="n">
         <v>0</v>
@@ -17515,15 +15993,11 @@
       <c r="B700" s="1" t="n"/>
       <c r="C700" s="1" t="n"/>
       <c r="D700" s="1" t="n"/>
-      <c r="E700" s="1" t="inlineStr">
-        <is>
-          <t>Deploy period 42</t>
-        </is>
-      </c>
-      <c r="F700" s="1" t="inlineStr">
-        <is>
-          <t>Period 42</t>
-        </is>
+      <c r="E700" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="F700" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="G700" t="n">
         <v>151189.458827959</v>
@@ -17544,10 +16018,8 @@
       <c r="C701" s="1" t="n"/>
       <c r="D701" s="1" t="n"/>
       <c r="E701" s="1" t="n"/>
-      <c r="F701" s="1" t="inlineStr">
-        <is>
-          <t>Period 43</t>
-        </is>
+      <c r="F701" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="G701" t="n">
         <v>202754.8061408875</v>
@@ -17568,10 +16040,8 @@
       <c r="C702" s="1" t="n"/>
       <c r="D702" s="1" t="n"/>
       <c r="E702" s="1" t="n"/>
-      <c r="F702" s="1" t="inlineStr">
-        <is>
-          <t>Period 44</t>
-        </is>
+      <c r="F702" s="1" t="n">
+        <v>44</v>
       </c>
       <c r="G702" t="n">
         <v>309605.9163241776</v>
@@ -17592,10 +16062,8 @@
       <c r="C703" s="1" t="n"/>
       <c r="D703" s="1" t="n"/>
       <c r="E703" s="1" t="n"/>
-      <c r="F703" s="1" t="inlineStr">
-        <is>
-          <t>Period 45</t>
-        </is>
+      <c r="F703" s="1" t="n">
+        <v>45</v>
       </c>
       <c r="G703" t="n">
         <v>581899.0418466108</v>
@@ -17616,10 +16084,8 @@
       <c r="C704" s="1" t="n"/>
       <c r="D704" s="1" t="n"/>
       <c r="E704" s="1" t="n"/>
-      <c r="F704" s="1" t="inlineStr">
-        <is>
-          <t>Period 46</t>
-        </is>
+      <c r="F704" s="1" t="n">
+        <v>46</v>
       </c>
       <c r="G704" t="n">
         <v>1037327.882525921</v>
@@ -17640,10 +16106,8 @@
       <c r="C705" s="1" t="n"/>
       <c r="D705" s="1" t="n"/>
       <c r="E705" s="1" t="n"/>
-      <c r="F705" s="1" t="inlineStr">
-        <is>
-          <t>Period 47</t>
-        </is>
+      <c r="F705" s="1" t="n">
+        <v>47</v>
       </c>
       <c r="G705" t="n">
         <v>1564339.717116155</v>
@@ -17664,10 +16128,8 @@
       <c r="C706" s="1" t="n"/>
       <c r="D706" s="1" t="n"/>
       <c r="E706" s="1" t="n"/>
-      <c r="F706" s="1" t="inlineStr">
-        <is>
-          <t>Period 48</t>
-        </is>
+      <c r="F706" s="1" t="n">
+        <v>48</v>
       </c>
       <c r="G706" t="n">
         <v>1902464.690739309</v>
@@ -17688,10 +16150,8 @@
       <c r="C707" s="1" t="n"/>
       <c r="D707" s="1" t="n"/>
       <c r="E707" s="1" t="n"/>
-      <c r="F707" s="1" t="inlineStr">
-        <is>
-          <t>Period 49</t>
-        </is>
+      <c r="F707" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="G707" t="n">
         <v>2176278.44635771</v>
@@ -17712,10 +16172,8 @@
       <c r="C708" s="1" t="n"/>
       <c r="D708" s="1" t="n"/>
       <c r="E708" s="1" t="n"/>
-      <c r="F708" s="1" t="inlineStr">
-        <is>
-          <t>Period 50</t>
-        </is>
+      <c r="F708" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="G708" t="n">
         <v>2438647.235794292</v>
@@ -17736,10 +16194,8 @@
       <c r="C709" s="1" t="n"/>
       <c r="D709" s="1" t="n"/>
       <c r="E709" s="1" t="n"/>
-      <c r="F709" s="1" t="inlineStr">
-        <is>
-          <t>Period 51</t>
-        </is>
+      <c r="F709" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="G709" t="n">
         <v>2646137.653757156</v>
@@ -17760,10 +16216,8 @@
       <c r="C710" s="1" t="n"/>
       <c r="D710" s="1" t="n"/>
       <c r="E710" s="1" t="n"/>
-      <c r="F710" s="1" t="inlineStr">
-        <is>
-          <t>Period 52</t>
-        </is>
+      <c r="F710" s="1" t="n">
+        <v>52</v>
       </c>
       <c r="G710" t="n">
         <v>2859961.567538303</v>
@@ -17784,10 +16238,8 @@
       <c r="C711" s="1" t="n"/>
       <c r="D711" s="1" t="n"/>
       <c r="E711" s="1" t="n"/>
-      <c r="F711" s="1" t="inlineStr">
-        <is>
-          <t>Period 53</t>
-        </is>
+      <c r="F711" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="G711" t="n">
         <v>3000000</v>
@@ -17808,10 +16260,8 @@
       <c r="C712" s="1" t="n"/>
       <c r="D712" s="1" t="n"/>
       <c r="E712" s="1" t="n"/>
-      <c r="F712" s="1" t="inlineStr">
-        <is>
-          <t>Period 54</t>
-        </is>
+      <c r="F712" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="G712" t="n">
         <v>3000000</v>
@@ -17832,10 +16282,8 @@
       <c r="C713" s="1" t="n"/>
       <c r="D713" s="1" t="n"/>
       <c r="E713" s="1" t="n"/>
-      <c r="F713" s="1" t="inlineStr">
-        <is>
-          <t>Period 55</t>
-        </is>
+      <c r="F713" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="G713" t="n">
         <v>3000000.000000244</v>
@@ -17856,10 +16304,8 @@
       <c r="C714" s="1" t="n"/>
       <c r="D714" s="1" t="n"/>
       <c r="E714" s="1" t="n"/>
-      <c r="F714" s="1" t="inlineStr">
-        <is>
-          <t>Period 56</t>
-        </is>
+      <c r="F714" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="G714" t="n">
         <v>3000000</v>
@@ -17880,10 +16326,8 @@
       <c r="C715" s="1" t="n"/>
       <c r="D715" s="1" t="n"/>
       <c r="E715" s="1" t="n"/>
-      <c r="F715" s="1" t="inlineStr">
-        <is>
-          <t>Period 57</t>
-        </is>
+      <c r="F715" s="1" t="n">
+        <v>57</v>
       </c>
       <c r="G715" t="n">
         <v>3000000</v>
@@ -17904,10 +16348,8 @@
       <c r="C716" s="1" t="n"/>
       <c r="D716" s="1" t="n"/>
       <c r="E716" s="1" t="n"/>
-      <c r="F716" s="1" t="inlineStr">
-        <is>
-          <t>Period 58</t>
-        </is>
+      <c r="F716" s="1" t="n">
+        <v>58</v>
       </c>
       <c r="G716" t="n">
         <v>1720982.471697196</v>
@@ -17928,10 +16370,8 @@
       <c r="C717" s="1" t="n"/>
       <c r="D717" s="1" t="n"/>
       <c r="E717" s="1" t="n"/>
-      <c r="F717" s="1" t="inlineStr">
-        <is>
-          <t>Period 59</t>
-        </is>
+      <c r="F717" s="1" t="n">
+        <v>59</v>
       </c>
       <c r="G717" t="n">
         <v>0</v>
